--- a/corpus_results/data/swbd_adjectives.combined.xlsx
+++ b/corpus_results/data/swbd_adjectives.combined.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="0" windowWidth="25020" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25020" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="swbd_adjectives.combined.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="adjectives.js" sheetId="2" r:id="rId2"/>
+    <sheet name="nouns.js" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="535">
   <si>
     <t>header</t>
   </si>
@@ -1130,6 +1131,501 @@
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>conversation</t>
+  </si>
+  <si>
+    <t>offender</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>burden</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>phrase</t>
+  </si>
+  <si>
+    <t>sauce</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>slant</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>typewriter</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>conscience</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>perspective</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>guy</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>tollway</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>puppy</t>
+  </si>
+  <si>
+    <t>corporation</t>
+  </si>
+  <si>
+    <t>suit</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>lifestyle</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>driveway</t>
+  </si>
+  <si>
+    <t>autobiography</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>grandchild</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>behavior</t>
+  </si>
+  <si>
+    <t>joke</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>casserole</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>satire</t>
+  </si>
+  <si>
+    <t>spaghetti</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>labrador</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>bearing</t>
+  </si>
+  <si>
+    <t>banking</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>lettering</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>mall</t>
+  </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>ski</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>strip</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>teller</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>vitamin</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>libertarian</t>
+  </si>
+  <si>
+    <t>citizen</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>nounClass</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1681,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1204,19 +1704,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1548,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+    <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="B204" sqref="B204:D233"/>
     </sheetView>
   </sheetViews>
@@ -1610,7 +2114,7 @@
         <v>175</v>
       </c>
       <c r="J2">
-        <f>IF(C2=H2,1,IF(D2="X"&amp;I2="X",1,0))</f>
+        <f t="shared" ref="J2:J65" si="0">IF(C2=H2,1,IF(D2="X"&amp;I2="X",1,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1634,7 +2138,7 @@
         <v>175</v>
       </c>
       <c r="J3">
-        <f>IF(C3=H3,1,IF(D3="X"&amp;I3="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1658,7 +2162,7 @@
         <v>175</v>
       </c>
       <c r="J4">
-        <f>IF(C4=H4,1,IF(D4="X"&amp;I4="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1682,7 +2186,7 @@
         <v>175</v>
       </c>
       <c r="J5">
-        <f>IF(C5=H5,1,IF(D5="X"&amp;I5="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1706,7 +2210,7 @@
         <v>175</v>
       </c>
       <c r="J6">
-        <f>IF(C6=H6,1,IF(D6="X"&amp;I6="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1730,7 +2234,7 @@
         <v>175</v>
       </c>
       <c r="J7">
-        <f>IF(C7=H7,1,IF(D7="X"&amp;I7="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1754,7 +2258,7 @@
         <v>165</v>
       </c>
       <c r="J8">
-        <f>IF(C8=H8,1,IF(D8="X"&amp;I8="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1778,7 +2282,7 @@
         <v>165</v>
       </c>
       <c r="J9">
-        <f>IF(C9=H9,1,IF(D9="X"&amp;I9="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1802,7 +2306,7 @@
         <v>165</v>
       </c>
       <c r="J10">
-        <f>IF(C10=H10,1,IF(D10="X"&amp;I10="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1826,7 +2330,7 @@
         <v>165</v>
       </c>
       <c r="J11">
-        <f>IF(C11=H11,1,IF(D11="X"&amp;I11="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1850,7 +2354,7 @@
         <v>165</v>
       </c>
       <c r="J12">
-        <f>IF(C12=H12,1,IF(D12="X"&amp;I12="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1874,7 +2378,7 @@
         <v>165</v>
       </c>
       <c r="J13">
-        <f>IF(C13=H13,1,IF(D13="X"&amp;I13="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1898,7 +2402,7 @@
         <v>165</v>
       </c>
       <c r="J14">
-        <f>IF(C14=H14,1,IF(D14="X"&amp;I14="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1922,7 +2426,7 @@
         <v>165</v>
       </c>
       <c r="J15">
-        <f>IF(C15=H15,1,IF(D15="X"&amp;I15="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1946,7 +2450,7 @@
         <v>134</v>
       </c>
       <c r="J16">
-        <f>IF(C16=H16,1,IF(D16="X"&amp;I16="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1970,7 +2474,7 @@
         <v>134</v>
       </c>
       <c r="J17">
-        <f>IF(C17=H17,1,IF(D17="X"&amp;I17="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1994,7 +2498,7 @@
         <v>134</v>
       </c>
       <c r="J18">
-        <f>IF(C18=H18,1,IF(D18="X"&amp;I18="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2018,7 +2522,7 @@
         <v>134</v>
       </c>
       <c r="J19">
-        <f>IF(C19=H19,1,IF(D19="X"&amp;I19="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2042,7 +2546,7 @@
         <v>134</v>
       </c>
       <c r="J20">
-        <f>IF(C20=H20,1,IF(D20="X"&amp;I20="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2066,7 +2570,7 @@
         <v>134</v>
       </c>
       <c r="J21">
-        <f>IF(C21=H21,1,IF(D21="X"&amp;I21="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2090,7 +2594,7 @@
         <v>134</v>
       </c>
       <c r="J22">
-        <f>IF(C22=H22,1,IF(D22="X"&amp;I22="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2114,7 +2618,7 @@
         <v>134</v>
       </c>
       <c r="J23">
-        <f>IF(C23=H23,1,IF(D23="X"&amp;I23="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2138,7 +2642,7 @@
         <v>134</v>
       </c>
       <c r="J24">
-        <f>IF(C24=H24,1,IF(D24="X"&amp;I24="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2162,7 +2666,7 @@
         <v>134</v>
       </c>
       <c r="J25">
-        <f>IF(C25=H25,1,IF(D25="X"&amp;I25="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2186,7 +2690,7 @@
         <v>134</v>
       </c>
       <c r="J26">
-        <f>IF(C26=H26,1,IF(D26="X"&amp;I26="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2210,7 +2714,7 @@
         <v>134</v>
       </c>
       <c r="J27">
-        <f>IF(C27=H27,1,IF(D27="X"&amp;I27="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2234,7 +2738,7 @@
         <v>134</v>
       </c>
       <c r="J28">
-        <f>IF(C28=H28,1,IF(D28="X"&amp;I28="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2258,7 +2762,7 @@
         <v>134</v>
       </c>
       <c r="J29">
-        <f>IF(C29=H29,1,IF(D29="X"&amp;I29="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2282,7 +2786,7 @@
         <v>134</v>
       </c>
       <c r="J30">
-        <f>IF(C30=H30,1,IF(D30="X"&amp;I30="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2306,7 +2810,7 @@
         <v>134</v>
       </c>
       <c r="J31">
-        <f>IF(C31=H31,1,IF(D31="X"&amp;I31="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2330,7 +2834,7 @@
         <v>134</v>
       </c>
       <c r="J32">
-        <f>IF(C32=H32,1,IF(D32="X"&amp;I32="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2354,7 +2858,7 @@
         <v>134</v>
       </c>
       <c r="J33">
-        <f>IF(C33=H33,1,IF(D33="X"&amp;I33="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2378,7 +2882,7 @@
         <v>134</v>
       </c>
       <c r="J34">
-        <f>IF(C34=H34,1,IF(D34="X"&amp;I34="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2402,7 +2906,7 @@
         <v>134</v>
       </c>
       <c r="J35">
-        <f>IF(C35=H35,1,IF(D35="X"&amp;I35="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2426,7 +2930,7 @@
         <v>134</v>
       </c>
       <c r="J36">
-        <f>IF(C36=H36,1,IF(D36="X"&amp;I36="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2450,7 +2954,7 @@
         <v>134</v>
       </c>
       <c r="J37">
-        <f>IF(C37=H37,1,IF(D37="X"&amp;I37="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2474,7 +2978,7 @@
         <v>134</v>
       </c>
       <c r="J38">
-        <f>IF(C38=H38,1,IF(D38="X"&amp;I38="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2498,7 +3002,7 @@
         <v>134</v>
       </c>
       <c r="J39">
-        <f>IF(C39=H39,1,IF(D39="X"&amp;I39="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2522,7 +3026,7 @@
         <v>134</v>
       </c>
       <c r="J40">
-        <f>IF(C40=H40,1,IF(D40="X"&amp;I40="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2546,7 +3050,7 @@
         <v>134</v>
       </c>
       <c r="J41">
-        <f>IF(C41=H41,1,IF(D41="X"&amp;I41="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2570,7 +3074,7 @@
         <v>134</v>
       </c>
       <c r="J42">
-        <f>IF(C42=H42,1,IF(D42="X"&amp;I42="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2594,7 +3098,7 @@
         <v>112</v>
       </c>
       <c r="J43">
-        <f>IF(C43=H43,1,IF(D43="X"&amp;I43="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2618,7 +3122,7 @@
         <v>112</v>
       </c>
       <c r="J44">
-        <f>IF(C44=H44,1,IF(D44="X"&amp;I44="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2642,7 +3146,7 @@
         <v>112</v>
       </c>
       <c r="J45">
-        <f>IF(C45=H45,1,IF(D45="X"&amp;I45="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2666,7 +3170,7 @@
         <v>112</v>
       </c>
       <c r="J46">
-        <f>IF(C46=H46,1,IF(D46="X"&amp;I46="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2690,7 +3194,7 @@
         <v>112</v>
       </c>
       <c r="J47">
-        <f>IF(C47=H47,1,IF(D47="X"&amp;I47="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2714,7 +3218,7 @@
         <v>112</v>
       </c>
       <c r="J48">
-        <f>IF(C48=H48,1,IF(D48="X"&amp;I48="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2738,7 +3242,7 @@
         <v>112</v>
       </c>
       <c r="J49">
-        <f>IF(C49=H49,1,IF(D49="X"&amp;I49="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2762,7 +3266,7 @@
         <v>112</v>
       </c>
       <c r="J50">
-        <f>IF(C50=H50,1,IF(D50="X"&amp;I50="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2786,7 +3290,7 @@
         <v>112</v>
       </c>
       <c r="J51">
-        <f>IF(C51=H51,1,IF(D51="X"&amp;I51="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2810,7 +3314,7 @@
         <v>112</v>
       </c>
       <c r="J52">
-        <f>IF(C52=H52,1,IF(D52="X"&amp;I52="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2834,7 +3338,7 @@
         <v>112</v>
       </c>
       <c r="J53">
-        <f>IF(C53=H53,1,IF(D53="X"&amp;I53="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2858,7 +3362,7 @@
         <v>112</v>
       </c>
       <c r="J54">
-        <f>IF(C54=H54,1,IF(D54="X"&amp;I54="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2882,7 +3386,7 @@
         <v>112</v>
       </c>
       <c r="J55">
-        <f>IF(C55=H55,1,IF(D55="X"&amp;I55="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2906,7 +3410,7 @@
         <v>112</v>
       </c>
       <c r="J56">
-        <f>IF(C56=H56,1,IF(D56="X"&amp;I56="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2930,7 +3434,7 @@
         <v>112</v>
       </c>
       <c r="J57">
-        <f>IF(C57=H57,1,IF(D57="X"&amp;I57="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2954,7 +3458,7 @@
         <v>112</v>
       </c>
       <c r="J58">
-        <f>IF(C58=H58,1,IF(D58="X"&amp;I58="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2978,7 +3482,7 @@
         <v>112</v>
       </c>
       <c r="J59">
-        <f>IF(C59=H59,1,IF(D59="X"&amp;I59="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3002,7 +3506,7 @@
         <v>112</v>
       </c>
       <c r="J60">
-        <f>IF(C60=H60,1,IF(D60="X"&amp;I60="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3026,7 +3530,7 @@
         <v>363</v>
       </c>
       <c r="J61">
-        <f>IF(C61=H61,1,IF(D61="X"&amp;I61="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3050,7 +3554,7 @@
         <v>363</v>
       </c>
       <c r="J62">
-        <f>IF(C62=H62,1,IF(D62="X"&amp;I62="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3077,7 +3581,7 @@
         <v>187</v>
       </c>
       <c r="J63">
-        <f>IF(C63=H63,1,IF(D63="X"&amp;I63="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3101,7 +3605,7 @@
         <v>106</v>
       </c>
       <c r="J64">
-        <f>IF(C64=H64,1,IF(D64="X"&amp;I64="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3125,7 +3629,7 @@
         <v>106</v>
       </c>
       <c r="J65">
-        <f>IF(C65=H65,1,IF(D65="X"&amp;I65="X",1,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3149,7 +3653,7 @@
         <v>106</v>
       </c>
       <c r="J66">
-        <f>IF(C66=H66,1,IF(D66="X"&amp;I66="X",1,0))</f>
+        <f t="shared" ref="J66:J129" si="1">IF(C66=H66,1,IF(D66="X"&amp;I66="X",1,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -3173,7 +3677,7 @@
         <v>106</v>
       </c>
       <c r="J67">
-        <f>IF(C67=H67,1,IF(D67="X"&amp;I67="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3197,7 +3701,7 @@
         <v>81</v>
       </c>
       <c r="J68">
-        <f>IF(C68=H68,1,IF(D68="X"&amp;I68="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3221,7 +3725,7 @@
         <v>81</v>
       </c>
       <c r="J69">
-        <f>IF(C69=H69,1,IF(D69="X"&amp;I69="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3245,7 +3749,7 @@
         <v>81</v>
       </c>
       <c r="J70">
-        <f>IF(C70=H70,1,IF(D70="X"&amp;I70="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3269,7 +3773,7 @@
         <v>81</v>
       </c>
       <c r="J71">
-        <f>IF(C71=H71,1,IF(D71="X"&amp;I71="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3293,7 +3797,7 @@
         <v>81</v>
       </c>
       <c r="J72">
-        <f>IF(C72=H72,1,IF(D72="X"&amp;I72="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3317,7 +3821,7 @@
         <v>81</v>
       </c>
       <c r="J73">
-        <f>IF(C73=H73,1,IF(D73="X"&amp;I73="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3341,7 +3845,7 @@
         <v>81</v>
       </c>
       <c r="J74">
-        <f>IF(C74=H74,1,IF(D74="X"&amp;I74="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3365,7 +3869,7 @@
         <v>81</v>
       </c>
       <c r="J75">
-        <f>IF(C75=H75,1,IF(D75="X"&amp;I75="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3389,7 +3893,7 @@
         <v>81</v>
       </c>
       <c r="J76">
-        <f>IF(C76=H76,1,IF(D76="X"&amp;I76="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3413,7 +3917,7 @@
         <v>81</v>
       </c>
       <c r="J77">
-        <f>IF(C77=H77,1,IF(D77="X"&amp;I77="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3437,7 +3941,7 @@
         <v>81</v>
       </c>
       <c r="J78">
-        <f>IF(C78=H78,1,IF(D78="X"&amp;I78="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3461,7 +3965,7 @@
         <v>81</v>
       </c>
       <c r="J79">
-        <f>IF(C79=H79,1,IF(D79="X"&amp;I79="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3485,7 +3989,7 @@
         <v>81</v>
       </c>
       <c r="J80">
-        <f>IF(C80=H80,1,IF(D80="X"&amp;I80="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3509,7 +4013,7 @@
         <v>81</v>
       </c>
       <c r="J81">
-        <f>IF(C81=H81,1,IF(D81="X"&amp;I81="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3533,7 +4037,7 @@
         <v>81</v>
       </c>
       <c r="J82">
-        <f>IF(C82=H82,1,IF(D82="X"&amp;I82="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3557,7 +4061,7 @@
         <v>81</v>
       </c>
       <c r="J83">
-        <f>IF(C83=H83,1,IF(D83="X"&amp;I83="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3581,7 +4085,7 @@
         <v>81</v>
       </c>
       <c r="J84">
-        <f>IF(C84=H84,1,IF(D84="X"&amp;I84="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3605,7 +4109,7 @@
         <v>81</v>
       </c>
       <c r="J85">
-        <f>IF(C85=H85,1,IF(D85="X"&amp;I85="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3629,7 +4133,7 @@
         <v>81</v>
       </c>
       <c r="J86">
-        <f>IF(C86=H86,1,IF(D86="X"&amp;I86="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3653,7 +4157,7 @@
         <v>56</v>
       </c>
       <c r="J87">
-        <f>IF(C87=H87,1,IF(D87="X"&amp;I87="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3677,7 +4181,7 @@
         <v>56</v>
       </c>
       <c r="J88">
-        <f>IF(C88=H88,1,IF(D88="X"&amp;I88="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3701,7 +4205,7 @@
         <v>56</v>
       </c>
       <c r="J89">
-        <f>IF(C89=H89,1,IF(D89="X"&amp;I89="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3725,7 +4229,7 @@
         <v>56</v>
       </c>
       <c r="J90">
-        <f>IF(C90=H90,1,IF(D90="X"&amp;I90="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3749,7 +4253,7 @@
         <v>56</v>
       </c>
       <c r="J91">
-        <f>IF(C91=H91,1,IF(D91="X"&amp;I91="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3773,7 +4277,7 @@
         <v>56</v>
       </c>
       <c r="J92">
-        <f>IF(C92=H92,1,IF(D92="X"&amp;I92="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3797,7 +4301,7 @@
         <v>56</v>
       </c>
       <c r="J93">
-        <f>IF(C93=H93,1,IF(D93="X"&amp;I93="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3821,7 +4325,7 @@
         <v>56</v>
       </c>
       <c r="J94">
-        <f>IF(C94=H94,1,IF(D94="X"&amp;I94="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3845,7 +4349,7 @@
         <v>56</v>
       </c>
       <c r="J95">
-        <f>IF(C95=H95,1,IF(D95="X"&amp;I95="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3869,7 +4373,7 @@
         <v>56</v>
       </c>
       <c r="J96">
-        <f>IF(C96=H96,1,IF(D96="X"&amp;I96="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3893,7 +4397,7 @@
         <v>56</v>
       </c>
       <c r="J97">
-        <f>IF(C97=H97,1,IF(D97="X"&amp;I97="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3917,7 +4421,7 @@
         <v>56</v>
       </c>
       <c r="J98">
-        <f>IF(C98=H98,1,IF(D98="X"&amp;I98="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3941,7 +4445,7 @@
         <v>56</v>
       </c>
       <c r="J99">
-        <f>IF(C99=H99,1,IF(D99="X"&amp;I99="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3965,7 +4469,7 @@
         <v>56</v>
       </c>
       <c r="J100">
-        <f>IF(C100=H100,1,IF(D100="X"&amp;I100="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3989,7 +4493,7 @@
         <v>56</v>
       </c>
       <c r="J101">
-        <f>IF(C101=H101,1,IF(D101="X"&amp;I101="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4013,7 +4517,7 @@
         <v>56</v>
       </c>
       <c r="J102">
-        <f>IF(C102=H102,1,IF(D102="X"&amp;I102="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4037,7 +4541,7 @@
         <v>56</v>
       </c>
       <c r="J103">
-        <f>IF(C103=H103,1,IF(D103="X"&amp;I103="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4061,7 +4565,7 @@
         <v>56</v>
       </c>
       <c r="J104">
-        <f>IF(C104=H104,1,IF(D104="X"&amp;I104="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4085,7 +4589,7 @@
         <v>56</v>
       </c>
       <c r="J105">
-        <f>IF(C105=H105,1,IF(D105="X"&amp;I105="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4109,7 +4613,7 @@
         <v>56</v>
       </c>
       <c r="J106">
-        <f>IF(C106=H106,1,IF(D106="X"&amp;I106="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4133,7 +4637,7 @@
         <v>56</v>
       </c>
       <c r="J107">
-        <f>IF(C107=H107,1,IF(D107="X"&amp;I107="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4157,7 +4661,7 @@
         <v>56</v>
       </c>
       <c r="J108">
-        <f>IF(C108=H108,1,IF(D108="X"&amp;I108="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4181,7 +4685,7 @@
         <v>56</v>
       </c>
       <c r="J109">
-        <f>IF(C109=H109,1,IF(D109="X"&amp;I109="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4205,7 +4709,7 @@
         <v>56</v>
       </c>
       <c r="J110">
-        <f>IF(C110=H110,1,IF(D110="X"&amp;I110="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4229,7 +4733,7 @@
         <v>54</v>
       </c>
       <c r="J111">
-        <f>IF(C111=H111,1,IF(D111="X"&amp;I111="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4253,7 +4757,7 @@
         <v>50</v>
       </c>
       <c r="J112">
-        <f>IF(C112=H112,1,IF(D112="X"&amp;I112="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4277,7 +4781,7 @@
         <v>50</v>
       </c>
       <c r="J113">
-        <f>IF(C113=H113,1,IF(D113="X"&amp;I113="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4301,7 +4805,7 @@
         <v>50</v>
       </c>
       <c r="J114">
-        <f>IF(C114=H114,1,IF(D114="X"&amp;I114="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4325,7 +4829,7 @@
         <v>362</v>
       </c>
       <c r="J115">
-        <f>IF(C115=H115,1,IF(D115="X"&amp;I115="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4349,7 +4853,7 @@
         <v>362</v>
       </c>
       <c r="J116">
-        <f>IF(C116=H116,1,IF(D116="X"&amp;I116="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4373,7 +4877,7 @@
         <v>362</v>
       </c>
       <c r="J117">
-        <f>IF(C117=H117,1,IF(D117="X"&amp;I117="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4397,7 +4901,7 @@
         <v>362</v>
       </c>
       <c r="J118">
-        <f>IF(C118=H118,1,IF(D118="X"&amp;I118="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4421,7 +4925,7 @@
         <v>5</v>
       </c>
       <c r="J119">
-        <f>IF(C119=H119,1,IF(D119="X"&amp;I119="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4445,7 +4949,7 @@
         <v>5</v>
       </c>
       <c r="J120">
-        <f>IF(C120=H120,1,IF(D120="X"&amp;I120="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4469,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="J121">
-        <f>IF(C121=H121,1,IF(D121="X"&amp;I121="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4493,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="J122">
-        <f>IF(C122=H122,1,IF(D122="X"&amp;I122="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4517,7 +5021,7 @@
         <v>5</v>
       </c>
       <c r="J123">
-        <f>IF(C123=H123,1,IF(D123="X"&amp;I123="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4541,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="J124">
-        <f>IF(C124=H124,1,IF(D124="X"&amp;I124="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4565,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="J125">
-        <f>IF(C125=H125,1,IF(D125="X"&amp;I125="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4589,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="J126">
-        <f>IF(C126=H126,1,IF(D126="X"&amp;I126="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4613,7 +5117,7 @@
         <v>5</v>
       </c>
       <c r="J127">
-        <f>IF(C127=H127,1,IF(D127="X"&amp;I127="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4637,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="J128">
-        <f>IF(C128=H128,1,IF(D128="X"&amp;I128="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4661,7 +5165,7 @@
         <v>5</v>
       </c>
       <c r="J129">
-        <f>IF(C129=H129,1,IF(D129="X"&amp;I129="X",1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4685,7 +5189,7 @@
         <v>5</v>
       </c>
       <c r="J130">
-        <f>IF(C130=H130,1,IF(D130="X"&amp;I130="X",1,0))</f>
+        <f t="shared" ref="J130:J193" si="2">IF(C130=H130,1,IF(D130="X"&amp;I130="X",1,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -4709,7 +5213,7 @@
         <v>5</v>
       </c>
       <c r="J131">
-        <f>IF(C131=H131,1,IF(D131="X"&amp;I131="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4733,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="J132">
-        <f>IF(C132=H132,1,IF(D132="X"&amp;I132="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4757,7 +5261,7 @@
         <v>5</v>
       </c>
       <c r="J133">
-        <f>IF(C133=H133,1,IF(D133="X"&amp;I133="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4781,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="J134">
-        <f>IF(C134=H134,1,IF(D134="X"&amp;I134="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4805,7 +5309,7 @@
         <v>5</v>
       </c>
       <c r="J135">
-        <f>IF(C135=H135,1,IF(D135="X"&amp;I135="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4829,7 +5333,7 @@
         <v>5</v>
       </c>
       <c r="J136">
-        <f>IF(C136=H136,1,IF(D136="X"&amp;I136="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4853,7 +5357,7 @@
         <v>5</v>
       </c>
       <c r="J137">
-        <f>IF(C137=H137,1,IF(D137="X"&amp;I137="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4877,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="J138">
-        <f>IF(C138=H138,1,IF(D138="X"&amp;I138="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4901,7 +5405,7 @@
         <v>5</v>
       </c>
       <c r="J139">
-        <f>IF(C139=H139,1,IF(D139="X"&amp;I139="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4925,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="J140">
-        <f>IF(C140=H140,1,IF(D140="X"&amp;I140="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4949,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="J141">
-        <f>IF(C141=H141,1,IF(D141="X"&amp;I141="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4973,7 +5477,7 @@
         <v>5</v>
       </c>
       <c r="J142">
-        <f>IF(C142=H142,1,IF(D142="X"&amp;I142="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4997,7 +5501,7 @@
         <v>5</v>
       </c>
       <c r="J143">
-        <f>IF(C143=H143,1,IF(D143="X"&amp;I143="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5021,7 +5525,7 @@
         <v>5</v>
       </c>
       <c r="J144">
-        <f>IF(C144=H144,1,IF(D144="X"&amp;I144="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5045,7 +5549,7 @@
         <v>5</v>
       </c>
       <c r="J145">
-        <f>IF(C145=H145,1,IF(D145="X"&amp;I145="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5069,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="J146">
-        <f>IF(C146=H146,1,IF(D146="X"&amp;I146="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5093,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="J147">
-        <f>IF(C147=H147,1,IF(D147="X"&amp;I147="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5117,7 +5621,7 @@
         <v>5</v>
       </c>
       <c r="J148">
-        <f>IF(C148=H148,1,IF(D148="X"&amp;I148="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5141,7 +5645,7 @@
         <v>5</v>
       </c>
       <c r="J149">
-        <f>IF(C149=H149,1,IF(D149="X"&amp;I149="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5165,7 +5669,7 @@
         <v>5</v>
       </c>
       <c r="J150">
-        <f>IF(C150=H150,1,IF(D150="X"&amp;I150="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5189,7 +5693,7 @@
         <v>5</v>
       </c>
       <c r="J151">
-        <f>IF(C151=H151,1,IF(D151="X"&amp;I151="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5213,7 +5717,7 @@
         <v>5</v>
       </c>
       <c r="J152">
-        <f>IF(C152=H152,1,IF(D152="X"&amp;I152="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5237,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="J153">
-        <f>IF(C153=H153,1,IF(D153="X"&amp;I153="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5261,7 +5765,7 @@
         <v>5</v>
       </c>
       <c r="J154">
-        <f>IF(C154=H154,1,IF(D154="X"&amp;I154="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5285,7 +5789,7 @@
         <v>5</v>
       </c>
       <c r="J155">
-        <f>IF(C155=H155,1,IF(D155="X"&amp;I155="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5309,7 +5813,7 @@
         <v>5</v>
       </c>
       <c r="J156">
-        <f>IF(C156=H156,1,IF(D156="X"&amp;I156="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5333,7 +5837,7 @@
         <v>5</v>
       </c>
       <c r="J157">
-        <f>IF(C157=H157,1,IF(D157="X"&amp;I157="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5357,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="J158">
-        <f>IF(C158=H158,1,IF(D158="X"&amp;I158="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5381,7 +5885,7 @@
         <v>5</v>
       </c>
       <c r="J159">
-        <f>IF(C159=H159,1,IF(D159="X"&amp;I159="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5405,7 +5909,7 @@
         <v>5</v>
       </c>
       <c r="J160">
-        <f>IF(C160=H160,1,IF(D160="X"&amp;I160="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5429,7 +5933,7 @@
         <v>5</v>
       </c>
       <c r="J161">
-        <f>IF(C161=H161,1,IF(D161="X"&amp;I161="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5453,7 +5957,7 @@
         <v>5</v>
       </c>
       <c r="J162">
-        <f>IF(C162=H162,1,IF(D162="X"&amp;I162="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5477,7 +5981,7 @@
         <v>5</v>
       </c>
       <c r="J163">
-        <f>IF(C163=H163,1,IF(D163="X"&amp;I163="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5501,7 +6005,7 @@
         <v>5</v>
       </c>
       <c r="J164">
-        <f>IF(C164=H164,1,IF(D164="X"&amp;I164="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5525,7 +6029,7 @@
         <v>5</v>
       </c>
       <c r="J165">
-        <f>IF(C165=H165,1,IF(D165="X"&amp;I165="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5549,7 +6053,7 @@
         <v>5</v>
       </c>
       <c r="J166">
-        <f>IF(C166=H166,1,IF(D166="X"&amp;I166="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5573,7 +6077,7 @@
         <v>5</v>
       </c>
       <c r="J167">
-        <f>IF(C167=H167,1,IF(D167="X"&amp;I167="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5600,7 +6104,7 @@
         <v>187</v>
       </c>
       <c r="J168">
-        <f>IF(C168=H168,1,IF(D168="X"&amp;I168="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5627,7 +6131,7 @@
         <v>187</v>
       </c>
       <c r="J169">
-        <f>IF(C169=H169,1,IF(D169="X"&amp;I169="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5654,7 +6158,7 @@
         <v>187</v>
       </c>
       <c r="J170">
-        <f>IF(C170=H170,1,IF(D170="X"&amp;I170="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5681,7 +6185,7 @@
         <v>187</v>
       </c>
       <c r="J171">
-        <f>IF(C171=H171,1,IF(D171="X"&amp;I171="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5708,7 +6212,7 @@
         <v>187</v>
       </c>
       <c r="J172">
-        <f>IF(C172=H172,1,IF(D172="X"&amp;I172="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5735,7 +6239,7 @@
         <v>187</v>
       </c>
       <c r="J173">
-        <f>IF(C173=H173,1,IF(D173="X"&amp;I173="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5762,7 +6266,7 @@
         <v>187</v>
       </c>
       <c r="J174">
-        <f>IF(C174=H174,1,IF(D174="X"&amp;I174="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5789,7 +6293,7 @@
         <v>187</v>
       </c>
       <c r="J175">
-        <f>IF(C175=H175,1,IF(D175="X"&amp;I175="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5816,7 +6320,7 @@
         <v>187</v>
       </c>
       <c r="J176">
-        <f>IF(C176=H176,1,IF(D176="X"&amp;I176="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5843,7 +6347,7 @@
         <v>187</v>
       </c>
       <c r="J177">
-        <f>IF(C177=H177,1,IF(D177="X"&amp;I177="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5870,7 +6374,7 @@
         <v>187</v>
       </c>
       <c r="J178">
-        <f>IF(C178=H178,1,IF(D178="X"&amp;I178="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5897,7 +6401,7 @@
         <v>187</v>
       </c>
       <c r="J179">
-        <f>IF(C179=H179,1,IF(D179="X"&amp;I179="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5924,7 +6428,7 @@
         <v>187</v>
       </c>
       <c r="J180">
-        <f>IF(C180=H180,1,IF(D180="X"&amp;I180="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5951,7 +6455,7 @@
         <v>187</v>
       </c>
       <c r="J181">
-        <f>IF(C181=H181,1,IF(D181="X"&amp;I181="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5978,7 +6482,7 @@
         <v>187</v>
       </c>
       <c r="J182">
-        <f>IF(C182=H182,1,IF(D182="X"&amp;I182="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6005,7 +6509,7 @@
         <v>187</v>
       </c>
       <c r="J183">
-        <f>IF(C183=H183,1,IF(D183="X"&amp;I183="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6032,7 +6536,7 @@
         <v>187</v>
       </c>
       <c r="J184">
-        <f>IF(C184=H184,1,IF(D184="X"&amp;I184="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6059,7 +6563,7 @@
         <v>187</v>
       </c>
       <c r="J185">
-        <f>IF(C185=H185,1,IF(D185="X"&amp;I185="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6086,7 +6590,7 @@
         <v>187</v>
       </c>
       <c r="J186">
-        <f>IF(C186=H186,1,IF(D186="X"&amp;I186="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6113,7 +6617,7 @@
         <v>187</v>
       </c>
       <c r="J187">
-        <f>IF(C187=H187,1,IF(D187="X"&amp;I187="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6140,7 +6644,7 @@
         <v>187</v>
       </c>
       <c r="J188">
-        <f>IF(C188=H188,1,IF(D188="X"&amp;I188="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6167,7 +6671,7 @@
         <v>187</v>
       </c>
       <c r="J189">
-        <f>IF(C189=H189,1,IF(D189="X"&amp;I189="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6194,7 +6698,7 @@
         <v>187</v>
       </c>
       <c r="J190">
-        <f>IF(C190=H190,1,IF(D190="X"&amp;I190="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6221,7 +6725,7 @@
         <v>187</v>
       </c>
       <c r="J191">
-        <f>IF(C191=H191,1,IF(D191="X"&amp;I191="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6248,7 +6752,7 @@
         <v>187</v>
       </c>
       <c r="J192">
-        <f>IF(C192=H192,1,IF(D192="X"&amp;I192="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6275,7 +6779,7 @@
         <v>187</v>
       </c>
       <c r="J193">
-        <f>IF(C193=H193,1,IF(D193="X"&amp;I193="X",1,0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6302,7 +6806,7 @@
         <v>187</v>
       </c>
       <c r="J194">
-        <f>IF(C194=H194,1,IF(D194="X"&amp;I194="X",1,0))</f>
+        <f t="shared" ref="J194:J257" si="3">IF(C194=H194,1,IF(D194="X"&amp;I194="X",1,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -6329,7 +6833,7 @@
         <v>187</v>
       </c>
       <c r="J195">
-        <f>IF(C195=H195,1,IF(D195="X"&amp;I195="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6356,7 +6860,7 @@
         <v>187</v>
       </c>
       <c r="J196">
-        <f>IF(C196=H196,1,IF(D196="X"&amp;I196="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6383,7 +6887,7 @@
         <v>187</v>
       </c>
       <c r="J197">
-        <f>IF(C197=H197,1,IF(D197="X"&amp;I197="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6410,7 +6914,7 @@
         <v>187</v>
       </c>
       <c r="J198">
-        <f>IF(C198=H198,1,IF(D198="X"&amp;I198="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6437,7 +6941,7 @@
         <v>187</v>
       </c>
       <c r="J199">
-        <f>IF(C199=H199,1,IF(D199="X"&amp;I199="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6464,7 +6968,7 @@
         <v>187</v>
       </c>
       <c r="J200">
-        <f>IF(C200=H200,1,IF(D200="X"&amp;I200="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6491,7 +6995,7 @@
         <v>187</v>
       </c>
       <c r="J201">
-        <f>IF(C201=H201,1,IF(D201="X"&amp;I201="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6518,7 +7022,7 @@
         <v>187</v>
       </c>
       <c r="J202">
-        <f>IF(C202=H202,1,IF(D202="X"&amp;I202="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6545,7 +7049,7 @@
         <v>187</v>
       </c>
       <c r="J203">
-        <f>IF(C203=H203,1,IF(D203="X"&amp;I203="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6569,7 +7073,7 @@
         <v>187</v>
       </c>
       <c r="J204">
-        <f>IF(C204=H204,1,IF(D204="X"&amp;I204="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6593,7 +7097,7 @@
         <v>187</v>
       </c>
       <c r="J205">
-        <f>IF(C205=H205,1,IF(D205="X"&amp;I205="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6617,7 +7121,7 @@
         <v>187</v>
       </c>
       <c r="J206">
-        <f>IF(C206=H206,1,IF(D206="X"&amp;I206="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6641,7 +7145,7 @@
         <v>187</v>
       </c>
       <c r="J207">
-        <f>IF(C207=H207,1,IF(D207="X"&amp;I207="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6665,7 +7169,7 @@
         <v>187</v>
       </c>
       <c r="J208">
-        <f>IF(C208=H208,1,IF(D208="X"&amp;I208="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6689,7 +7193,7 @@
         <v>187</v>
       </c>
       <c r="J209">
-        <f>IF(C209=H209,1,IF(D209="X"&amp;I209="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6713,7 +7217,7 @@
         <v>187</v>
       </c>
       <c r="J210">
-        <f>IF(C210=H210,1,IF(D210="X"&amp;I210="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6737,7 +7241,7 @@
         <v>187</v>
       </c>
       <c r="J211">
-        <f>IF(C211=H211,1,IF(D211="X"&amp;I211="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6761,7 +7265,7 @@
         <v>187</v>
       </c>
       <c r="J212">
-        <f>IF(C212=H212,1,IF(D212="X"&amp;I212="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6785,7 +7289,7 @@
         <v>187</v>
       </c>
       <c r="J213">
-        <f>IF(C213=H213,1,IF(D213="X"&amp;I213="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6809,7 +7313,7 @@
         <v>187</v>
       </c>
       <c r="J214">
-        <f>IF(C214=H214,1,IF(D214="X"&amp;I214="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6833,7 +7337,7 @@
         <v>187</v>
       </c>
       <c r="J215">
-        <f>IF(C215=H215,1,IF(D215="X"&amp;I215="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6857,7 +7361,7 @@
         <v>187</v>
       </c>
       <c r="J216">
-        <f>IF(C216=H216,1,IF(D216="X"&amp;I216="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6881,7 +7385,7 @@
         <v>187</v>
       </c>
       <c r="J217">
-        <f>IF(C217=H217,1,IF(D217="X"&amp;I217="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6905,7 +7409,7 @@
         <v>187</v>
       </c>
       <c r="J218">
-        <f>IF(C218=H218,1,IF(D218="X"&amp;I218="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6929,7 +7433,7 @@
         <v>187</v>
       </c>
       <c r="J219">
-        <f>IF(C219=H219,1,IF(D219="X"&amp;I219="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6953,7 +7457,7 @@
         <v>187</v>
       </c>
       <c r="J220">
-        <f>IF(C220=H220,1,IF(D220="X"&amp;I220="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6977,7 +7481,7 @@
         <v>187</v>
       </c>
       <c r="J221">
-        <f>IF(C221=H221,1,IF(D221="X"&amp;I221="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6998,7 +7502,7 @@
         <v>330</v>
       </c>
       <c r="J222">
-        <f>IF(C222=H222,1,IF(D222="X"&amp;I222="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7022,7 +7526,7 @@
         <v>187</v>
       </c>
       <c r="J223">
-        <f>IF(C223=H223,1,IF(D223="X"&amp;I223="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7046,7 +7550,7 @@
         <v>187</v>
       </c>
       <c r="J224">
-        <f>IF(C224=H224,1,IF(D224="X"&amp;I224="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7067,7 +7571,7 @@
         <v>334</v>
       </c>
       <c r="J225">
-        <f>IF(C225=H225,1,IF(D225="X"&amp;I225="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7088,7 +7592,7 @@
         <v>338</v>
       </c>
       <c r="J226">
-        <f>IF(C226=H226,1,IF(D226="X"&amp;I226="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7112,7 +7616,7 @@
         <v>187</v>
       </c>
       <c r="J227">
-        <f>IF(C227=H227,1,IF(D227="X"&amp;I227="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7136,7 +7640,7 @@
         <v>187</v>
       </c>
       <c r="J228">
-        <f>IF(C228=H228,1,IF(D228="X"&amp;I228="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7160,7 +7664,7 @@
         <v>187</v>
       </c>
       <c r="J229">
-        <f>IF(C229=H229,1,IF(D229="X"&amp;I229="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7184,7 +7688,7 @@
         <v>187</v>
       </c>
       <c r="J230">
-        <f>IF(C230=H230,1,IF(D230="X"&amp;I230="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7208,7 +7712,7 @@
         <v>187</v>
       </c>
       <c r="J231">
-        <f>IF(C231=H231,1,IF(D231="X"&amp;I231="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7232,7 +7736,7 @@
         <v>187</v>
       </c>
       <c r="J232">
-        <f>IF(C232=H232,1,IF(D232="X"&amp;I232="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7253,7 +7757,7 @@
         <v>360</v>
       </c>
       <c r="J233">
-        <f>IF(C233=H233,1,IF(D233="X"&amp;I233="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7271,7 +7775,7 @@
         <v>257</v>
       </c>
       <c r="J234">
-        <f>IF(C234=H234,1,IF(D234="X"&amp;I234="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7289,7 +7793,7 @@
         <v>258</v>
       </c>
       <c r="J235">
-        <f>IF(C235=H235,1,IF(D235="X"&amp;I235="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7307,7 +7811,7 @@
         <v>262</v>
       </c>
       <c r="J236">
-        <f>IF(C236=H236,1,IF(D236="X"&amp;I236="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7325,7 +7829,7 @@
         <v>269</v>
       </c>
       <c r="J237">
-        <f>IF(C237=H237,1,IF(D237="X"&amp;I237="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7343,7 +7847,7 @@
         <v>273</v>
       </c>
       <c r="J238">
-        <f>IF(C238=H238,1,IF(D238="X"&amp;I238="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7361,7 +7865,7 @@
         <v>293</v>
       </c>
       <c r="J239">
-        <f>IF(C239=H239,1,IF(D239="X"&amp;I239="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7379,7 +7883,7 @@
         <v>296</v>
       </c>
       <c r="J240">
-        <f>IF(C240=H240,1,IF(D240="X"&amp;I240="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7397,7 +7901,7 @@
         <v>297</v>
       </c>
       <c r="J241">
-        <f>IF(C241=H241,1,IF(D241="X"&amp;I241="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7415,7 +7919,7 @@
         <v>302</v>
       </c>
       <c r="J242">
-        <f>IF(C242=H242,1,IF(D242="X"&amp;I242="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7433,7 +7937,7 @@
         <v>307</v>
       </c>
       <c r="J243">
-        <f>IF(C243=H243,1,IF(D243="X"&amp;I243="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7451,7 +7955,7 @@
         <v>308</v>
       </c>
       <c r="J244">
-        <f>IF(C244=H244,1,IF(D244="X"&amp;I244="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7469,7 +7973,7 @@
         <v>322</v>
       </c>
       <c r="J245">
-        <f>IF(C245=H245,1,IF(D245="X"&amp;I245="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7487,7 +7991,7 @@
         <v>323</v>
       </c>
       <c r="J246">
-        <f>IF(C246=H246,1,IF(D246="X"&amp;I246="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7505,7 +8009,7 @@
         <v>324</v>
       </c>
       <c r="J247">
-        <f>IF(C247=H247,1,IF(D247="X"&amp;I247="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7523,7 +8027,7 @@
         <v>328</v>
       </c>
       <c r="J248">
-        <f>IF(C248=H248,1,IF(D248="X"&amp;I248="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7541,7 +8045,7 @@
         <v>329</v>
       </c>
       <c r="J249">
-        <f>IF(C249=H249,1,IF(D249="X"&amp;I249="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7559,7 +8063,7 @@
         <v>332</v>
       </c>
       <c r="J250">
-        <f>IF(C250=H250,1,IF(D250="X"&amp;I250="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7577,7 +8081,7 @@
         <v>333</v>
       </c>
       <c r="J251">
-        <f>IF(C251=H251,1,IF(D251="X"&amp;I251="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7595,7 +8099,7 @@
         <v>337</v>
       </c>
       <c r="J252">
-        <f>IF(C252=H252,1,IF(D252="X"&amp;I252="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7613,7 +8117,7 @@
         <v>345</v>
       </c>
       <c r="J253">
-        <f>IF(C253=H253,1,IF(D253="X"&amp;I253="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7631,7 +8135,7 @@
         <v>348</v>
       </c>
       <c r="J254">
-        <f>IF(C254=H254,1,IF(D254="X"&amp;I254="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7649,7 +8153,7 @@
         <v>351</v>
       </c>
       <c r="J255">
-        <f>IF(C255=H255,1,IF(D255="X"&amp;I255="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7667,7 +8171,7 @@
         <v>352</v>
       </c>
       <c r="J256">
-        <f>IF(C256=H256,1,IF(D256="X"&amp;I256="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7685,7 +8189,7 @@
         <v>356</v>
       </c>
       <c r="J257">
-        <f>IF(C257=H257,1,IF(D257="X"&amp;I257="X",1,0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7703,7 +8207,7 @@
         <v>358</v>
       </c>
       <c r="J258">
-        <f>IF(C258=H258,1,IF(D258="X"&amp;I258="X",1,0))</f>
+        <f t="shared" ref="J258:J321" si="4">IF(C258=H258,1,IF(D258="X"&amp;I258="X",1,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -7727,7 +8231,7 @@
         <v>112</v>
       </c>
       <c r="J259">
-        <f>IF(C259=H259,1,IF(D259="X"&amp;I259="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7748,7 +8252,7 @@
         <v>178</v>
       </c>
       <c r="J260">
-        <f>IF(C260=H260,1,IF(D260="X"&amp;I260="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7769,7 +8273,7 @@
         <v>179</v>
       </c>
       <c r="J261">
-        <f>IF(C261=H261,1,IF(D261="X"&amp;I261="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7793,7 +8297,7 @@
         <v>362</v>
       </c>
       <c r="J262">
-        <f>IF(C262=H262,1,IF(D262="X"&amp;I262="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7817,7 +8321,7 @@
         <v>362</v>
       </c>
       <c r="J263">
-        <f>IF(C263=H263,1,IF(D263="X"&amp;I263="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7841,7 +8345,7 @@
         <v>106</v>
       </c>
       <c r="J264">
-        <f>IF(C264=H264,1,IF(D264="X"&amp;I264="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7865,7 +8369,7 @@
         <v>362</v>
       </c>
       <c r="J265">
-        <f>IF(C265=H265,1,IF(D265="X"&amp;I265="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7886,7 +8390,7 @@
         <v>145</v>
       </c>
       <c r="J266">
-        <f>IF(C266=H266,1,IF(D266="X"&amp;I266="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7910,7 +8414,7 @@
         <v>56</v>
       </c>
       <c r="J267">
-        <f>IF(C267=H267,1,IF(D267="X"&amp;I267="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7934,7 +8438,7 @@
         <v>56</v>
       </c>
       <c r="J268">
-        <f>IF(C268=H268,1,IF(D268="X"&amp;I268="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7958,7 +8462,7 @@
         <v>56</v>
       </c>
       <c r="J269">
-        <f>IF(C269=H269,1,IF(D269="X"&amp;I269="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7982,7 +8486,7 @@
         <v>134</v>
       </c>
       <c r="J270">
-        <f>IF(C270=H270,1,IF(D270="X"&amp;I270="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8006,7 +8510,7 @@
         <v>56</v>
       </c>
       <c r="J271">
-        <f>IF(C271=H271,1,IF(D271="X"&amp;I271="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8030,7 +8534,7 @@
         <v>5</v>
       </c>
       <c r="J272">
-        <f>IF(C272=H272,1,IF(D272="X"&amp;I272="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8054,7 +8558,7 @@
         <v>56</v>
       </c>
       <c r="J273">
-        <f>IF(C273=H273,1,IF(D273="X"&amp;I273="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8075,7 +8579,7 @@
         <v>270</v>
       </c>
       <c r="J274">
-        <f>IF(C274=H274,1,IF(D274="X"&amp;I274="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8096,7 +8600,7 @@
         <v>276</v>
       </c>
       <c r="J275">
-        <f>IF(C275=H275,1,IF(D275="X"&amp;I275="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8117,7 +8621,7 @@
         <v>288</v>
       </c>
       <c r="J276">
-        <f>IF(C276=H276,1,IF(D276="X"&amp;I276="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8141,7 +8645,7 @@
         <v>56</v>
       </c>
       <c r="J277">
-        <f>IF(C277=H277,1,IF(D277="X"&amp;I277="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8162,7 +8666,7 @@
         <v>272</v>
       </c>
       <c r="J278">
-        <f>IF(C278=H278,1,IF(D278="X"&amp;I278="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8186,7 +8690,7 @@
         <v>56</v>
       </c>
       <c r="J279">
-        <f>IF(C279=H279,1,IF(D279="X"&amp;I279="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8207,7 +8711,7 @@
         <v>310</v>
       </c>
       <c r="J280">
-        <f>IF(C280=H280,1,IF(D280="X"&amp;I280="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8228,7 +8732,7 @@
         <v>314</v>
       </c>
       <c r="J281">
-        <f>IF(C281=H281,1,IF(D281="X"&amp;I281="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8252,7 +8756,7 @@
         <v>363</v>
       </c>
       <c r="J282">
-        <f>IF(C282=H282,1,IF(D282="X"&amp;I282="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8276,7 +8780,7 @@
         <v>363</v>
       </c>
       <c r="J283">
-        <f>IF(C283=H283,1,IF(D283="X"&amp;I283="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8300,7 +8804,7 @@
         <v>112</v>
       </c>
       <c r="J284">
-        <f>IF(C284=H284,1,IF(D284="X"&amp;I284="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8321,7 +8825,7 @@
         <v>93</v>
       </c>
       <c r="J285">
-        <f>IF(C285=H285,1,IF(D285="X"&amp;I285="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8345,7 +8849,7 @@
         <v>112</v>
       </c>
       <c r="J286">
-        <f>IF(C286=H286,1,IF(D286="X"&amp;I286="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8366,7 +8870,7 @@
         <v>100</v>
       </c>
       <c r="J287">
-        <f>IF(C287=H287,1,IF(D287="X"&amp;I287="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8387,7 +8891,7 @@
         <v>101</v>
       </c>
       <c r="J288">
-        <f>IF(C288=H288,1,IF(D288="X"&amp;I288="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8408,7 +8912,7 @@
         <v>341</v>
       </c>
       <c r="J289">
-        <f>IF(C289=H289,1,IF(D289="X"&amp;I289="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8432,7 +8936,7 @@
         <v>134</v>
       </c>
       <c r="J290">
-        <f>IF(C290=H290,1,IF(D290="X"&amp;I290="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8456,7 +8960,7 @@
         <v>5</v>
       </c>
       <c r="J291">
-        <f>IF(C291=H291,1,IF(D291="X"&amp;I291="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8480,7 +8984,7 @@
         <v>5</v>
       </c>
       <c r="J292">
-        <f>IF(C292=H292,1,IF(D292="X"&amp;I292="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8504,7 +9008,7 @@
         <v>5</v>
       </c>
       <c r="J293">
-        <f>IF(C293=H293,1,IF(D293="X"&amp;I293="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8528,7 +9032,7 @@
         <v>134</v>
       </c>
       <c r="J294">
-        <f>IF(C294=H294,1,IF(D294="X"&amp;I294="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8552,7 +9056,7 @@
         <v>134</v>
       </c>
       <c r="J295">
-        <f>IF(C295=H295,1,IF(D295="X"&amp;I295="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8576,7 +9080,7 @@
         <v>134</v>
       </c>
       <c r="J296">
-        <f>IF(C296=H296,1,IF(D296="X"&amp;I296="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8600,7 +9104,7 @@
         <v>112</v>
       </c>
       <c r="J297">
-        <f>IF(C297=H297,1,IF(D297="X"&amp;I297="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8624,7 +9128,7 @@
         <v>187</v>
       </c>
       <c r="J298">
-        <f>IF(C298=H298,1,IF(D298="X"&amp;I298="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8648,7 +9152,7 @@
         <v>187</v>
       </c>
       <c r="J299">
-        <f>IF(C299=H299,1,IF(D299="X"&amp;I299="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8672,7 +9176,7 @@
         <v>187</v>
       </c>
       <c r="J300">
-        <f>IF(C300=H300,1,IF(D300="X"&amp;I300="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8696,7 +9200,7 @@
         <v>112</v>
       </c>
       <c r="J301">
-        <f>IF(C301=H301,1,IF(D301="X"&amp;I301="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8720,7 +9224,7 @@
         <v>175</v>
       </c>
       <c r="J302">
-        <f>IF(C302=H302,1,IF(D302="X"&amp;I302="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8744,7 +9248,7 @@
         <v>134</v>
       </c>
       <c r="J303">
-        <f>IF(C303=H303,1,IF(D303="X"&amp;I303="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8765,7 +9269,7 @@
         <v>311</v>
       </c>
       <c r="J304">
-        <f>IF(C304=H304,1,IF(D304="X"&amp;I304="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8786,7 +9290,7 @@
         <v>344</v>
       </c>
       <c r="J305">
-        <f>IF(C305=H305,1,IF(D305="X"&amp;I305="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8807,7 +9311,7 @@
         <v>346</v>
       </c>
       <c r="J306">
-        <f>IF(C306=H306,1,IF(D306="X"&amp;I306="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8831,7 +9335,7 @@
         <v>112</v>
       </c>
       <c r="J307">
-        <f>IF(C307=H307,1,IF(D307="X"&amp;I307="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8852,7 +9356,7 @@
         <v>353</v>
       </c>
       <c r="J308">
-        <f>IF(C308=H308,1,IF(D308="X"&amp;I308="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8876,7 +9380,7 @@
         <v>56</v>
       </c>
       <c r="J309">
-        <f>IF(C309=H309,1,IF(D309="X"&amp;I309="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8906,7 +9410,7 @@
         <v>187</v>
       </c>
       <c r="J310">
-        <f>IF(C310=H310,1,IF(D310="X"&amp;I310="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8936,7 +9440,7 @@
         <v>187</v>
       </c>
       <c r="J311">
-        <f>IF(C311=H311,1,IF(D311="X"&amp;I311="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8966,7 +9470,7 @@
         <v>187</v>
       </c>
       <c r="J312">
-        <f>IF(C312=H312,1,IF(D312="X"&amp;I312="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8990,7 +9494,7 @@
         <v>362</v>
       </c>
       <c r="J313">
-        <f>IF(C313=H313,1,IF(D313="X"&amp;I313="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9014,7 +9518,7 @@
         <v>5</v>
       </c>
       <c r="J314">
-        <f>IF(C314=H314,1,IF(D314="X"&amp;I314="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9038,7 +9542,7 @@
         <v>112</v>
       </c>
       <c r="J315">
-        <f>IF(C315=H315,1,IF(D315="X"&amp;I315="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9065,7 +9569,7 @@
         <v>187</v>
       </c>
       <c r="J316">
-        <f>IF(C316=H316,1,IF(D316="X"&amp;I316="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9092,7 +9596,7 @@
         <v>187</v>
       </c>
       <c r="J317">
-        <f>IF(C317=H317,1,IF(D317="X"&amp;I317="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9113,7 +9617,7 @@
         <v>112</v>
       </c>
       <c r="J318">
-        <f>IF(C318=H318,1,IF(D318="X"&amp;I318="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9134,7 +9638,7 @@
         <v>56</v>
       </c>
       <c r="J319">
-        <f>IF(C319=H319,1,IF(D319="X"&amp;I319="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9155,7 +9659,7 @@
         <v>56</v>
       </c>
       <c r="J320">
-        <f>IF(C320=H320,1,IF(D320="X"&amp;I320="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9176,7 +9680,7 @@
         <v>56</v>
       </c>
       <c r="J321">
-        <f>IF(C321=H321,1,IF(D321="X"&amp;I321="X",1,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9197,7 +9701,7 @@
         <v>112</v>
       </c>
       <c r="J322">
-        <f>IF(C322=H322,1,IF(D322="X"&amp;I322="X",1,0))</f>
+        <f t="shared" ref="J322:J385" si="5">IF(C322=H322,1,IF(D322="X"&amp;I322="X",1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -9218,7 +9722,7 @@
         <v>112</v>
       </c>
       <c r="J323">
-        <f>IF(C323=H323,1,IF(D323="X"&amp;I323="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9239,7 +9743,7 @@
         <v>112</v>
       </c>
       <c r="J324">
-        <f>IF(C324=H324,1,IF(D324="X"&amp;I324="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9260,7 +9764,7 @@
         <v>112</v>
       </c>
       <c r="J325">
-        <f>IF(C325=H325,1,IF(D325="X"&amp;I325="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9281,7 +9785,7 @@
         <v>56</v>
       </c>
       <c r="J326">
-        <f>IF(C326=H326,1,IF(D326="X"&amp;I326="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9302,7 +9806,7 @@
         <v>56</v>
       </c>
       <c r="J327">
-        <f>IF(C327=H327,1,IF(D327="X"&amp;I327="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9323,7 +9827,7 @@
         <v>112</v>
       </c>
       <c r="J328">
-        <f>IF(C328=H328,1,IF(D328="X"&amp;I328="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9344,7 +9848,7 @@
         <v>5</v>
       </c>
       <c r="J329">
-        <f>IF(C329=H329,1,IF(D329="X"&amp;I329="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9365,7 +9869,7 @@
         <v>112</v>
       </c>
       <c r="J330">
-        <f>IF(C330=H330,1,IF(D330="X"&amp;I330="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9386,7 +9890,7 @@
         <v>112</v>
       </c>
       <c r="J331">
-        <f>IF(C331=H331,1,IF(D331="X"&amp;I331="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9407,7 +9911,7 @@
         <v>112</v>
       </c>
       <c r="J332">
-        <f>IF(C332=H332,1,IF(D332="X"&amp;I332="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9428,7 +9932,7 @@
         <v>56</v>
       </c>
       <c r="J333">
-        <f>IF(C333=H333,1,IF(D333="X"&amp;I333="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9449,7 +9953,7 @@
         <v>112</v>
       </c>
       <c r="J334">
-        <f>IF(C334=H334,1,IF(D334="X"&amp;I334="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9470,7 +9974,7 @@
         <v>112</v>
       </c>
       <c r="J335">
-        <f>IF(C335=H335,1,IF(D335="X"&amp;I335="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9491,7 +9995,7 @@
         <v>56</v>
       </c>
       <c r="J336">
-        <f>IF(C336=H336,1,IF(D336="X"&amp;I336="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9512,7 +10016,7 @@
         <v>112</v>
       </c>
       <c r="J337">
-        <f>IF(C337=H337,1,IF(D337="X"&amp;I337="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9533,7 +10037,7 @@
         <v>112</v>
       </c>
       <c r="J338">
-        <f>IF(C338=H338,1,IF(D338="X"&amp;I338="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9554,7 +10058,7 @@
         <v>50</v>
       </c>
       <c r="J339">
-        <f>IF(C339=H339,1,IF(D339="X"&amp;I339="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9575,7 +10079,7 @@
         <v>112</v>
       </c>
       <c r="J340">
-        <f>IF(C340=H340,1,IF(D340="X"&amp;I340="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9596,7 +10100,7 @@
         <v>56</v>
       </c>
       <c r="J341">
-        <f>IF(C341=H341,1,IF(D341="X"&amp;I341="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9617,7 +10121,7 @@
         <v>112</v>
       </c>
       <c r="J342">
-        <f>IF(C342=H342,1,IF(D342="X"&amp;I342="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9638,7 +10142,7 @@
         <v>134</v>
       </c>
       <c r="J343">
-        <f>IF(C343=H343,1,IF(D343="X"&amp;I343="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9659,7 +10163,7 @@
         <v>5</v>
       </c>
       <c r="J344">
-        <f>IF(C344=H344,1,IF(D344="X"&amp;I344="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9680,7 +10184,7 @@
         <v>5</v>
       </c>
       <c r="J345">
-        <f>IF(C345=H345,1,IF(D345="X"&amp;I345="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9701,7 +10205,7 @@
         <v>5</v>
       </c>
       <c r="J346">
-        <f>IF(C346=H346,1,IF(D346="X"&amp;I346="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9722,7 +10226,7 @@
         <v>56</v>
       </c>
       <c r="J347">
-        <f>IF(C347=H347,1,IF(D347="X"&amp;I347="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9743,7 +10247,7 @@
         <v>112</v>
       </c>
       <c r="J348">
-        <f>IF(C348=H348,1,IF(D348="X"&amp;I348="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9764,7 +10268,7 @@
         <v>5</v>
       </c>
       <c r="J349">
-        <f>IF(C349=H349,1,IF(D349="X"&amp;I349="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9785,7 +10289,7 @@
         <v>363</v>
       </c>
       <c r="J350">
-        <f>IF(C350=H350,1,IF(D350="X"&amp;I350="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9806,7 +10310,7 @@
         <v>134</v>
       </c>
       <c r="J351">
-        <f>IF(C351=H351,1,IF(D351="X"&amp;I351="X",1,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9831,8 +10335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J198"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H198"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14782,4 +15286,4187 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G167"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(A2,"Noun",A2,":",A2,B2,A2,",")</f>
+        <v>"Noun":"time",</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(A2,"NounClass",A2,":",A2,C2,A2)</f>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">CONCATENATE(A3,"Noun",A3,":",A3,B3,A3,",")</f>
+        <v>"Noun":"form",</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">CONCATENATE(A3,"NounClass",A3,":",A3,C3,A3)</f>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"thing",</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"hair",</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"conversation",</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"offender",</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"school",</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"benefit",</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"rate",</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"club",</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"type",</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"burden",</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"solution",</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"policy",</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"service",</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"topic",</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" t="s">
+        <v>386</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"coverage",</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"term",</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"recipe",</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"one",</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"area",</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"tax",</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"city",</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"farm",</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"mouth",</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"list",</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"phrase",</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"sauce",</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"background",</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" t="s">
+        <v>399</v>
+      </c>
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"stuff",</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"color",</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"music",</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"way",</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"place",</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"slant",</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"computer",</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>366</v>
+      </c>
+      <c r="B38" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"word",</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" t="s">
+        <v>406</v>
+      </c>
+      <c r="C39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"typewriter",</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"code",</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"conscience",</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"being",</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B43" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"shot",</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"style",</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" t="s">
+        <v>367</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"report",</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"problem",</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"leadership",</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" t="s">
+        <v>415</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"sound",</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"paper",</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"town",</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" t="s">
+        <v>418</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" t="s">
+        <v>367</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"goal",</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" t="s">
+        <v>419</v>
+      </c>
+      <c r="C52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"letter",</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"perspective",</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" t="s">
+        <v>421</v>
+      </c>
+      <c r="C54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" t="s">
+        <v>367</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"system",</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" t="s">
+        <v>422</v>
+      </c>
+      <c r="C55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" t="s">
+        <v>367</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"guy",</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" t="s">
+        <v>367</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"world",</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" t="s">
+        <v>424</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" t="s">
+        <v>367</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"power",</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" t="s">
+        <v>425</v>
+      </c>
+      <c r="C58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" t="s">
+        <v>367</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"food",</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>366</v>
+      </c>
+      <c r="B59" t="s">
+        <v>426</v>
+      </c>
+      <c r="C59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" t="s">
+        <v>367</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"feeling",</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>366</v>
+      </c>
+      <c r="B60" t="s">
+        <v>427</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" t="s">
+        <v>367</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"sense",</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" t="s">
+        <v>428</v>
+      </c>
+      <c r="C61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" t="s">
+        <v>367</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"shell",</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" t="s">
+        <v>429</v>
+      </c>
+      <c r="C62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" t="s">
+        <v>367</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"enemy",</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>430</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>367</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"meat",</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" t="s">
+        <v>431</v>
+      </c>
+      <c r="C64" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" t="s">
+        <v>367</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"pet",</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" t="s">
+        <v>432</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" t="s">
+        <v>367</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"death",</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" t="s">
+        <v>433</v>
+      </c>
+      <c r="C66" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" t="s">
+        <v>367</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noun":"coke",</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>366</v>
+      </c>
+      <c r="B67" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" t="s">
+        <v>367</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="2">CONCATENATE(A67,"Noun",A67,":",A67,B67,A67,",")</f>
+        <v>"Noun":"can",</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="3">CONCATENATE(A67,"NounClass",A67,":",A67,C67,A67)</f>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>366</v>
+      </c>
+      <c r="B68" t="s">
+        <v>435</v>
+      </c>
+      <c r="C68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"tollway",</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" t="s">
+        <v>436</v>
+      </c>
+      <c r="C69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" t="s">
+        <v>367</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"house",</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" t="s">
+        <v>437</v>
+      </c>
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" t="s">
+        <v>367</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"puppy",</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G70" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>366</v>
+      </c>
+      <c r="B71" t="s">
+        <v>438</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>367</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"corporation",</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G71" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" t="s">
+        <v>439</v>
+      </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" t="s">
+        <v>367</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"suit",</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>366</v>
+      </c>
+      <c r="B73" t="s">
+        <v>440</v>
+      </c>
+      <c r="C73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" t="s">
+        <v>367</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"reinforcement",</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" t="s">
+        <v>441</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"parent",</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75" t="s">
+        <v>442</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"lifestyle",</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>366</v>
+      </c>
+      <c r="B76" t="s">
+        <v>443</v>
+      </c>
+      <c r="C76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" t="s">
+        <v>367</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"change",</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>366</v>
+      </c>
+      <c r="B77" t="s">
+        <v>444</v>
+      </c>
+      <c r="C77" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" t="s">
+        <v>367</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"source",</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" t="s">
+        <v>445</v>
+      </c>
+      <c r="C78" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" t="s">
+        <v>367</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"lab",</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>366</v>
+      </c>
+      <c r="B79" t="s">
+        <v>446</v>
+      </c>
+      <c r="C79" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"dog",</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>366</v>
+      </c>
+      <c r="B80" t="s">
+        <v>447</v>
+      </c>
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"trial",</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G80" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>366</v>
+      </c>
+      <c r="B81" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" t="s">
+        <v>367</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"driveway",</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G81" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>366</v>
+      </c>
+      <c r="B82" t="s">
+        <v>449</v>
+      </c>
+      <c r="C82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" t="s">
+        <v>367</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"autobiography",</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>366</v>
+      </c>
+      <c r="B83" t="s">
+        <v>450</v>
+      </c>
+      <c r="C83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" t="s">
+        <v>367</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"situation",</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G83" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>366</v>
+      </c>
+      <c r="B84" t="s">
+        <v>451</v>
+      </c>
+      <c r="C84" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"actor",</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G84" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>366</v>
+      </c>
+      <c r="B85" t="s">
+        <v>452</v>
+      </c>
+      <c r="C85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" t="s">
+        <v>367</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"film",</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>366</v>
+      </c>
+      <c r="B86" t="s">
+        <v>453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" t="s">
+        <v>367</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"child",</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G86" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>366</v>
+      </c>
+      <c r="B87" t="s">
+        <v>454</v>
+      </c>
+      <c r="C87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" t="s">
+        <v>367</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"grandfather",</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G87" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>366</v>
+      </c>
+      <c r="B88" t="s">
+        <v>455</v>
+      </c>
+      <c r="C88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" t="s">
+        <v>367</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"grandchild",</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G88" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>366</v>
+      </c>
+      <c r="B89" t="s">
+        <v>456</v>
+      </c>
+      <c r="C89" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" t="s">
+        <v>367</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"family",</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G89" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>366</v>
+      </c>
+      <c r="B90" t="s">
+        <v>457</v>
+      </c>
+      <c r="C90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"fish",</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G90" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>366</v>
+      </c>
+      <c r="B91" t="s">
+        <v>458</v>
+      </c>
+      <c r="C91" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"pan",</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>366</v>
+      </c>
+      <c r="B92" t="s">
+        <v>459</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" t="s">
+        <v>367</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"sand",</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G92" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>366</v>
+      </c>
+      <c r="B93" t="s">
+        <v>460</v>
+      </c>
+      <c r="C93" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"behavior",</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>366</v>
+      </c>
+      <c r="B94" t="s">
+        <v>461</v>
+      </c>
+      <c r="C94" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" t="s">
+        <v>367</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"joke",</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>366</v>
+      </c>
+      <c r="B95" t="s">
+        <v>462</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" t="s">
+        <v>367</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"bin",</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G95" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>366</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"value",</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G96" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>366</v>
+      </c>
+      <c r="B97" t="s">
+        <v>463</v>
+      </c>
+      <c r="C97" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" t="s">
+        <v>367</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"hand",</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G97" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>366</v>
+      </c>
+      <c r="B98" t="s">
+        <v>464</v>
+      </c>
+      <c r="C98" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" t="s">
+        <v>367</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"baby",</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G98" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>366</v>
+      </c>
+      <c r="B99" t="s">
+        <v>465</v>
+      </c>
+      <c r="C99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
+        <v>367</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"casserole",</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G99" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>366</v>
+      </c>
+      <c r="B100" t="s">
+        <v>466</v>
+      </c>
+      <c r="C100" t="s">
+        <v>187</v>
+      </c>
+      <c r="D100" t="s">
+        <v>367</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"rib",</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G100" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>366</v>
+      </c>
+      <c r="B101" t="s">
+        <v>467</v>
+      </c>
+      <c r="C101" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" t="s">
+        <v>367</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"vacation",</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G101" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>366</v>
+      </c>
+      <c r="B102" t="s">
+        <v>468</v>
+      </c>
+      <c r="C102" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" t="s">
+        <v>367</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"field",</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G102" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" t="s">
+        <v>469</v>
+      </c>
+      <c r="C103" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" t="s">
+        <v>367</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"opinion",</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G103" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>366</v>
+      </c>
+      <c r="B104" t="s">
+        <v>470</v>
+      </c>
+      <c r="C104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" t="s">
+        <v>367</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"boat",</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G104" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>366</v>
+      </c>
+      <c r="B105" t="s">
+        <v>471</v>
+      </c>
+      <c r="C105" t="s">
+        <v>187</v>
+      </c>
+      <c r="D105" t="s">
+        <v>367</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"plate",</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G105" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>366</v>
+      </c>
+      <c r="B106" t="s">
+        <v>472</v>
+      </c>
+      <c r="C106" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" t="s">
+        <v>367</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"room",</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>366</v>
+      </c>
+      <c r="B107" t="s">
+        <v>473</v>
+      </c>
+      <c r="C107" t="s">
+        <v>187</v>
+      </c>
+      <c r="D107" t="s">
+        <v>367</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"factor",</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>366</v>
+      </c>
+      <c r="B108" t="s">
+        <v>474</v>
+      </c>
+      <c r="C108" t="s">
+        <v>187</v>
+      </c>
+      <c r="D108" t="s">
+        <v>367</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"book",</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G108" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>366</v>
+      </c>
+      <c r="B109" t="s">
+        <v>475</v>
+      </c>
+      <c r="C109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D109" t="s">
+        <v>367</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"satire",</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G109" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>366</v>
+      </c>
+      <c r="B110" t="s">
+        <v>476</v>
+      </c>
+      <c r="C110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D110" t="s">
+        <v>367</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"spaghetti",</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G110" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>366</v>
+      </c>
+      <c r="B111" t="s">
+        <v>477</v>
+      </c>
+      <c r="C111" t="s">
+        <v>187</v>
+      </c>
+      <c r="D111" t="s">
+        <v>367</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"radio",</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G111" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>366</v>
+      </c>
+      <c r="B112" t="s">
+        <v>478</v>
+      </c>
+      <c r="C112" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" t="s">
+        <v>367</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"college",</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G112" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>366</v>
+      </c>
+      <c r="B113" t="s">
+        <v>479</v>
+      </c>
+      <c r="C113" t="s">
+        <v>187</v>
+      </c>
+      <c r="D113" t="s">
+        <v>367</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"day",</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G113" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>366</v>
+      </c>
+      <c r="B114" t="s">
+        <v>480</v>
+      </c>
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114" t="s">
+        <v>367</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"labrador",</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G114" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>366</v>
+      </c>
+      <c r="B115" t="s">
+        <v>481</v>
+      </c>
+      <c r="C115" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115" t="s">
+        <v>367</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"nation",</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G115" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>366</v>
+      </c>
+      <c r="B116" t="s">
+        <v>482</v>
+      </c>
+      <c r="C116" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" t="s">
+        <v>367</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"boy",</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G116" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>366</v>
+      </c>
+      <c r="B117" t="s">
+        <v>483</v>
+      </c>
+      <c r="C117" t="s">
+        <v>187</v>
+      </c>
+      <c r="D117" t="s">
+        <v>367</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"snake",</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G117" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>366</v>
+      </c>
+      <c r="B118" t="s">
+        <v>484</v>
+      </c>
+      <c r="C118" t="s">
+        <v>187</v>
+      </c>
+      <c r="D118" t="s">
+        <v>367</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"bearing",</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G118" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>366</v>
+      </c>
+      <c r="B119" t="s">
+        <v>485</v>
+      </c>
+      <c r="C119" t="s">
+        <v>187</v>
+      </c>
+      <c r="D119" t="s">
+        <v>367</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"banking",</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G119" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>366</v>
+      </c>
+      <c r="B120" t="s">
+        <v>486</v>
+      </c>
+      <c r="C120" t="s">
+        <v>187</v>
+      </c>
+      <c r="D120" t="s">
+        <v>367</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"income",</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G120" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>366</v>
+      </c>
+      <c r="B121" t="s">
+        <v>487</v>
+      </c>
+      <c r="C121" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" t="s">
+        <v>367</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"wood",</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G121" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>366</v>
+      </c>
+      <c r="B122" t="s">
+        <v>488</v>
+      </c>
+      <c r="C122" t="s">
+        <v>187</v>
+      </c>
+      <c r="D122" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"wind",</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G122" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>366</v>
+      </c>
+      <c r="B123" t="s">
+        <v>489</v>
+      </c>
+      <c r="C123" t="s">
+        <v>187</v>
+      </c>
+      <c r="D123" t="s">
+        <v>367</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"luck",</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G123" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>366</v>
+      </c>
+      <c r="B124" t="s">
+        <v>490</v>
+      </c>
+      <c r="C124" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" t="s">
+        <v>367</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"look",</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G124" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>366</v>
+      </c>
+      <c r="B125" t="s">
+        <v>491</v>
+      </c>
+      <c r="C125" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" t="s">
+        <v>367</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"lettering",</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G125" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>366</v>
+      </c>
+      <c r="B126" t="s">
+        <v>492</v>
+      </c>
+      <c r="C126" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" t="s">
+        <v>367</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"ride",</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G126" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>366</v>
+      </c>
+      <c r="B127" t="s">
+        <v>493</v>
+      </c>
+      <c r="C127" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" t="s">
+        <v>367</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"region",</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G127" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>366</v>
+      </c>
+      <c r="B128" t="s">
+        <v>494</v>
+      </c>
+      <c r="C128" t="s">
+        <v>187</v>
+      </c>
+      <c r="D128" t="s">
+        <v>367</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"party",</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G128" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>366</v>
+      </c>
+      <c r="B129" t="s">
+        <v>495</v>
+      </c>
+      <c r="C129" t="s">
+        <v>187</v>
+      </c>
+      <c r="D129" t="s">
+        <v>367</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"story",</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G129" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>366</v>
+      </c>
+      <c r="B130" t="s">
+        <v>496</v>
+      </c>
+      <c r="C130" t="s">
+        <v>187</v>
+      </c>
+      <c r="D130" t="s">
+        <v>367</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="2"/>
+        <v>"Noun":"shrimp",</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="3"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G130" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>366</v>
+      </c>
+      <c r="B131" t="s">
+        <v>497</v>
+      </c>
+      <c r="C131" t="s">
+        <v>187</v>
+      </c>
+      <c r="D131" t="s">
+        <v>367</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E167" si="4">CONCATENATE(A131,"Noun",A131,":",A131,B131,A131,",")</f>
+        <v>"Noun":"garbage",</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F167" si="5">CONCATENATE(A131,"NounClass",A131,":",A131,C131,A131)</f>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G131" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>366</v>
+      </c>
+      <c r="B132" t="s">
+        <v>498</v>
+      </c>
+      <c r="C132" t="s">
+        <v>187</v>
+      </c>
+      <c r="D132" t="s">
+        <v>367</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"mall",</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G132" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>366</v>
+      </c>
+      <c r="B133" t="s">
+        <v>499</v>
+      </c>
+      <c r="C133" t="s">
+        <v>187</v>
+      </c>
+      <c r="D133" t="s">
+        <v>367</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"brush",</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G133" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>366</v>
+      </c>
+      <c r="B134" t="s">
+        <v>500</v>
+      </c>
+      <c r="C134" t="s">
+        <v>187</v>
+      </c>
+      <c r="D134" t="s">
+        <v>367</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"student",</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G134" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>366</v>
+      </c>
+      <c r="B135" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" t="s">
+        <v>187</v>
+      </c>
+      <c r="D135" t="s">
+        <v>367</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"truth",</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G135" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>366</v>
+      </c>
+      <c r="B136" t="s">
+        <v>502</v>
+      </c>
+      <c r="C136" t="s">
+        <v>187</v>
+      </c>
+      <c r="D136" t="s">
+        <v>367</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"trunk",</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G136" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>366</v>
+      </c>
+      <c r="B137" t="s">
+        <v>503</v>
+      </c>
+      <c r="C137" t="s">
+        <v>187</v>
+      </c>
+      <c r="D137" t="s">
+        <v>367</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"level",</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G137" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>366</v>
+      </c>
+      <c r="B138" t="s">
+        <v>504</v>
+      </c>
+      <c r="C138" t="s">
+        <v>187</v>
+      </c>
+      <c r="D138" t="s">
+        <v>367</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"ski",</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G138" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>366</v>
+      </c>
+      <c r="B139" t="s">
+        <v>505</v>
+      </c>
+      <c r="C139" t="s">
+        <v>187</v>
+      </c>
+      <c r="D139" t="s">
+        <v>367</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"weather",</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>366</v>
+      </c>
+      <c r="B140" t="s">
+        <v>506</v>
+      </c>
+      <c r="C140" t="s">
+        <v>187</v>
+      </c>
+      <c r="D140" t="s">
+        <v>367</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"strip",</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G140" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>366</v>
+      </c>
+      <c r="B141" t="s">
+        <v>507</v>
+      </c>
+      <c r="C141" t="s">
+        <v>187</v>
+      </c>
+      <c r="D141" t="s">
+        <v>367</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"car",</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G141" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>366</v>
+      </c>
+      <c r="B142" t="s">
+        <v>508</v>
+      </c>
+      <c r="C142" t="s">
+        <v>187</v>
+      </c>
+      <c r="D142" t="s">
+        <v>367</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"decision",</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G142" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>366</v>
+      </c>
+      <c r="B143" t="s">
+        <v>509</v>
+      </c>
+      <c r="C143" t="s">
+        <v>187</v>
+      </c>
+      <c r="D143" t="s">
+        <v>367</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"voice",</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G143" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>366</v>
+      </c>
+      <c r="B144" t="s">
+        <v>510</v>
+      </c>
+      <c r="C144" t="s">
+        <v>187</v>
+      </c>
+      <c r="D144" t="s">
+        <v>367</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"crime",</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G144" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>366</v>
+      </c>
+      <c r="B145" t="s">
+        <v>511</v>
+      </c>
+      <c r="C145" t="s">
+        <v>187</v>
+      </c>
+      <c r="D145" t="s">
+        <v>367</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"point",</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G145" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146" t="s">
+        <v>512</v>
+      </c>
+      <c r="C146" t="s">
+        <v>187</v>
+      </c>
+      <c r="D146" t="s">
+        <v>367</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"number",</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G146" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>366</v>
+      </c>
+      <c r="B147" t="s">
+        <v>513</v>
+      </c>
+      <c r="C147" t="s">
+        <v>187</v>
+      </c>
+      <c r="D147" t="s">
+        <v>367</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"life",</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G147" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>366</v>
+      </c>
+      <c r="B148" t="s">
+        <v>514</v>
+      </c>
+      <c r="C148" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" t="s">
+        <v>367</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"luxury",</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>366</v>
+      </c>
+      <c r="B149" t="s">
+        <v>515</v>
+      </c>
+      <c r="C149" t="s">
+        <v>187</v>
+      </c>
+      <c r="D149" t="s">
+        <v>367</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"resort",</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G149" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>366</v>
+      </c>
+      <c r="B150" t="s">
+        <v>516</v>
+      </c>
+      <c r="C150" t="s">
+        <v>187</v>
+      </c>
+      <c r="D150" t="s">
+        <v>367</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"environment",</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>366</v>
+      </c>
+      <c r="B151" t="s">
+        <v>517</v>
+      </c>
+      <c r="C151" t="s">
+        <v>187</v>
+      </c>
+      <c r="D151" t="s">
+        <v>367</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"reason",</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G151" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>366</v>
+      </c>
+      <c r="B152" t="s">
+        <v>518</v>
+      </c>
+      <c r="C152" t="s">
+        <v>187</v>
+      </c>
+      <c r="D152" t="s">
+        <v>367</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"line",</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G152" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>366</v>
+      </c>
+      <c r="B153" t="s">
+        <v>519</v>
+      </c>
+      <c r="C153" t="s">
+        <v>187</v>
+      </c>
+      <c r="D153" t="s">
+        <v>367</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"trash",</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>366</v>
+      </c>
+      <c r="B154" t="s">
+        <v>520</v>
+      </c>
+      <c r="C154" t="s">
+        <v>187</v>
+      </c>
+      <c r="D154" t="s">
+        <v>367</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"money",</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G154" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" t="s">
+        <v>521</v>
+      </c>
+      <c r="C155" t="s">
+        <v>187</v>
+      </c>
+      <c r="D155" t="s">
+        <v>367</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"teller",</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G155" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>366</v>
+      </c>
+      <c r="B156" t="s">
+        <v>522</v>
+      </c>
+      <c r="C156" t="s">
+        <v>187</v>
+      </c>
+      <c r="D156" t="s">
+        <v>367</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"engine",</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G156" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>366</v>
+      </c>
+      <c r="B157" t="s">
+        <v>523</v>
+      </c>
+      <c r="C157" t="s">
+        <v>187</v>
+      </c>
+      <c r="D157" t="s">
+        <v>367</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"valley",</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G157" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>366</v>
+      </c>
+      <c r="B158" t="s">
+        <v>524</v>
+      </c>
+      <c r="C158" t="s">
+        <v>187</v>
+      </c>
+      <c r="D158" t="s">
+        <v>367</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"bag",</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G158" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>366</v>
+      </c>
+      <c r="B159" t="s">
+        <v>525</v>
+      </c>
+      <c r="C159" t="s">
+        <v>187</v>
+      </c>
+      <c r="D159" t="s">
+        <v>367</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"vitamin",</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G159" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>366</v>
+      </c>
+      <c r="B160" t="s">
+        <v>526</v>
+      </c>
+      <c r="C160" t="s">
+        <v>187</v>
+      </c>
+      <c r="D160" t="s">
+        <v>367</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"dough",</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G160" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>366</v>
+      </c>
+      <c r="B161" t="s">
+        <v>100</v>
+      </c>
+      <c r="C161" t="s">
+        <v>187</v>
+      </c>
+      <c r="D161" t="s">
+        <v>367</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"country",</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>366</v>
+      </c>
+      <c r="B162" t="s">
+        <v>527</v>
+      </c>
+      <c r="C162" t="s">
+        <v>187</v>
+      </c>
+      <c r="D162" t="s">
+        <v>367</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"plan",</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G162" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>366</v>
+      </c>
+      <c r="B163" t="s">
+        <v>528</v>
+      </c>
+      <c r="C163" t="s">
+        <v>187</v>
+      </c>
+      <c r="D163" t="s">
+        <v>367</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"libertarian",</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G163" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>366</v>
+      </c>
+      <c r="B164" t="s">
+        <v>529</v>
+      </c>
+      <c r="C164" t="s">
+        <v>187</v>
+      </c>
+      <c r="D164" t="s">
+        <v>367</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"citizen",</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G164" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>366</v>
+      </c>
+      <c r="B165" t="s">
+        <v>530</v>
+      </c>
+      <c r="C165" t="s">
+        <v>187</v>
+      </c>
+      <c r="D165" t="s">
+        <v>367</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"research",</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G165" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" t="s">
+        <v>531</v>
+      </c>
+      <c r="C166" t="s">
+        <v>187</v>
+      </c>
+      <c r="D166" t="s">
+        <v>367</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"issue",</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G166" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>366</v>
+      </c>
+      <c r="B167" t="s">
+        <v>532</v>
+      </c>
+      <c r="C167" t="s">
+        <v>187</v>
+      </c>
+      <c r="D167" t="s">
+        <v>367</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="4"/>
+        <v>"Noun":"spirit",</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="5"/>
+        <v>"NounClass":"X"</v>
+      </c>
+      <c r="G167" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/corpus_results/data/swbd_adjectives.combined.xlsx
+++ b/corpus_results/data/swbd_adjectives.combined.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25020" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3840" yWindow="0" windowWidth="25020" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="swbd_adjectives.combined.csv" sheetId="1" r:id="rId1"/>
     <sheet name="adjectives.js" sheetId="2" r:id="rId2"/>
     <sheet name="nouns.js" sheetId="3" r:id="rId3"/>
+    <sheet name="sampled-adjectives.js" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="538">
   <si>
     <t>header</t>
   </si>
@@ -1626,6 +1627,15 @@
   </si>
   <si>
     <t>nounClass</t>
+  </si>
+  <si>
+    <t>Adjective</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>square</t>
   </si>
 </sst>
 </file>
@@ -1681,8 +1691,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1704,7 +1720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1713,6 +1729,9 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1721,6 +1740,9 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2052,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J351"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204:D233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9701,7 +9723,7 @@
         <v>112</v>
       </c>
       <c r="J322">
-        <f t="shared" ref="J322:J385" si="5">IF(C322=H322,1,IF(D322="X"&amp;I322="X",1,0))</f>
+        <f t="shared" ref="J322:J351" si="5">IF(C322=H322,1,IF(D322="X"&amp;I322="X",1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -10333,4947 +10355,4947 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J198"/>
+  <dimension ref="A3:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H3"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>366</v>
       </c>
       <c r="B3" t="s">
         <v>174</v>
       </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
       <c r="D3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" t="str">
+        <v>367</v>
+      </c>
+      <c r="E3" t="str">
         <f>CONCATENATE(A3,"Predicate",A3,":",A3,B3,A3,",")</f>
         <v>"Predicate":"old",</v>
       </c>
-      <c r="G3" t="str">
-        <f>CONCATENATE(A3,"Class",A3,":",A3,D3,A3)</f>
+      <c r="F3" t="str">
+        <f>CONCATENATE(A3,"Class",A3,":",A3,C3,A3)</f>
         <v>"Class":"age"</v>
       </c>
-      <c r="H3" t="s">
-        <v>368</v>
-      </c>
-      <c r="J3">
+      <c r="G3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3">
         <f>6*(196-6)</f>
         <v>1140</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>366</v>
       </c>
       <c r="B4" t="s">
         <v>177</v>
       </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
       <c r="D4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE(A4,"Predicate",A4,":",A4,B4,A4,",")</f>
+        <v>"Predicate":"new",</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F67" si="0">CONCATENATE(A4,"Predicate",A4,":",A4,B4,A4,",")</f>
-        <v>"Predicate":"new",</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G67" si="1">CONCATENATE(A4,"Class",A4,":",A4,D4,A4)</f>
+        <f>CONCATENATE(A4,"Class",A4,":",A4,C4,A4)</f>
         <v>"Class":"age"</v>
       </c>
-      <c r="H4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="G4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>366</v>
       </c>
       <c r="B5" t="s">
         <v>180</v>
       </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
       <c r="D5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE(A5,"Predicate",A5,":",A5,B5,A5,",")</f>
+        <v>"Predicate":"junior",</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"junior",</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A5,"Class",A5,":",A5,C5,A5)</f>
         <v>"Class":"age"</v>
       </c>
-      <c r="H5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="G5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>181</v>
       </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
       <c r="D6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE(A6,"Predicate",A6,":",A6,B6,A6,",")</f>
+        <v>"Predicate":"young",</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"young",</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A6,"Class",A6,":",A6,C6,A6)</f>
         <v>"Class":"age"</v>
       </c>
-      <c r="H6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="G6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>184</v>
       </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
       <c r="D7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E7" t="str">
+        <f>CONCATENATE(A7,"Predicate",A7,":",A7,B7,A7,",")</f>
+        <v>"Predicate":"senior",</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"senior",</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A7,"Class",A7,":",A7,C7,A7)</f>
         <v>"Class":"age"</v>
       </c>
-      <c r="H7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="G7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>366</v>
       </c>
       <c r="B8" t="s">
         <v>185</v>
       </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
       <c r="D8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE(A8,"Predicate",A8,":",A8,B8,A8,",")</f>
+        <v>"Predicate":"old-time",</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"old-time",</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A8,"Class",A8,":",A8,C8,A8)</f>
         <v>"Class":"age"</v>
       </c>
-      <c r="H8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="G8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>366</v>
       </c>
       <c r="B9" t="s">
         <v>164</v>
       </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
       <c r="D9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE(A9,"Predicate",A9,":",A9,B9,A9,",")</f>
+        <v>"Predicate":"blue",</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"blue",</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A9,"Class",A9,":",A9,C9,A9)</f>
         <v>"Class":"color"</v>
       </c>
-      <c r="H9" t="s">
-        <v>368</v>
-      </c>
-      <c r="J9">
+      <c r="G9" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9">
         <f>8*(196-8)</f>
         <v>1504</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>366</v>
       </c>
       <c r="B10" t="s">
         <v>166</v>
       </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
       <c r="D10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE(A10,"Predicate",A10,":",A10,B10,A10,",")</f>
+        <v>"Predicate":"white",</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"white",</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A10,"Class",A10,":",A10,C10,A10)</f>
         <v>"Class":"color"</v>
       </c>
-      <c r="H10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="G10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>366</v>
       </c>
       <c r="B11" t="s">
         <v>167</v>
       </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
       <c r="D11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE(A11,"Predicate",A11,":",A11,B11,A11,",")</f>
+        <v>"Predicate":"red",</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"red",</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A11,"Class",A11,":",A11,C11,A11)</f>
         <v>"Class":"color"</v>
       </c>
-      <c r="H11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="G11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>168</v>
       </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
       <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E12" t="str">
+        <f>CONCATENATE(A12,"Predicate",A12,":",A12,B12,A12,",")</f>
+        <v>"Predicate":"blonde",</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"blonde",</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A12,"Class",A12,":",A12,C12,A12)</f>
         <v>"Class":"color"</v>
       </c>
-      <c r="H12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="G12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>366</v>
       </c>
       <c r="B13" t="s">
         <v>169</v>
       </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
       <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE(A13,"Predicate",A13,":",A13,B13,A13,",")</f>
+        <v>"Predicate":"black",</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"black",</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A13,"Class",A13,":",A13,C13,A13)</f>
         <v>"Class":"color"</v>
       </c>
-      <c r="H13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="G13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>366</v>
       </c>
       <c r="B14" t="s">
         <v>170</v>
       </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE(A14,"Predicate",A14,":",A14,B14,A14,",")</f>
+        <v>"Predicate":"purple",</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"purple",</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A14,"Class",A14,":",A14,C14,A14)</f>
         <v>"Class":"color"</v>
       </c>
-      <c r="H14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="G14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>366</v>
       </c>
       <c r="B15" t="s">
         <v>171</v>
       </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE(A15,"Predicate",A15,":",A15,B15,A15,",")</f>
+        <v>"Predicate":"green",</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"green",</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A15,"Class",A15,":",A15,C15,A15)</f>
         <v>"Class":"color"</v>
       </c>
-      <c r="H15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="G15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>366</v>
       </c>
       <c r="B16" t="s">
         <v>172</v>
       </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E16" t="str">
+        <f>CONCATENATE(A16,"Predicate",A16,":",A16,B16,A16,",")</f>
+        <v>"Predicate":"yellow",</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"yellow",</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A16,"Class",A16,":",A16,C16,A16)</f>
         <v>"Class":"color"</v>
       </c>
-      <c r="H16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="G16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>366</v>
       </c>
       <c r="B17" t="s">
         <v>133</v>
       </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
       <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E17" t="str">
+        <f>CONCATENATE(A17,"Predicate",A17,":",A17,B17,A17,",")</f>
+        <v>"Predicate":"full",</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"full",</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A17,"Class",A17,":",A17,C17,A17)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H17" t="s">
-        <v>368</v>
-      </c>
-      <c r="J17">
+      <c r="G17" t="s">
+        <v>368</v>
+      </c>
+      <c r="I17">
         <f>27*(196-27)</f>
         <v>4563</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
       </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
       <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E18" t="str">
+        <f>CONCATENATE(A18,"Predicate",A18,":",A18,B18,A18,",")</f>
+        <v>"Predicate":"lengthy",</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"lengthy",</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A18,"Class",A18,":",A18,C18,A18)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H18" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="G18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>366</v>
       </c>
       <c r="B19" t="s">
         <v>136</v>
       </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
       <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E19" t="str">
+        <f>CONCATENATE(A19,"Predicate",A19,":",A19,B19,A19,",")</f>
+        <v>"Predicate":"short",</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"short",</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A19,"Class",A19,":",A19,C19,A19)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="G19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>366</v>
       </c>
       <c r="B20" t="s">
         <v>137</v>
       </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
       <c r="D20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E20" t="str">
+        <f>CONCATENATE(A20,"Predicate",A20,":",A20,B20,A20,",")</f>
+        <v>"Predicate":"little",</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"little",</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A20,"Class",A20,":",A20,C20,A20)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H20" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="G20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>366</v>
       </c>
       <c r="B21" t="s">
         <v>261</v>
       </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
       <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E21" t="str">
+        <f>CONCATENATE(A21,"Predicate",A21,":",A21,B21,A21,",")</f>
+        <v>"Predicate":"big",</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"big",</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A21,"Class",A21,":",A21,C21,A21)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H21" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="G21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>366</v>
       </c>
       <c r="B22" t="s">
         <v>139</v>
       </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
       <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E22" t="str">
+        <f>CONCATENATE(A22,"Predicate",A22,":",A22,B22,A22,",")</f>
+        <v>"Predicate":"long",</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"long",</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A22,"Class",A22,":",A22,C22,A22)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H22" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="G22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>366</v>
       </c>
       <c r="B23" t="s">
         <v>140</v>
       </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
       <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E23" t="str">
+        <f>CONCATENATE(A23,"Predicate",A23,":",A23,B23,A23,",")</f>
+        <v>"Predicate":"fat",</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"fat",</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A23,"Class",A23,":",A23,C23,A23)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H23" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="G23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>366</v>
       </c>
       <c r="B24" t="s">
         <v>141</v>
       </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
       <c r="D24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E24" t="str">
+        <f>CONCATENATE(A24,"Predicate",A24,":",A24,B24,A24,",")</f>
+        <v>"Predicate":"high",</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"high",</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A24,"Class",A24,":",A24,C24,A24)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H24" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="G24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>366</v>
       </c>
       <c r="B25" t="s">
         <v>142</v>
       </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
       <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E25" t="str">
+        <f>CONCATENATE(A25,"Predicate",A25,":",A25,B25,A25,",")</f>
+        <v>"Predicate":"skinny",</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"skinny",</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A25,"Class",A25,":",A25,C25,A25)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="G25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>366</v>
       </c>
       <c r="B26" t="s">
         <v>143</v>
       </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
       <c r="D26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E26" t="str">
+        <f>CONCATENATE(A26,"Predicate",A26,":",A26,B26,A26,",")</f>
+        <v>"Predicate":"tall",</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"tall",</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A26,"Class",A26,":",A26,C26,A26)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="G26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>366</v>
       </c>
       <c r="B27" t="s">
         <v>144</v>
       </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
       <c r="D27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E27" t="str">
+        <f>CONCATENATE(A27,"Predicate",A27,":",A27,B27,A27,",")</f>
+        <v>"Predicate":"small",</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"small",</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A27,"Class",A27,":",A27,C27,A27)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="G27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>366</v>
       </c>
       <c r="B28" t="s">
         <v>146</v>
       </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
       <c r="D28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E28" t="str">
+        <f>CONCATENATE(A28,"Predicate",A28,":",A28,B28,A28,",")</f>
+        <v>"Predicate":"large",</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"large",</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A28,"Class",A28,":",A28,C28,A28)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="G28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>366</v>
       </c>
       <c r="B29" t="s">
         <v>147</v>
       </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
       <c r="D29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E29" t="str">
+        <f>CONCATENATE(A29,"Predicate",A29,":",A29,B29,A29,",")</f>
+        <v>"Predicate":"tiny",</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"tiny",</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A29,"Class",A29,":",A29,C29,A29)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H29" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="G29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>366</v>
       </c>
       <c r="B30" t="s">
         <v>148</v>
       </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
       <c r="D30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E30" t="str">
+        <f>CONCATENATE(A30,"Predicate",A30,":",A30,B30,A30,",")</f>
+        <v>"Predicate":"wide",</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"wide",</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A30,"Class",A30,":",A30,C30,A30)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H30" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="G30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>366</v>
       </c>
       <c r="B31" t="s">
         <v>150</v>
       </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
       <c r="D31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E31" t="str">
+        <f>CONCATENATE(A31,"Predicate",A31,":",A31,B31,A31,",")</f>
+        <v>"Predicate":"mini",</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"mini",</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A31,"Class",A31,":",A31,C31,A31)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H31" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="G31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>366</v>
       </c>
       <c r="B32" t="s">
         <v>151</v>
       </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
       <c r="D32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E32" t="str">
+        <f>CONCATENATE(A32,"Predicate",A32,":",A32,B32,A32,",")</f>
+        <v>"Predicate":"flat",</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"flat",</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A32,"Class",A32,":",A32,C32,A32)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H32" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="G32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>366</v>
       </c>
       <c r="B33" t="s">
         <v>152</v>
       </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
       <c r="D33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E33" t="str">
+        <f>CONCATENATE(A33,"Predicate",A33,":",A33,B33,A33,",")</f>
+        <v>"Predicate":"open",</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"open",</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A33,"Class",A33,":",A33,C33,A33)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="G33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>366</v>
       </c>
       <c r="B34" t="s">
         <v>154</v>
       </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
       <c r="D34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E34" t="str">
+        <f>CONCATENATE(A34,"Predicate",A34,":",A34,B34,A34,",")</f>
+        <v>"Predicate":"narrow",</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"narrow",</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A34,"Class",A34,":",A34,C34,A34)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="G34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>366</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
       </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
       <c r="D35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E35" t="str">
+        <f>CONCATENATE(A35,"Predicate",A35,":",A35,B35,A35,",")</f>
+        <v>"Predicate":"humongous",</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"humongous",</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A35,"Class",A35,":",A35,C35,A35)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H35" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="G35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>366</v>
       </c>
       <c r="B36" t="s">
         <v>156</v>
       </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
       <c r="D36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E36" t="str">
+        <f>CONCATENATE(A36,"Predicate",A36,":",A36,B36,A36,",")</f>
+        <v>"Predicate":"biggest",</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"biggest",</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A36,"Class",A36,":",A36,C36,A36)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H36" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="G36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>366</v>
       </c>
       <c r="B37" t="s">
         <v>157</v>
       </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
       <c r="D37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E37" t="str">
+        <f>CONCATENATE(A37,"Predicate",A37,":",A37,B37,A37,",")</f>
+        <v>"Predicate":"huge",</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"huge",</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A37,"Class",A37,":",A37,C37,A37)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H37" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="G37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>366</v>
       </c>
       <c r="B38" t="s">
         <v>158</v>
       </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
       <c r="D38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E38" t="str">
+        <f>CONCATENATE(A38,"Predicate",A38,":",A38,B38,A38,",")</f>
+        <v>"Predicate":"thick",</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"thick",</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A38,"Class",A38,":",A38,C38,A38)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H38" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="G38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>366</v>
       </c>
       <c r="B39" t="s">
         <v>159</v>
       </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
       <c r="D39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E39" t="str">
+        <f>CONCATENATE(A39,"Predicate",A39,":",A39,B39,A39,",")</f>
+        <v>"Predicate":"low",</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"low",</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A39,"Class",A39,":",A39,C39,A39)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H39" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="G39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>366</v>
       </c>
       <c r="B40" t="s">
         <v>160</v>
       </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
       <c r="D40" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E40" t="str">
+        <f>CONCATENATE(A40,"Predicate",A40,":",A40,B40,A40,",")</f>
+        <v>"Predicate":"deep",</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"deep",</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A40,"Class",A40,":",A40,C40,A40)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H40" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="G40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>366</v>
       </c>
       <c r="B41" t="s">
         <v>161</v>
       </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
       <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E41" t="str">
+        <f>CONCATENATE(A41,"Predicate",A41,":",A41,B41,A41,",")</f>
+        <v>"Predicate":"tiniest",</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"tiniest",</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A41,"Class",A41,":",A41,C41,A41)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H41" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="G41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>366</v>
       </c>
       <c r="B42" t="s">
         <v>162</v>
       </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
       <c r="D42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E42" t="str">
+        <f>CONCATENATE(A42,"Predicate",A42,":",A42,B42,A42,",")</f>
+        <v>"Predicate":"slight",</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"slight",</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A42,"Class",A42,":",A42,C42,A42)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H42" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="G42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>366</v>
       </c>
       <c r="B43" t="s">
         <v>163</v>
       </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
       <c r="D43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E43" t="str">
+        <f>CONCATENATE(A43,"Predicate",A43,":",A43,B43,A43,",")</f>
+        <v>"Predicate":"thin",</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"thin",</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A43,"Class",A43,":",A43,C43,A43)</f>
         <v>"Class":"dimension"</v>
       </c>
-      <c r="H43" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="G43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>366</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
       </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
       <c r="D44" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E44" t="str">
+        <f>CONCATENATE(A44,"Predicate",A44,":",A44,B44,A44,",")</f>
+        <v>"Predicate":"creative",</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"creative",</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A44,"Class",A44,":",A44,C44,A44)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H44" t="s">
-        <v>368</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="G44" t="s">
+        <v>368</v>
+      </c>
+      <c r="I44" s="1">
         <f>18*(196-18)</f>
         <v>3204</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>366</v>
       </c>
       <c r="B45" t="s">
         <v>114</v>
       </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
       <c r="D45" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E45" t="str">
+        <f>CONCATENATE(A45,"Predicate",A45,":",A45,B45,A45,",")</f>
+        <v>"Predicate":"elitist",</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"elitist",</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A45,"Class",A45,":",A45,C45,A45)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H45" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="G45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>366</v>
       </c>
       <c r="B46" t="s">
         <v>115</v>
       </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
       <c r="D46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E46" t="str">
+        <f>CONCATENATE(A46,"Predicate",A46,":",A46,B46,A46,",")</f>
+        <v>"Predicate":"strict",</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"strict",</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A46,"Class",A46,":",A46,C46,A46)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H46" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="G46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>366</v>
       </c>
       <c r="B47" t="s">
         <v>264</v>
       </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
       <c r="D47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E47" t="str">
+        <f>CONCATENATE(A47,"Predicate",A47,":",A47,B47,A47,",")</f>
+        <v>"Predicate":"hopeless",</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"hopeless",</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A47,"Class",A47,":",A47,C47,A47)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H47" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="G47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>366</v>
       </c>
       <c r="B48" t="s">
         <v>116</v>
       </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
       <c r="D48" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E48" t="str">
+        <f>CONCATENATE(A48,"Predicate",A48,":",A48,B48,A48,",")</f>
+        <v>"Predicate":"crazy",</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"crazy",</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A48,"Class",A48,":",A48,C48,A48)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H48" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="G48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>366</v>
       </c>
       <c r="B49" t="s">
         <v>117</v>
       </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
       <c r="D49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E49" t="str">
+        <f>CONCATENATE(A49,"Predicate",A49,":",A49,B49,A49,",")</f>
+        <v>"Predicate":"social",</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"social",</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A49,"Class",A49,":",A49,C49,A49)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="G49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>366</v>
       </c>
       <c r="B50" t="s">
         <v>118</v>
       </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
       <c r="D50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E50" t="str">
+        <f>CONCATENATE(A50,"Predicate",A50,":",A50,B50,A50,",")</f>
+        <v>"Predicate":"experienced",</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"experienced",</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A50,"Class",A50,":",A50,C50,A50)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H50" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="G50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>366</v>
       </c>
       <c r="B51" t="s">
         <v>121</v>
       </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
       <c r="D51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E51" t="str">
+        <f>CONCATENATE(A51,"Predicate",A51,":",A51,B51,A51,",")</f>
+        <v>"Predicate":"selfish",</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"selfish",</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A51,"Class",A51,":",A51,C51,A51)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H51" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="G51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>366</v>
       </c>
       <c r="B52" t="s">
         <v>122</v>
       </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
       <c r="D52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E52" t="str">
+        <f>CONCATENATE(A52,"Predicate",A52,":",A52,B52,A52,",")</f>
+        <v>"Predicate":"happiest",</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"happiest",</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A52,"Class",A52,":",A52,C52,A52)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H52" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="G52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>366</v>
       </c>
       <c r="B53" t="s">
         <v>124</v>
       </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
       <c r="D53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E53" t="str">
+        <f>CONCATENATE(A53,"Predicate",A53,":",A53,B53,A53,",")</f>
+        <v>"Predicate":"professional",</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"professional",</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A53,"Class",A53,":",A53,C53,A53)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H53" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="G53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>366</v>
       </c>
       <c r="B54" t="s">
         <v>125</v>
       </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
       <c r="D54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E54" t="str">
+        <f>CONCATENATE(A54,"Predicate",A54,":",A54,B54,A54,",")</f>
+        <v>"Predicate":"funny",</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"funny",</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A54,"Class",A54,":",A54,C54,A54)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H54" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="G54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>366</v>
       </c>
       <c r="B55" t="s">
         <v>126</v>
       </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
       <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E55" t="str">
+        <f>CONCATENATE(A55,"Predicate",A55,":",A55,B55,A55,",")</f>
+        <v>"Predicate":"intellectual",</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"intellectual",</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A55,"Class",A55,":",A55,C55,A55)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H55" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="G55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>366</v>
       </c>
       <c r="B56" t="s">
         <v>127</v>
       </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
       <c r="D56" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E56" t="str">
+        <f>CONCATENATE(A56,"Predicate",A56,":",A56,B56,A56,",")</f>
+        <v>"Predicate":"entrepreneurial",</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"entrepreneurial",</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A56,"Class",A56,":",A56,C56,A56)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H56" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="G56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>366</v>
       </c>
       <c r="B57" t="s">
         <v>128</v>
       </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
       <c r="D57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E57" t="str">
+        <f>CONCATENATE(A57,"Predicate",A57,":",A57,B57,A57,",")</f>
+        <v>"Predicate":"mad",</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"mad",</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A57,"Class",A57,":",A57,C57,A57)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H57" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="G57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>366</v>
       </c>
       <c r="B58" t="s">
         <v>129</v>
       </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
       <c r="D58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E58" t="str">
+        <f>CONCATENATE(A58,"Predicate",A58,":",A58,B58,A58,",")</f>
+        <v>"Predicate":"civilized",</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"civilized",</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A58,"Class",A58,":",A58,C58,A58)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="G58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>366</v>
       </c>
       <c r="B59" t="s">
         <v>130</v>
       </c>
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
       <c r="D59" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E59" t="str">
+        <f>CONCATENATE(A59,"Predicate",A59,":",A59,B59,A59,",")</f>
+        <v>"Predicate":"sad",</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"sad",</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A59,"Class",A59,":",A59,C59,A59)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H59" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="G59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>366</v>
       </c>
       <c r="B60" t="s">
         <v>131</v>
       </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
       <c r="D60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E60" t="str">
+        <f>CONCATENATE(A60,"Predicate",A60,":",A60,B60,A60,",")</f>
+        <v>"Predicate":"playful",</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"playful",</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A60,"Class",A60,":",A60,C60,A60)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H60" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="G60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>366</v>
       </c>
       <c r="B61" t="s">
         <v>132</v>
       </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
       <c r="D61" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E61" t="str">
+        <f>CONCATENATE(A61,"Predicate",A61,":",A61,B61,A61,",")</f>
+        <v>"Predicate":"cheerful",</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"cheerful",</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A61,"Class",A61,":",A61,C61,A61)</f>
         <v>"Class":"human"</v>
       </c>
-      <c r="H61" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="G61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>366</v>
       </c>
       <c r="B62" t="s">
         <v>263</v>
       </c>
+      <c r="C62" t="s">
+        <v>363</v>
+      </c>
       <c r="D62" t="s">
-        <v>363</v>
-      </c>
-      <c r="E62" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E62" t="str">
+        <f>CONCATENATE(A62,"Predicate",A62,":",A62,B62,A62,",")</f>
+        <v>"Predicate":"overhead",</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"overhead",</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A62,"Class",A62,":",A62,C62,A62)</f>
         <v>"Class":"location"</v>
       </c>
-      <c r="H62" t="s">
-        <v>368</v>
-      </c>
-      <c r="J62">
+      <c r="G62" t="s">
+        <v>368</v>
+      </c>
+      <c r="I62">
         <f>3*(196-3)</f>
         <v>579</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>366</v>
       </c>
       <c r="B63" t="s">
         <v>283</v>
       </c>
+      <c r="C63" t="s">
+        <v>363</v>
+      </c>
       <c r="D63" t="s">
-        <v>363</v>
-      </c>
-      <c r="E63" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E63" t="str">
+        <f>CONCATENATE(A63,"Predicate",A63,":",A63,B63,A63,",")</f>
+        <v>"Predicate":"internal",</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"internal",</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A63,"Class",A63,":",A63,C63,A63)</f>
         <v>"Class":"location"</v>
       </c>
-      <c r="H63" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="G63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>366</v>
       </c>
       <c r="B64" t="s">
         <v>247</v>
       </c>
+      <c r="C64" t="s">
+        <v>363</v>
+      </c>
       <c r="D64" t="s">
-        <v>363</v>
-      </c>
-      <c r="E64" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E64" t="str">
+        <f>CONCATENATE(A64,"Predicate",A64,":",A64,B64,A64,",")</f>
+        <v>"Predicate":"closest",</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"closest",</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A64,"Class",A64,":",A64,C64,A64)</f>
         <v>"Class":"location"</v>
       </c>
-      <c r="H64" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="G64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>366</v>
       </c>
       <c r="B65" t="s">
         <v>105</v>
       </c>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
       <c r="D65" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E65" t="str">
+        <f>CONCATENATE(A65,"Predicate",A65,":",A65,B65,A65,",")</f>
+        <v>"Predicate":"corduroy",</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"corduroy",</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A65,"Class",A65,":",A65,C65,A65)</f>
         <v>"Class":"material"</v>
       </c>
-      <c r="H65" t="s">
-        <v>368</v>
-      </c>
-      <c r="J65">
+      <c r="G65" t="s">
+        <v>368</v>
+      </c>
+      <c r="I65">
         <f>4*(196-4)</f>
         <v>768</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>366</v>
       </c>
       <c r="B66" t="s">
         <v>108</v>
       </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
       <c r="D66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E66" t="str">
+        <f>CONCATENATE(A66,"Predicate",A66,":",A66,B66,A66,",")</f>
+        <v>"Predicate":"wooden",</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"wooden",</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A66,"Class",A66,":",A66,C66,A66)</f>
         <v>"Class":"material"</v>
       </c>
-      <c r="H66" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="G66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>366</v>
       </c>
       <c r="B67" t="s">
         <v>109</v>
       </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
       <c r="D67" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E67" t="str">
+        <f>CONCATENATE(A67,"Predicate",A67,":",A67,B67,A67,",")</f>
+        <v>"Predicate":"gold",</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="0"/>
-        <v>"Predicate":"gold",</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A67,"Class",A67,":",A67,C67,A67)</f>
         <v>"Class":"material"</v>
       </c>
-      <c r="H67" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="G67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>366</v>
       </c>
       <c r="B68" t="s">
         <v>110</v>
       </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
       <c r="D68" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E68" t="str">
+        <f>CONCATENATE(A68,"Predicate",A68,":",A68,B68,A68,",")</f>
+        <v>"Predicate":"crocheted",</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" ref="F68:F131" si="2">CONCATENATE(A68,"Predicate",A68,":",A68,B68,A68,",")</f>
-        <v>"Predicate":"crocheted",</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" ref="G68:G131" si="3">CONCATENATE(A68,"Class",A68,":",A68,D68,A68)</f>
+        <f>CONCATENATE(A68,"Class",A68,":",A68,C68,A68)</f>
         <v>"Class":"material"</v>
       </c>
-      <c r="H68" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="G68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>366</v>
       </c>
       <c r="B69" t="s">
         <v>80</v>
       </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
       <c r="D69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E69" t="str">
+        <f>CONCATENATE(A69,"Predicate",A69,":",A69,B69,A69,",")</f>
+        <v>"Predicate":"brazilian",</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"brazilian",</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A69,"Class",A69,":",A69,C69,A69)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H69" t="s">
-        <v>368</v>
-      </c>
-      <c r="J69">
+      <c r="G69" t="s">
+        <v>368</v>
+      </c>
+      <c r="I69">
         <f>19*(196-19)</f>
         <v>3363</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>366</v>
       </c>
       <c r="B70" t="s">
         <v>268</v>
       </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
       <c r="D70" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E70" t="str">
+        <f>CONCATENATE(A70,"Predicate",A70,":",A70,B70,A70,",")</f>
+        <v>"Predicate":"foreign",</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"foreign",</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A70,"Class",A70,":",A70,C70,A70)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H70" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="G70" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>366</v>
       </c>
       <c r="B71" t="s">
         <v>83</v>
       </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
       <c r="D71" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E71" t="str">
+        <f>CONCATENATE(A71,"Predicate",A71,":",A71,B71,A71,",")</f>
+        <v>"Predicate":"texan",</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"texan",</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A71,"Class",A71,":",A71,C71,A71)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H71" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="G71" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>366</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
       </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
       <c r="D72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E72" t="str">
+        <f>CONCATENATE(A72,"Predicate",A72,":",A72,B72,A72,",")</f>
+        <v>"Predicate":"american",</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"american",</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A72,"Class",A72,":",A72,C72,A72)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H72" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="G72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>366</v>
       </c>
       <c r="B73" t="s">
         <v>85</v>
       </c>
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
       <c r="D73" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E73" t="str">
+        <f>CONCATENATE(A73,"Predicate",A73,":",A73,B73,A73,",")</f>
+        <v>"Predicate":"hispanic",</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"hispanic",</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A73,"Class",A73,":",A73,C73,A73)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H73" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="G73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>366</v>
       </c>
       <c r="B74" t="s">
         <v>86</v>
       </c>
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
       <c r="D74" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E74" t="str">
+        <f>CONCATENATE(A74,"Predicate",A74,":",A74,B74,A74,",")</f>
+        <v>"Predicate":"argentine",</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"argentine",</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A74,"Class",A74,":",A74,C74,A74)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H74" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="G74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>366</v>
       </c>
       <c r="B75" t="s">
         <v>87</v>
       </c>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
       <c r="D75" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E75" t="str">
+        <f>CONCATENATE(A75,"Predicate",A75,":",A75,B75,A75,",")</f>
+        <v>"Predicate":"chinese",</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"chinese",</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A75,"Class",A75,":",A75,C75,A75)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H75" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="G75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>366</v>
       </c>
       <c r="B76" t="s">
         <v>88</v>
       </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
       <c r="D76" t="s">
-        <v>81</v>
-      </c>
-      <c r="E76" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E76" t="str">
+        <f>CONCATENATE(A76,"Predicate",A76,":",A76,B76,A76,",")</f>
+        <v>"Predicate":"victorian",</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"victorian",</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A76,"Class",A76,":",A76,C76,A76)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H76" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="G76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>366</v>
       </c>
       <c r="B77" t="s">
         <v>89</v>
       </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
       <c r="D77" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E77" t="str">
+        <f>CONCATENATE(A77,"Predicate",A77,":",A77,B77,A77,",")</f>
+        <v>"Predicate":"english",</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"english",</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A77,"Class",A77,":",A77,C77,A77)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H77" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="G77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>366</v>
       </c>
       <c r="B78" t="s">
         <v>92</v>
       </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
       <c r="D78" t="s">
-        <v>81</v>
-      </c>
-      <c r="E78" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E78" t="str">
+        <f>CONCATENATE(A78,"Predicate",A78,":",A78,B78,A78,",")</f>
+        <v>"Predicate":"french",</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"french",</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A78,"Class",A78,":",A78,C78,A78)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H78" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="G78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>366</v>
       </c>
       <c r="B79" t="s">
         <v>95</v>
       </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
       <c r="D79" t="s">
-        <v>81</v>
-      </c>
-      <c r="E79" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E79" t="str">
+        <f>CONCATENATE(A79,"Predicate",A79,":",A79,B79,A79,",")</f>
+        <v>"Predicate":"mexican",</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"mexican",</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A79,"Class",A79,":",A79,C79,A79)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H79" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="G79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>366</v>
       </c>
       <c r="B80" t="s">
         <v>96</v>
       </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
       <c r="D80" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E80" t="str">
+        <f>CONCATENATE(A80,"Predicate",A80,":",A80,B80,A80,",")</f>
+        <v>"Predicate":"italian",</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"italian",</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A80,"Class",A80,":",A80,C80,A80)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H80" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="G80" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>366</v>
       </c>
       <c r="B81" t="s">
         <v>97</v>
       </c>
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
       <c r="D81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E81" t="str">
+        <f>CONCATENATE(A81,"Predicate",A81,":",A81,B81,A81,",")</f>
+        <v>"Predicate":"vietnamese",</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"vietnamese",</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A81,"Class",A81,":",A81,C81,A81)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H81" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="G81" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>366</v>
       </c>
       <c r="B82" t="s">
         <v>98</v>
       </c>
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
       <c r="D82" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E82" t="str">
+        <f>CONCATENATE(A82,"Predicate",A82,":",A82,B82,A82,",")</f>
+        <v>"Predicate":"international",</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"international",</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A82,"Class",A82,":",A82,C82,A82)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H82" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="G82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>366</v>
       </c>
       <c r="B83" t="s">
         <v>99</v>
       </c>
+      <c r="C83" t="s">
+        <v>81</v>
+      </c>
       <c r="D83" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E83" t="str">
+        <f>CONCATENATE(A83,"Predicate",A83,":",A83,B83,A83,",")</f>
+        <v>"Predicate":"national",</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"national",</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A83,"Class",A83,":",A83,C83,A83)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H83" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="G83" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>366</v>
       </c>
       <c r="B84" t="s">
         <v>102</v>
       </c>
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
       <c r="D84" t="s">
-        <v>81</v>
-      </c>
-      <c r="E84" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E84" t="str">
+        <f>CONCATENATE(A84,"Predicate",A84,":",A84,B84,A84,",")</f>
+        <v>"Predicate":"japanese",</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"japanese",</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A84,"Class",A84,":",A84,C84,A84)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H84" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="G84" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>366</v>
       </c>
       <c r="B85" t="s">
         <v>103</v>
       </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
       <c r="D85" t="s">
-        <v>81</v>
-      </c>
-      <c r="E85" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E85" t="str">
+        <f>CONCATENATE(A85,"Predicate",A85,":",A85,B85,A85,",")</f>
+        <v>"Predicate":"european",</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"european",</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A85,"Class",A85,":",A85,C85,A85)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="G85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>366</v>
       </c>
       <c r="B86" t="s">
         <v>339</v>
       </c>
+      <c r="C86" t="s">
+        <v>81</v>
+      </c>
       <c r="D86" t="s">
-        <v>81</v>
-      </c>
-      <c r="E86" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E86" t="str">
+        <f>CONCATENATE(A86,"Predicate",A86,":",A86,B86,A86,",")</f>
+        <v>"Predicate":"native",</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"native",</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A86,"Class",A86,":",A86,C86,A86)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H86" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="G86" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>366</v>
       </c>
       <c r="B87" t="s">
         <v>104</v>
       </c>
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
       <c r="D87" t="s">
-        <v>81</v>
-      </c>
-      <c r="E87" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E87" t="str">
+        <f>CONCATENATE(A87,"Predicate",A87,":",A87,B87,A87,",")</f>
+        <v>"Predicate":"latin",</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"latin",</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A87,"Class",A87,":",A87,C87,A87)</f>
         <v>"Class":"nationality"</v>
       </c>
-      <c r="H87" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="G87" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>366</v>
       </c>
       <c r="B88" t="s">
         <v>55</v>
       </c>
+      <c r="C88" t="s">
+        <v>56</v>
+      </c>
       <c r="D88" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E88" t="str">
+        <f>CONCATENATE(A88,"Predicate",A88,":",A88,B88,A88,",")</f>
+        <v>"Predicate":"hard",</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"hard",</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A88,"Class",A88,":",A88,C88,A88)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H88" t="s">
-        <v>368</v>
-      </c>
-      <c r="J88">
+      <c r="G88" t="s">
+        <v>368</v>
+      </c>
+      <c r="I88">
         <f>24*(196-24)</f>
         <v>4128</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>366</v>
       </c>
       <c r="B89" t="s">
         <v>274</v>
       </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
       <c r="D89" t="s">
-        <v>56</v>
-      </c>
-      <c r="E89" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E89" t="str">
+        <f>CONCATENATE(A89,"Predicate",A89,":",A89,B89,A89,",")</f>
+        <v>"Predicate":"clean",</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"clean",</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A89,"Class",A89,":",A89,C89,A89)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H89" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="G89" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>366</v>
       </c>
       <c r="B90" t="s">
         <v>57</v>
       </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
       <c r="D90" t="s">
-        <v>56</v>
-      </c>
-      <c r="E90" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E90" t="str">
+        <f>CONCATENATE(A90,"Predicate",A90,":",A90,B90,A90,",")</f>
+        <v>"Predicate":"sweet",</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"sweet",</v>
-      </c>
-      <c r="G90" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A90,"Class",A90,":",A90,C90,A90)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H90" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="G90" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>366</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
       </c>
+      <c r="C91" t="s">
+        <v>56</v>
+      </c>
       <c r="D91" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E91" t="str">
+        <f>CONCATENATE(A91,"Predicate",A91,":",A91,B91,A91,",")</f>
+        <v>"Predicate":"creamy",</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"creamy",</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A91,"Class",A91,":",A91,C91,A91)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H91" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="G91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>366</v>
       </c>
       <c r="B92" t="s">
         <v>294</v>
       </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
       <c r="D92" t="s">
-        <v>56</v>
-      </c>
-      <c r="E92" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E92" t="str">
+        <f>CONCATENATE(A92,"Predicate",A92,":",A92,B92,A92,",")</f>
+        <v>"Predicate":"knobby",</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"knobby",</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A92,"Class",A92,":",A92,C92,A92)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H92" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="G92" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>366</v>
       </c>
       <c r="B93" t="s">
         <v>59</v>
       </c>
+      <c r="C93" t="s">
+        <v>56</v>
+      </c>
       <c r="D93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E93" t="str">
+        <f>CONCATENATE(A93,"Predicate",A93,":",A93,B93,A93,",")</f>
+        <v>"Predicate":"salty",</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"salty",</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A93,"Class",A93,":",A93,C93,A93)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H93" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="G93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>366</v>
       </c>
       <c r="B94" t="s">
         <v>60</v>
       </c>
+      <c r="C94" t="s">
+        <v>56</v>
+      </c>
       <c r="D94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E94" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E94" t="str">
+        <f>CONCATENATE(A94,"Predicate",A94,":",A94,B94,A94,",")</f>
+        <v>"Predicate":"wet",</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"wet",</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A94,"Class",A94,":",A94,C94,A94)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H94" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="G94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>366</v>
       </c>
       <c r="B95" t="s">
         <v>61</v>
       </c>
+      <c r="C95" t="s">
+        <v>56</v>
+      </c>
       <c r="D95" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E95" t="str">
+        <f>CONCATENATE(A95,"Predicate",A95,":",A95,B95,A95,",")</f>
+        <v>"Predicate":"spiky",</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"spiky",</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A95,"Class",A95,":",A95,C95,A95)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H95" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="G95" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>366</v>
       </c>
       <c r="B96" t="s">
         <v>62</v>
       </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
       <c r="D96" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E96" t="str">
+        <f>CONCATENATE(A96,"Predicate",A96,":",A96,B96,A96,",")</f>
+        <v>"Predicate":"shiny",</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"shiny",</v>
-      </c>
-      <c r="G96" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A96,"Class",A96,":",A96,C96,A96)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H96" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="G96" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>366</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
       </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
       <c r="D97" t="s">
-        <v>56</v>
-      </c>
-      <c r="E97" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E97" t="str">
+        <f>CONCATENATE(A97,"Predicate",A97,":",A97,B97,A97,",")</f>
+        <v>"Predicate":"raspy",</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"raspy",</v>
-      </c>
-      <c r="G97" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A97,"Class",A97,":",A97,C97,A97)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H97" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="G97" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>366</v>
       </c>
       <c r="B98" t="s">
         <v>312</v>
       </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
       <c r="D98" t="s">
-        <v>56</v>
-      </c>
-      <c r="E98" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E98" t="str">
+        <f>CONCATENATE(A98,"Predicate",A98,":",A98,B98,A98,",")</f>
+        <v>"Predicate":"sunny",</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"sunny",</v>
-      </c>
-      <c r="G98" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A98,"Class",A98,":",A98,C98,A98)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H98" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="G98" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>366</v>
       </c>
       <c r="B99" t="s">
         <v>65</v>
       </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
       <c r="D99" t="s">
-        <v>56</v>
-      </c>
-      <c r="E99" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E99" t="str">
+        <f>CONCATENATE(A99,"Predicate",A99,":",A99,B99,A99,",")</f>
+        <v>"Predicate":"smooth",</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"smooth",</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A99,"Class",A99,":",A99,C99,A99)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H99" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="G99" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>366</v>
       </c>
       <c r="B100" t="s">
         <v>66</v>
       </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
       <c r="D100" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E100" t="str">
+        <f>CONCATENATE(A100,"Predicate",A100,":",A100,B100,A100,",")</f>
+        <v>"Predicate":"sour",</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"sour",</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A100,"Class",A100,":",A100,C100,A100)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H100" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="G100" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>366</v>
       </c>
       <c r="B101" t="s">
         <v>67</v>
       </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
       <c r="D101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E101" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E101" t="str">
+        <f>CONCATENATE(A101,"Predicate",A101,":",A101,B101,A101,",")</f>
+        <v>"Predicate":"blunt",</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"blunt",</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A101,"Class",A101,":",A101,C101,A101)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H101" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="G101" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>366</v>
       </c>
       <c r="B102" t="s">
         <v>68</v>
       </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
       <c r="D102" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E102" t="str">
+        <f>CONCATENATE(A102,"Predicate",A102,":",A102,B102,A102,",")</f>
+        <v>"Predicate":"solid",</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"solid",</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A102,"Class",A102,":",A102,C102,A102)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H102" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="G102" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>366</v>
       </c>
       <c r="B103" t="s">
         <v>69</v>
       </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
       <c r="D103" t="s">
-        <v>56</v>
-      </c>
-      <c r="E103" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E103" t="str">
+        <f>CONCATENATE(A103,"Predicate",A103,":",A103,B103,A103,",")</f>
+        <v>"Predicate":"spicy",</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"spicy",</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A103,"Class",A103,":",A103,C103,A103)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H103" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="G103" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>366</v>
       </c>
       <c r="B104" t="s">
         <v>70</v>
       </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
       <c r="D104" t="s">
-        <v>56</v>
-      </c>
-      <c r="E104" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E104" t="str">
+        <f>CONCATENATE(A104,"Predicate",A104,":",A104,B104,A104,",")</f>
+        <v>"Predicate":"frozen",</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"frozen",</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A104,"Class",A104,":",A104,C104,A104)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H104" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="G104" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>366</v>
       </c>
       <c r="B105" t="s">
         <v>72</v>
       </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
       <c r="D105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E105" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E105" t="str">
+        <f>CONCATENATE(A105,"Predicate",A105,":",A105,B105,A105,",")</f>
+        <v>"Predicate":"lacy",</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"lacy",</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A105,"Class",A105,":",A105,C105,A105)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H105" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="G105" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>366</v>
       </c>
       <c r="B106" t="s">
         <v>73</v>
       </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
       <c r="D106" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E106" t="str">
+        <f>CONCATENATE(A106,"Predicate",A106,":",A106,B106,A106,",")</f>
+        <v>"Predicate":"dried",</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"dried",</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A106,"Class",A106,":",A106,C106,A106)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H106" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="G106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>366</v>
       </c>
       <c r="B107" t="s">
         <v>74</v>
       </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
       <c r="D107" t="s">
-        <v>56</v>
-      </c>
-      <c r="E107" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E107" t="str">
+        <f>CONCATENATE(A107,"Predicate",A107,":",A107,B107,A107,",")</f>
+        <v>"Predicate":"dirty",</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"dirty",</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A107,"Class",A107,":",A107,C107,A107)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H107" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="G107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>366</v>
       </c>
       <c r="B108" t="s">
         <v>75</v>
       </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
       <c r="D108" t="s">
-        <v>56</v>
-      </c>
-      <c r="E108" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E108" t="str">
+        <f>CONCATENATE(A108,"Predicate",A108,":",A108,B108,A108,",")</f>
+        <v>"Predicate":"humid",</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"humid",</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A108,"Class",A108,":",A108,C108,A108)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H108" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="G108" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>366</v>
       </c>
       <c r="B109" t="s">
         <v>76</v>
       </c>
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
       <c r="D109" t="s">
-        <v>56</v>
-      </c>
-      <c r="E109" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E109" t="str">
+        <f>CONCATENATE(A109,"Predicate",A109,":",A109,B109,A109,",")</f>
+        <v>"Predicate":"curly",</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"curly",</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A109,"Class",A109,":",A109,C109,A109)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H109" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="G109" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>366</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
       </c>
+      <c r="C110" t="s">
+        <v>56</v>
+      </c>
       <c r="D110" t="s">
-        <v>56</v>
-      </c>
-      <c r="E110" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E110" t="str">
+        <f>CONCATENATE(A110,"Predicate",A110,":",A110,B110,A110,",")</f>
+        <v>"Predicate":"dusty",</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"dusty",</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A110,"Class",A110,":",A110,C110,A110)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H110" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="G110" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>366</v>
       </c>
       <c r="B111" t="s">
         <v>78</v>
       </c>
+      <c r="C111" t="s">
+        <v>56</v>
+      </c>
       <c r="D111" t="s">
-        <v>56</v>
-      </c>
-      <c r="E111" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E111" t="str">
+        <f>CONCATENATE(A111,"Predicate",A111,":",A111,B111,A111,",")</f>
+        <v>"Predicate":"quiet",</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"quiet",</v>
-      </c>
-      <c r="G111" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A111,"Class",A111,":",A111,C111,A111)</f>
         <v>"Class":"physical"</v>
       </c>
-      <c r="H111" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="G111" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>366</v>
       </c>
       <c r="B112" t="s">
         <v>53</v>
       </c>
+      <c r="C112" t="s">
+        <v>54</v>
+      </c>
       <c r="D112" t="s">
-        <v>54</v>
-      </c>
-      <c r="E112" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E112" t="str">
+        <f>CONCATENATE(A112,"Predicate",A112,":",A112,B112,A112,",")</f>
+        <v>"Predicate":"circular",</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"circular",</v>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A112,"Class",A112,":",A112,C112,A112)</f>
         <v>"Class":"shape"</v>
       </c>
-      <c r="H112" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="G112" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>366</v>
       </c>
       <c r="B113" t="s">
         <v>49</v>
       </c>
+      <c r="C113" t="s">
+        <v>50</v>
+      </c>
       <c r="D113" t="s">
-        <v>50</v>
-      </c>
-      <c r="E113" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E113" t="str">
+        <f>CONCATENATE(A113,"Predicate",A113,":",A113,B113,A113,",")</f>
+        <v>"Predicate":"fast",</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"fast",</v>
-      </c>
-      <c r="G113" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A113,"Class",A113,":",A113,C113,A113)</f>
         <v>"Class":"speed"</v>
       </c>
-      <c r="H113" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="G113" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>366</v>
       </c>
       <c r="B114" t="s">
         <v>51</v>
       </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
       <c r="D114" t="s">
-        <v>50</v>
-      </c>
-      <c r="E114" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E114" t="str">
+        <f>CONCATENATE(A114,"Predicate",A114,":",A114,B114,A114,",")</f>
+        <v>"Predicate":"speedy",</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"speedy",</v>
-      </c>
-      <c r="G114" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A114,"Class",A114,":",A114,C114,A114)</f>
         <v>"Class":"speed"</v>
       </c>
-      <c r="H114" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="G114" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>366</v>
       </c>
       <c r="B115" t="s">
         <v>52</v>
       </c>
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
       <c r="D115" t="s">
-        <v>50</v>
-      </c>
-      <c r="E115" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E115" t="str">
+        <f>CONCATENATE(A115,"Predicate",A115,":",A115,B115,A115,",")</f>
+        <v>"Predicate":"slow",</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"slow",</v>
-      </c>
-      <c r="G115" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A115,"Class",A115,":",A115,C115,A115)</f>
         <v>"Class":"speed"</v>
       </c>
-      <c r="H115" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="G115" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>366</v>
       </c>
       <c r="B116" t="s">
         <v>256</v>
       </c>
+      <c r="C116" t="s">
+        <v>362</v>
+      </c>
       <c r="D116" t="s">
-        <v>362</v>
-      </c>
-      <c r="E116" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E116" t="str">
+        <f>CONCATENATE(A116,"Predicate",A116,":",A116,B116,A116,",")</f>
+        <v>"Predicate":"everyday",</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"everyday",</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A116,"Class",A116,":",A116,C116,A116)</f>
         <v>"Class":"temporal"</v>
       </c>
-      <c r="H116" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="G116" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>366</v>
       </c>
       <c r="B117" t="s">
         <v>286</v>
       </c>
+      <c r="C117" t="s">
+        <v>362</v>
+      </c>
       <c r="D117" t="s">
-        <v>362</v>
-      </c>
-      <c r="E117" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E117" t="str">
+        <f>CONCATENATE(A117,"Predicate",A117,":",A117,B117,A117,",")</f>
+        <v>"Predicate":"historical",</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"historical",</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A117,"Class",A117,":",A117,C117,A117)</f>
         <v>"Class":"temporal"</v>
       </c>
-      <c r="H117" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="G117" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>366</v>
       </c>
       <c r="B118" t="s">
         <v>335</v>
       </c>
+      <c r="C118" t="s">
+        <v>362</v>
+      </c>
       <c r="D118" t="s">
-        <v>362</v>
-      </c>
-      <c r="E118" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E118" t="str">
+        <f>CONCATENATE(A118,"Predicate",A118,":",A118,B118,A118,",")</f>
+        <v>"Predicate":"current",</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"current",</v>
-      </c>
-      <c r="G118" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A118,"Class",A118,":",A118,C118,A118)</f>
         <v>"Class":"temporal"</v>
       </c>
-      <c r="H118" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="G118" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>366</v>
       </c>
       <c r="B119" t="s">
         <v>340</v>
       </c>
+      <c r="C119" t="s">
+        <v>362</v>
+      </c>
       <c r="D119" t="s">
-        <v>362</v>
-      </c>
-      <c r="E119" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E119" t="str">
+        <f>CONCATENATE(A119,"Predicate",A119,":",A119,B119,A119,",")</f>
+        <v>"Predicate":"daily",</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"daily",</v>
-      </c>
-      <c r="G119" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A119,"Class",A119,":",A119,C119,A119)</f>
         <v>"Class":"temporal"</v>
       </c>
-      <c r="H119" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="G119" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>366</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
       <c r="D120" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E120" t="str">
+        <f>CONCATENATE(A120,"Predicate",A120,":",A120,B120,A120,",")</f>
+        <v>"Predicate":"favorite",</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"favorite",</v>
-      </c>
-      <c r="G120" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A120,"Class",A120,":",A120,C120,A120)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H120" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="G120" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>366</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
       <c r="D121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E121" t="str">
+        <f>CONCATENATE(A121,"Predicate",A121,":",A121,B121,A121,",")</f>
+        <v>"Predicate":"good",</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"good",</v>
-      </c>
-      <c r="G121" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A121,"Class",A121,":",A121,C121,A121)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H121" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="G121" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>366</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
       <c r="D122" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E122" t="str">
+        <f>CONCATENATE(A122,"Predicate",A122,":",A122,B122,A122,",")</f>
+        <v>"Predicate":"fun",</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"fun",</v>
-      </c>
-      <c r="G122" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A122,"Class",A122,":",A122,C122,A122)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H122" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="G122" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>366</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
       </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
       <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E123" t="str">
+        <f>CONCATENATE(A123,"Predicate",A123,":",A123,B123,A123,",")</f>
+        <v>"Predicate":"prime",</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"prime",</v>
-      </c>
-      <c r="G123" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A123,"Class",A123,":",A123,C123,A123)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H123" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="G123" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>366</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
       </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
       <c r="D124" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E124" t="str">
+        <f>CONCATENATE(A124,"Predicate",A124,":",A124,B124,A124,",")</f>
+        <v>"Predicate":"inappropriate",</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"inappropriate",</v>
-      </c>
-      <c r="G124" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A124,"Class",A124,":",A124,C124,A124)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H124" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="G124" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>366</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
       </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
       <c r="D125" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E125" t="str">
+        <f>CONCATENATE(A125,"Predicate",A125,":",A125,B125,A125,",")</f>
+        <v>"Predicate":"popular",</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"popular",</v>
-      </c>
-      <c r="G125" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A125,"Class",A125,":",A125,C125,A125)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H125" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="G125" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>366</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
       </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
       <c r="D126" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E126" t="str">
+        <f>CONCATENATE(A126,"Predicate",A126,":",A126,B126,A126,",")</f>
+        <v>"Predicate":"prestigious",</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"prestigious",</v>
-      </c>
-      <c r="G126" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A126,"Class",A126,":",A126,C126,A126)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H126" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="G126" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>366</v>
       </c>
       <c r="B127" t="s">
         <v>281</v>
       </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
       <c r="D127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E127" t="str">
+        <f>CONCATENATE(A127,"Predicate",A127,":",A127,B127,A127,",")</f>
+        <v>"Predicate":"lavish",</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"lavish",</v>
-      </c>
-      <c r="G127" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A127,"Class",A127,":",A127,C127,A127)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H127" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="G127" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>366</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
       </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
       <c r="D128" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E128" t="str">
+        <f>CONCATENATE(A128,"Predicate",A128,":",A128,B128,A128,",")</f>
+        <v>"Predicate":"ugly",</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"ugly",</v>
-      </c>
-      <c r="G128" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A128,"Class",A128,":",A128,C128,A128)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H128" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="G128" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>366</v>
       </c>
       <c r="B129" t="s">
         <v>14</v>
       </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
       <c r="D129" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E129" t="str">
+        <f>CONCATENATE(A129,"Predicate",A129,":",A129,B129,A129,",")</f>
+        <v>"Predicate":"ideal",</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"ideal",</v>
-      </c>
-      <c r="G129" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A129,"Class",A129,":",A129,C129,A129)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H129" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="G129" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>366</v>
       </c>
       <c r="B130" t="s">
         <v>285</v>
       </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
       <c r="D130" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E130" t="str">
+        <f>CONCATENATE(A130,"Predicate",A130,":",A130,B130,A130,",")</f>
+        <v>"Predicate":"detailed",</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"detailed",</v>
-      </c>
-      <c r="G130" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A130,"Class",A130,":",A130,C130,A130)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H130" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="G130" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>366</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
       <c r="D131" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E131" t="str">
+        <f>CONCATENATE(A131,"Predicate",A131,":",A131,B131,A131,",")</f>
+        <v>"Predicate":"bad",</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="2"/>
-        <v>"Predicate":"bad",</v>
-      </c>
-      <c r="G131" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A131,"Class",A131,":",A131,C131,A131)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H131" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="G131" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>366</v>
       </c>
       <c r="B132" t="s">
         <v>290</v>
       </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
       <c r="D132" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E132" t="str">
+        <f>CONCATENATE(A132,"Predicate",A132,":",A132,B132,A132,",")</f>
+        <v>"Predicate":"simple",</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" ref="F132:F195" si="4">CONCATENATE(A132,"Predicate",A132,":",A132,B132,A132,",")</f>
-        <v>"Predicate":"simple",</v>
-      </c>
-      <c r="G132" t="str">
-        <f t="shared" ref="G132:G195" si="5">CONCATENATE(A132,"Class",A132,":",A132,D132,A132)</f>
+        <f>CONCATENATE(A132,"Class",A132,":",A132,C132,A132)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H132" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="G132" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>366</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
       </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
       <c r="D133" t="s">
-        <v>5</v>
-      </c>
-      <c r="E133" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E133" t="str">
+        <f>CONCATENATE(A133,"Predicate",A133,":",A133,B133,A133,",")</f>
+        <v>"Predicate":"negative",</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"negative",</v>
-      </c>
-      <c r="G133" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A133,"Class",A133,":",A133,C133,A133)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H133" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="G133" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>366</v>
       </c>
       <c r="B134" t="s">
         <v>18</v>
       </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
       <c r="D134" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E134" t="str">
+        <f>CONCATENATE(A134,"Predicate",A134,":",A134,B134,A134,",")</f>
+        <v>"Predicate":"great",</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"great",</v>
-      </c>
-      <c r="G134" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A134,"Class",A134,":",A134,C134,A134)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H134" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="G134" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>366</v>
       </c>
       <c r="B135" t="s">
         <v>301</v>
       </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
       <c r="D135" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E135" t="str">
+        <f>CONCATENATE(A135,"Predicate",A135,":",A135,B135,A135,",")</f>
+        <v>"Predicate":"practical",</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"practical",</v>
-      </c>
-      <c r="G135" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A135,"Class",A135,":",A135,C135,A135)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H135" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="G135" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>366</v>
       </c>
       <c r="B136" t="s">
         <v>19</v>
       </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
       <c r="D136" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E136" t="str">
+        <f>CONCATENATE(A136,"Predicate",A136,":",A136,B136,A136,",")</f>
+        <v>"Predicate":"special",</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"special",</v>
-      </c>
-      <c r="G136" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A136,"Class",A136,":",A136,C136,A136)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H136" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="G136" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>366</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
       </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
       <c r="D137" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E137" t="str">
+        <f>CONCATENATE(A137,"Predicate",A137,":",A137,B137,A137,",")</f>
+        <v>"Predicate":"normal",</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"normal",</v>
-      </c>
-      <c r="G137" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A137,"Class",A137,":",A137,C137,A137)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H137" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="G137" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>366</v>
       </c>
       <c r="B138" t="s">
         <v>21</v>
       </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
       <c r="D138" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E138" t="str">
+        <f>CONCATENATE(A138,"Predicate",A138,":",A138,B138,A138,",")</f>
+        <v>"Predicate":"elaborate",</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"elaborate",</v>
-      </c>
-      <c r="G138" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A138,"Class",A138,":",A138,C138,A138)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H138" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="G138" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>366</v>
       </c>
       <c r="B139" t="s">
         <v>22</v>
       </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
       <c r="D139" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E139" t="str">
+        <f>CONCATENATE(A139,"Predicate",A139,":",A139,B139,A139,",")</f>
+        <v>"Predicate":"fancy",</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"fancy",</v>
-      </c>
-      <c r="G139" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A139,"Class",A139,":",A139,C139,A139)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H139" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="G139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>366</v>
       </c>
       <c r="B140" t="s">
         <v>23</v>
       </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
       <c r="D140" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E140" t="str">
+        <f>CONCATENATE(A140,"Predicate",A140,":",A140,B140,A140,",")</f>
+        <v>"Predicate":"genuine",</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"genuine",</v>
-      </c>
-      <c r="G140" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A140,"Class",A140,":",A140,C140,A140)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H140" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="G140" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>366</v>
       </c>
       <c r="B141" t="s">
         <v>313</v>
       </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
       <c r="D141" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E141" t="str">
+        <f>CONCATENATE(A141,"Predicate",A141,":",A141,B141,A141,",")</f>
+        <v>"Predicate":"exciting",</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"exciting",</v>
-      </c>
-      <c r="G141" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A141,"Class",A141,":",A141,C141,A141)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H141" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="G141" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>366</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
       </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
       <c r="D142" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E142" t="str">
+        <f>CONCATENATE(A142,"Predicate",A142,":",A142,B142,A142,",")</f>
+        <v>"Predicate":"important",</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"important",</v>
-      </c>
-      <c r="G142" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A142,"Class",A142,":",A142,C142,A142)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H142" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="G142" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>366</v>
       </c>
       <c r="B143" t="s">
         <v>25</v>
       </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
       <c r="D143" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E143" t="str">
+        <f>CONCATENATE(A143,"Predicate",A143,":",A143,B143,A143,",")</f>
+        <v>"Predicate":"pleasant",</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"pleasant",</v>
-      </c>
-      <c r="G143" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A143,"Class",A143,":",A143,C143,A143)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H143" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="G143" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>366</v>
       </c>
       <c r="B144" t="s">
         <v>317</v>
       </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
       <c r="D144" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E144" t="str">
+        <f>CONCATENATE(A144,"Predicate",A144,":",A144,B144,A144,",")</f>
+        <v>"Predicate":"positive",</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"positive",</v>
-      </c>
-      <c r="G144" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A144,"Class",A144,":",A144,C144,A144)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H144" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="G144" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>366</v>
       </c>
       <c r="B145" t="s">
         <v>320</v>
       </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
       <c r="D145" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E145" t="str">
+        <f>CONCATENATE(A145,"Predicate",A145,":",A145,B145,A145,",")</f>
+        <v>"Predicate":"safe",</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"safe",</v>
-      </c>
-      <c r="G145" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A145,"Class",A145,":",A145,C145,A145)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H145" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="G145" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>366</v>
       </c>
       <c r="B146" t="s">
         <v>26</v>
       </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
       <c r="D146" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E146" t="str">
+        <f>CONCATENATE(A146,"Predicate",A146,":",A146,B146,A146,",")</f>
+        <v>"Predicate":"excellent",</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"excellent",</v>
-      </c>
-      <c r="G146" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A146,"Class",A146,":",A146,C146,A146)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H146" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="G146" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>366</v>
       </c>
       <c r="B147" t="s">
         <v>27</v>
       </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
       <c r="D147" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E147" t="str">
+        <f>CONCATENATE(A147,"Predicate",A147,":",A147,B147,A147,",")</f>
+        <v>"Predicate":"wonderful",</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"wonderful",</v>
-      </c>
-      <c r="G147" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A147,"Class",A147,":",A147,C147,A147)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H147" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="G147" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>366</v>
       </c>
       <c r="B148" t="s">
         <v>28</v>
       </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
       <c r="D148" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E148" t="str">
+        <f>CONCATENATE(A148,"Predicate",A148,":",A148,B148,A148,",")</f>
+        <v>"Predicate":"reasonable",</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"reasonable",</v>
-      </c>
-      <c r="G148" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A148,"Class",A148,":",A148,C148,A148)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H148" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="G148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>366</v>
       </c>
       <c r="B149" t="s">
         <v>29</v>
       </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
       <c r="D149" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E149" t="str">
+        <f>CONCATENATE(A149,"Predicate",A149,":",A149,B149,A149,",")</f>
+        <v>"Predicate":"quaint",</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"quaint",</v>
-      </c>
-      <c r="G149" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A149,"Class",A149,":",A149,C149,A149)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H149" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="G149" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>366</v>
       </c>
       <c r="B150" t="s">
         <v>30</v>
       </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
       <c r="D150" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E150" t="str">
+        <f>CONCATENATE(A150,"Predicate",A150,":",A150,B150,A150,",")</f>
+        <v>"Predicate":"fantastic",</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"fantastic",</v>
-      </c>
-      <c r="G150" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A150,"Class",A150,":",A150,C150,A150)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H150" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="G150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>366</v>
       </c>
       <c r="B151" t="s">
         <v>31</v>
       </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
       <c r="D151" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E151" t="str">
+        <f>CONCATENATE(A151,"Predicate",A151,":",A151,B151,A151,",")</f>
+        <v>"Predicate":"easy",</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"easy",</v>
-      </c>
-      <c r="G151" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A151,"Class",A151,":",A151,C151,A151)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H151" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="G151" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>366</v>
       </c>
       <c r="B152" t="s">
         <v>32</v>
       </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
       <c r="D152" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E152" t="str">
+        <f>CONCATENATE(A152,"Predicate",A152,":",A152,B152,A152,",")</f>
+        <v>"Predicate":"incredible",</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"incredible",</v>
-      </c>
-      <c r="G152" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A152,"Class",A152,":",A152,C152,A152)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H152" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="G152" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>366</v>
       </c>
       <c r="B153" t="s">
         <v>33</v>
       </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
       <c r="D153" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E153" t="str">
+        <f>CONCATENATE(A153,"Predicate",A153,":",A153,B153,A153,",")</f>
+        <v>"Predicate":"cute",</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"cute",</v>
-      </c>
-      <c r="G153" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A153,"Class",A153,":",A153,C153,A153)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="G153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>366</v>
       </c>
       <c r="B154" t="s">
         <v>343</v>
       </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
       <c r="D154" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E154" t="str">
+        <f>CONCATENATE(A154,"Predicate",A154,":",A154,B154,A154,",")</f>
+        <v>"Predicate":"effortless",</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"effortless",</v>
-      </c>
-      <c r="G154" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A154,"Class",A154,":",A154,C154,A154)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H154" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="G154" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>366</v>
       </c>
       <c r="B155" t="s">
         <v>34</v>
       </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
       <c r="D155" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E155" t="str">
+        <f>CONCATENATE(A155,"Predicate",A155,":",A155,B155,A155,",")</f>
+        <v>"Predicate":"convenient",</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"convenient",</v>
-      </c>
-      <c r="G155" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A155,"Class",A155,":",A155,C155,A155)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H155" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="G155" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>366</v>
       </c>
       <c r="B156" t="s">
         <v>35</v>
       </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
       <c r="D156" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E156" t="str">
+        <f>CONCATENATE(A156,"Predicate",A156,":",A156,B156,A156,",")</f>
+        <v>"Predicate":"strange",</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"strange",</v>
-      </c>
-      <c r="G156" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A156,"Class",A156,":",A156,C156,A156)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H156" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="G156" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>366</v>
       </c>
       <c r="B157" t="s">
         <v>36</v>
       </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
       <c r="D157" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E157" t="str">
+        <f>CONCATENATE(A157,"Predicate",A157,":",A157,B157,A157,",")</f>
+        <v>"Predicate":"lovely",</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"lovely",</v>
-      </c>
-      <c r="G157" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A157,"Class",A157,":",A157,C157,A157)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H157" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="G157" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>366</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
       </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
       <c r="D158" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E158" t="str">
+        <f>CONCATENATE(A158,"Predicate",A158,":",A158,B158,A158,",")</f>
+        <v>"Predicate":"sophisticated",</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"sophisticated",</v>
-      </c>
-      <c r="G158" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A158,"Class",A158,":",A158,C158,A158)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H158" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="G158" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>366</v>
       </c>
       <c r="B159" t="s">
         <v>38</v>
       </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
       <c r="D159" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E159" t="str">
+        <f>CONCATENATE(A159,"Predicate",A159,":",A159,B159,A159,",")</f>
+        <v>"Predicate":"silly",</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"silly",</v>
-      </c>
-      <c r="G159" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A159,"Class",A159,":",A159,C159,A159)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H159" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="G159" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>366</v>
       </c>
       <c r="B160" t="s">
         <v>40</v>
       </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
       <c r="D160" t="s">
-        <v>5</v>
-      </c>
-      <c r="E160" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E160" t="str">
+        <f>CONCATENATE(A160,"Predicate",A160,":",A160,B160,A160,",")</f>
+        <v>"Predicate":"beautiful",</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"beautiful",</v>
-      </c>
-      <c r="G160" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A160,"Class",A160,":",A160,C160,A160)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H160" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="G160" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>366</v>
       </c>
       <c r="B161" t="s">
         <v>41</v>
       </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
       <c r="D161" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E161" t="str">
+        <f>CONCATENATE(A161,"Predicate",A161,":",A161,B161,A161,",")</f>
+        <v>"Predicate":"acceptable",</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"acceptable",</v>
-      </c>
-      <c r="G161" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A161,"Class",A161,":",A161,C161,A161)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H161" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="G161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>366</v>
       </c>
       <c r="B162" t="s">
         <v>42</v>
       </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
       <c r="D162" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E162" t="str">
+        <f>CONCATENATE(A162,"Predicate",A162,":",A162,B162,A162,",")</f>
+        <v>"Predicate":"best",</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"best",</v>
-      </c>
-      <c r="G162" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A162,"Class",A162,":",A162,C162,A162)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H162" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="G162" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>366</v>
       </c>
       <c r="B163" t="s">
         <v>43</v>
       </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
       <c r="D163" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E163" t="str">
+        <f>CONCATENATE(A163,"Predicate",A163,":",A163,B163,A163,",")</f>
+        <v>"Predicate":"plain",</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"plain",</v>
-      </c>
-      <c r="G163" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A163,"Class",A163,":",A163,C163,A163)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H163" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="G163" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>366</v>
       </c>
       <c r="B164" t="s">
         <v>44</v>
       </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
       <c r="D164" t="s">
-        <v>5</v>
-      </c>
-      <c r="E164" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E164" t="str">
+        <f>CONCATENATE(A164,"Predicate",A164,":",A164,B164,A164,",")</f>
+        <v>"Predicate":"gorgeous",</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"gorgeous",</v>
-      </c>
-      <c r="G164" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A164,"Class",A164,":",A164,C164,A164)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H164" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="G164" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>366</v>
       </c>
       <c r="B165" t="s">
         <v>45</v>
       </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
       <c r="D165" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E165" t="str">
+        <f>CONCATENATE(A165,"Predicate",A165,":",A165,B165,A165,",")</f>
+        <v>"Predicate":"gross",</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"gross",</v>
-      </c>
-      <c r="G165" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A165,"Class",A165,":",A165,C165,A165)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H165" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="G165" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>366</v>
       </c>
       <c r="B166" t="s">
         <v>46</v>
       </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
       <c r="D166" t="s">
-        <v>5</v>
-      </c>
-      <c r="E166" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E166" t="str">
+        <f>CONCATENATE(A166,"Predicate",A166,":",A166,B166,A166,",")</f>
+        <v>"Predicate":"ludicrous",</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"ludicrous",</v>
-      </c>
-      <c r="G166" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A166,"Class",A166,":",A166,C166,A166)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H166" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="G166" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>366</v>
       </c>
       <c r="B167" t="s">
         <v>47</v>
       </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
       <c r="D167" t="s">
-        <v>5</v>
-      </c>
-      <c r="E167" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E167" t="str">
+        <f>CONCATENATE(A167,"Predicate",A167,":",A167,B167,A167,",")</f>
+        <v>"Predicate":"interesting",</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"interesting",</v>
-      </c>
-      <c r="G167" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A167,"Class",A167,":",A167,C167,A167)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H167" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="G167" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>366</v>
       </c>
       <c r="B168" t="s">
         <v>48</v>
       </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
       <c r="D168" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E168" t="str">
+        <f>CONCATENATE(A168,"Predicate",A168,":",A168,B168,A168,",")</f>
+        <v>"Predicate":"useful",</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"useful",</v>
-      </c>
-      <c r="G168" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A168,"Class",A168,":",A168,C168,A168)</f>
         <v>"Class":"value"</v>
       </c>
-      <c r="H168" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="G168" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>366</v>
       </c>
       <c r="B169" t="s">
         <v>186</v>
       </c>
+      <c r="C169" t="s">
+        <v>187</v>
+      </c>
       <c r="D169" t="s">
-        <v>187</v>
-      </c>
-      <c r="E169" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E169" t="str">
+        <f>CONCATENATE(A169,"Predicate",A169,":",A169,B169,A169,",")</f>
+        <v>"Predicate":"specific",</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"specific",</v>
-      </c>
-      <c r="G169" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A169,"Class",A169,":",A169,C169,A169)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H169" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="G169" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>366</v>
       </c>
       <c r="B170" t="s">
         <v>188</v>
       </c>
+      <c r="C170" t="s">
+        <v>187</v>
+      </c>
       <c r="D170" t="s">
-        <v>187</v>
-      </c>
-      <c r="E170" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E170" t="str">
+        <f>CONCATENATE(A170,"Predicate",A170,":",A170,B170,A170,",")</f>
+        <v>"Predicate":"spare",</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"spare",</v>
-      </c>
-      <c r="G170" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A170,"Class",A170,":",A170,C170,A170)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H170" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="G170" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>366</v>
       </c>
       <c r="B171" t="s">
         <v>189</v>
       </c>
+      <c r="C171" t="s">
+        <v>187</v>
+      </c>
       <c r="D171" t="s">
-        <v>187</v>
-      </c>
-      <c r="E171" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E171" t="str">
+        <f>CONCATENATE(A171,"Predicate",A171,":",A171,B171,A171,",")</f>
+        <v>"Predicate":"same",</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"same",</v>
-      </c>
-      <c r="G171" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A171,"Class",A171,":",A171,C171,A171)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H171" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="G171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>366</v>
       </c>
       <c r="B172" t="s">
         <v>191</v>
       </c>
+      <c r="C172" t="s">
+        <v>187</v>
+      </c>
       <c r="D172" t="s">
-        <v>187</v>
-      </c>
-      <c r="E172" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E172" t="str">
+        <f>CONCATENATE(A172,"Predicate",A172,":",A172,B172,A172,",")</f>
+        <v>"Predicate":"different",</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"different",</v>
-      </c>
-      <c r="G172" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A172,"Class",A172,":",A172,C172,A172)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H172" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="G172" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>366</v>
       </c>
       <c r="B173" t="s">
         <v>193</v>
       </c>
+      <c r="C173" t="s">
+        <v>187</v>
+      </c>
       <c r="D173" t="s">
-        <v>187</v>
-      </c>
-      <c r="E173" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E173" t="str">
+        <f>CONCATENATE(A173,"Predicate",A173,":",A173,B173,A173,",")</f>
+        <v>"Predicate":"simplified",</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"simplified",</v>
-      </c>
-      <c r="G173" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A173,"Class",A173,":",A173,C173,A173)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H173" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="G173" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>366</v>
       </c>
       <c r="B174" t="s">
         <v>195</v>
       </c>
+      <c r="C174" t="s">
+        <v>187</v>
+      </c>
       <c r="D174" t="s">
-        <v>187</v>
-      </c>
-      <c r="E174" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E174" t="str">
+        <f>CONCATENATE(A174,"Predicate",A174,":",A174,B174,A174,",")</f>
+        <v>"Predicate":"mixed",</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"mixed",</v>
-      </c>
-      <c r="G174" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A174,"Class",A174,":",A174,C174,A174)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H174" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="G174" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>366</v>
       </c>
       <c r="B175" t="s">
         <v>201</v>
       </c>
+      <c r="C175" t="s">
+        <v>187</v>
+      </c>
       <c r="D175" t="s">
-        <v>187</v>
-      </c>
-      <c r="E175" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E175" t="str">
+        <f>CONCATENATE(A175,"Predicate",A175,":",A175,B175,A175,",")</f>
+        <v>"Predicate":"individual",</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"individual",</v>
-      </c>
-      <c r="G175" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A175,"Class",A175,":",A175,C175,A175)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H175" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="G175" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>366</v>
       </c>
       <c r="B176" t="s">
         <v>204</v>
       </c>
+      <c r="C176" t="s">
+        <v>187</v>
+      </c>
       <c r="D176" t="s">
-        <v>187</v>
-      </c>
-      <c r="E176" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E176" t="str">
+        <f>CONCATENATE(A176,"Predicate",A176,":",A176,B176,A176,",")</f>
+        <v>"Predicate":"designated",</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"designated",</v>
-      </c>
-      <c r="G176" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A176,"Class",A176,":",A176,C176,A176)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H176" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="G176" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>366</v>
       </c>
       <c r="B177" t="s">
         <v>208</v>
       </c>
+      <c r="C177" t="s">
+        <v>187</v>
+      </c>
       <c r="D177" t="s">
-        <v>187</v>
-      </c>
-      <c r="E177" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E177" t="str">
+        <f>CONCATENATE(A177,"Predicate",A177,":",A177,B177,A177,",")</f>
+        <v>"Predicate":"additional",</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"additional",</v>
-      </c>
-      <c r="G177" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A177,"Class",A177,":",A177,C177,A177)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H177" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="G177" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>366</v>
       </c>
       <c r="B178" t="s">
         <v>210</v>
       </c>
+      <c r="C178" t="s">
+        <v>187</v>
+      </c>
       <c r="D178" t="s">
-        <v>187</v>
-      </c>
-      <c r="E178" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E178" t="str">
+        <f>CONCATENATE(A178,"Predicate",A178,":",A178,B178,A178,",")</f>
+        <v>"Predicate":"middle",</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"middle",</v>
-      </c>
-      <c r="G178" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A178,"Class",A178,":",A178,C178,A178)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H178" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="G178" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>366</v>
       </c>
       <c r="B179" t="s">
         <v>211</v>
       </c>
+      <c r="C179" t="s">
+        <v>187</v>
+      </c>
       <c r="D179" t="s">
-        <v>187</v>
-      </c>
-      <c r="E179" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E179" t="str">
+        <f>CONCATENATE(A179,"Predicate",A179,":",A179,B179,A179,",")</f>
+        <v>"Predicate":"immediate",</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"immediate",</v>
-      </c>
-      <c r="G179" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A179,"Class",A179,":",A179,C179,A179)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H179" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="G179" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>366</v>
       </c>
       <c r="B180" t="s">
         <v>215</v>
       </c>
+      <c r="C180" t="s">
+        <v>187</v>
+      </c>
       <c r="D180" t="s">
-        <v>187</v>
-      </c>
-      <c r="E180" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E180" t="str">
+        <f>CONCATENATE(A180,"Predicate",A180,":",A180,B180,A180,",")</f>
+        <v>"Predicate":"whole",</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"whole",</v>
-      </c>
-      <c r="G180" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A180,"Class",A180,":",A180,C180,A180)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H180" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="G180" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>366</v>
       </c>
       <c r="B181" t="s">
         <v>218</v>
       </c>
+      <c r="C181" t="s">
+        <v>187</v>
+      </c>
       <c r="D181" t="s">
-        <v>187</v>
-      </c>
-      <c r="E181" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E181" t="str">
+        <f>CONCATENATE(A181,"Predicate",A181,":",A181,B181,A181,",")</f>
+        <v>"Predicate":"unique",</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"unique",</v>
-      </c>
-      <c r="G181" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A181,"Class",A181,":",A181,C181,A181)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H181" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="G181" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>366</v>
       </c>
       <c r="B182" t="s">
         <v>219</v>
       </c>
+      <c r="C182" t="s">
+        <v>187</v>
+      </c>
       <c r="D182" t="s">
-        <v>187</v>
-      </c>
-      <c r="E182" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E182" t="str">
+        <f>CONCATENATE(A182,"Predicate",A182,":",A182,B182,A182,",")</f>
+        <v>"Predicate":"front",</v>
       </c>
       <c r="F182" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"front",</v>
-      </c>
-      <c r="G182" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A182,"Class",A182,":",A182,C182,A182)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H182" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="G182" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>366</v>
       </c>
       <c r="B183" t="s">
         <v>221</v>
       </c>
+      <c r="C183" t="s">
+        <v>187</v>
+      </c>
       <c r="D183" t="s">
-        <v>187</v>
-      </c>
-      <c r="E183" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E183" t="str">
+        <f>CONCATENATE(A183,"Predicate",A183,":",A183,B183,A183,",")</f>
+        <v>"Predicate":"potential",</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"potential",</v>
-      </c>
-      <c r="G183" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A183,"Class",A183,":",A183,C183,A183)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H183" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="G183" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>366</v>
       </c>
       <c r="B184" t="s">
         <v>222</v>
       </c>
+      <c r="C184" t="s">
+        <v>187</v>
+      </c>
       <c r="D184" t="s">
-        <v>187</v>
-      </c>
-      <c r="E184" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E184" t="str">
+        <f>CONCATENATE(A184,"Predicate",A184,":",A184,B184,A184,",")</f>
+        <v>"Predicate":"obvious",</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"obvious",</v>
-      </c>
-      <c r="G184" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A184,"Class",A184,":",A184,C184,A184)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H184" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="G184" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>366</v>
       </c>
       <c r="B185" t="s">
         <v>224</v>
       </c>
+      <c r="C185" t="s">
+        <v>187</v>
+      </c>
       <c r="D185" t="s">
-        <v>187</v>
-      </c>
-      <c r="E185" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E185" t="str">
+        <f>CONCATENATE(A185,"Predicate",A185,":",A185,B185,A185,",")</f>
+        <v>"Predicate":"last",</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"last",</v>
-      </c>
-      <c r="G185" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A185,"Class",A185,":",A185,C185,A185)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H185" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="G185" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>366</v>
       </c>
       <c r="B186" t="s">
         <v>225</v>
       </c>
+      <c r="C186" t="s">
+        <v>187</v>
+      </c>
       <c r="D186" t="s">
-        <v>187</v>
-      </c>
-      <c r="E186" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E186" t="str">
+        <f>CONCATENATE(A186,"Predicate",A186,":",A186,B186,A186,",")</f>
+        <v>"Predicate":"oddball",</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"oddball",</v>
-      </c>
-      <c r="G186" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A186,"Class",A186,":",A186,C186,A186)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H186" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="G186" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>366</v>
       </c>
       <c r="B187" t="s">
         <v>330</v>
       </c>
+      <c r="C187" t="s">
+        <v>187</v>
+      </c>
       <c r="D187" t="s">
-        <v>187</v>
-      </c>
-      <c r="E187" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E187" t="str">
+        <f>CONCATENATE(A187,"Predicate",A187,":",A187,B187,A187,",")</f>
+        <v>"Predicate":"random",</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"random",</v>
-      </c>
-      <c r="G187" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A187,"Class",A187,":",A187,C187,A187)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H187" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="G187" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>366</v>
       </c>
       <c r="B188" t="s">
         <v>228</v>
       </c>
+      <c r="C188" t="s">
+        <v>187</v>
+      </c>
       <c r="D188" t="s">
-        <v>187</v>
-      </c>
-      <c r="E188" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E188" t="str">
+        <f>CONCATENATE(A188,"Predicate",A188,":",A188,B188,A188,",")</f>
+        <v>"Predicate":"similar",</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"similar",</v>
-      </c>
-      <c r="G188" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A188,"Class",A188,":",A188,C188,A188)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H188" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="G188" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>366</v>
       </c>
       <c r="B189" t="s">
         <v>230</v>
       </c>
+      <c r="C189" t="s">
+        <v>187</v>
+      </c>
       <c r="D189" t="s">
-        <v>187</v>
-      </c>
-      <c r="E189" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E189" t="str">
+        <f>CONCATENATE(A189,"Predicate",A189,":",A189,B189,A189,",")</f>
+        <v>"Predicate":"original",</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"original",</v>
-      </c>
-      <c r="G189" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A189,"Class",A189,":",A189,C189,A189)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H189" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="G189" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>366</v>
       </c>
       <c r="B190" t="s">
         <v>334</v>
       </c>
+      <c r="C190" t="s">
+        <v>187</v>
+      </c>
       <c r="D190" t="s">
-        <v>187</v>
-      </c>
-      <c r="E190" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E190" t="str">
+        <f>CONCATENATE(A190,"Predicate",A190,":",A190,B190,A190,",")</f>
+        <v>"Predicate":"standardized",</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"standardized",</v>
-      </c>
-      <c r="G190" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A190,"Class",A190,":",A190,C190,A190)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H190" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="G190" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>366</v>
       </c>
       <c r="B191" t="s">
         <v>338</v>
       </c>
+      <c r="C191" t="s">
+        <v>187</v>
+      </c>
       <c r="D191" t="s">
-        <v>187</v>
-      </c>
-      <c r="E191" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E191" t="str">
+        <f>CONCATENATE(A191,"Predicate",A191,":",A191,B191,A191,",")</f>
+        <v>"Predicate":"actual",</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"actual",</v>
-      </c>
-      <c r="G191" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A191,"Class",A191,":",A191,C191,A191)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H191" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="G191" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>366</v>
       </c>
       <c r="B192" t="s">
         <v>237</v>
       </c>
+      <c r="C192" t="s">
+        <v>187</v>
+      </c>
       <c r="D192" t="s">
-        <v>187</v>
-      </c>
-      <c r="E192" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E192" t="str">
+        <f>CONCATENATE(A192,"Predicate",A192,":",A192,B192,A192,",")</f>
+        <v>"Predicate":"previous",</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"previous",</v>
-      </c>
-      <c r="G192" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A192,"Class",A192,":",A192,C192,A192)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H192" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="G192" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>366</v>
       </c>
       <c r="B193" t="s">
         <v>239</v>
       </c>
+      <c r="C193" t="s">
+        <v>187</v>
+      </c>
       <c r="D193" t="s">
-        <v>187</v>
-      </c>
-      <c r="E193" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E193" t="str">
+        <f>CONCATENATE(A193,"Predicate",A193,":",A193,B193,A193,",")</f>
+        <v>"Predicate":"present",</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"present",</v>
-      </c>
-      <c r="G193" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A193,"Class",A193,":",A193,C193,A193)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H193" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="G193" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>366</v>
       </c>
       <c r="B194" t="s">
         <v>243</v>
       </c>
+      <c r="C194" t="s">
+        <v>187</v>
+      </c>
       <c r="D194" t="s">
-        <v>187</v>
-      </c>
-      <c r="E194" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E194" t="str">
+        <f>CONCATENATE(A194,"Predicate",A194,":",A194,B194,A194,",")</f>
+        <v>"Predicate":"second",</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"second",</v>
-      </c>
-      <c r="G194" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A194,"Class",A194,":",A194,C194,A194)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H194" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="G194" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>366</v>
       </c>
       <c r="B195" t="s">
         <v>248</v>
       </c>
+      <c r="C195" t="s">
+        <v>187</v>
+      </c>
       <c r="D195" t="s">
-        <v>187</v>
-      </c>
-      <c r="E195" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E195" t="str">
+        <f>CONCATENATE(A195,"Predicate",A195,":",A195,B195,A195,",")</f>
+        <v>"Predicate":"prevailing",</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="4"/>
-        <v>"Predicate":"prevailing",</v>
-      </c>
-      <c r="G195" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(A195,"Class",A195,":",A195,C195,A195)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H195" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="G195" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>366</v>
       </c>
       <c r="B196" t="s">
         <v>251</v>
       </c>
+      <c r="C196" t="s">
+        <v>187</v>
+      </c>
       <c r="D196" t="s">
-        <v>187</v>
-      </c>
-      <c r="E196" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E196" t="str">
+        <f>CONCATENATE(A196,"Predicate",A196,":",A196,B196,A196,",")</f>
+        <v>"Predicate":"extra",</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" ref="F196:F198" si="6">CONCATENATE(A196,"Predicate",A196,":",A196,B196,A196,",")</f>
-        <v>"Predicate":"extra",</v>
-      </c>
-      <c r="G196" t="str">
-        <f t="shared" ref="G196:G198" si="7">CONCATENATE(A196,"Class",A196,":",A196,D196,A196)</f>
+        <f>CONCATENATE(A196,"Class",A196,":",A196,C196,A196)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H196" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="G196" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>366</v>
       </c>
       <c r="B197" t="s">
         <v>253</v>
       </c>
+      <c r="C197" t="s">
+        <v>187</v>
+      </c>
       <c r="D197" t="s">
-        <v>187</v>
-      </c>
-      <c r="E197" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E197" t="str">
+        <f>CONCATENATE(A197,"Predicate",A197,":",A197,B197,A197,",")</f>
+        <v>"Predicate":"token",</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="6"/>
-        <v>"Predicate":"token",</v>
-      </c>
-      <c r="G197" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(A197,"Class",A197,":",A197,C197,A197)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H197" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="G197" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>366</v>
       </c>
       <c r="B198" t="s">
         <v>360</v>
       </c>
+      <c r="C198" t="s">
+        <v>187</v>
+      </c>
       <c r="D198" t="s">
-        <v>187</v>
-      </c>
-      <c r="E198" t="s">
-        <v>367</v>
+        <v>367</v>
+      </c>
+      <c r="E198" t="str">
+        <f>CONCATENATE(A198,"Predicate",A198,":",A198,B198,A198,",")</f>
+        <v>"Predicate":"complete",</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="6"/>
-        <v>"Predicate":"complete",</v>
-      </c>
-      <c r="G198" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(A198,"Class",A198,":",A198,C198,A198)</f>
         <v>"Class":"X"</v>
       </c>
-      <c r="H198" t="s">
+      <c r="G198" t="s">
         <v>369</v>
       </c>
     </row>
@@ -15292,7 +15314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
@@ -19469,4 +19491,1988 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G80" sqref="D3:G80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE(A3,"Predicate",A3,":",A3,B3,A3,",")</f>
+        <v>"Predicate":"biggest",</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE(A3,"Class",A3,":",A3,C3,A3)</f>
+        <v>"Class":"dimension"</v>
+      </c>
+      <c r="G3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE(A4,"Predicate",A4,":",A4,B4,A4,",")</f>
+        <v>"Predicate":"large",</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE(A4,"Class",A4,":",A4,C4,A4)</f>
+        <v>"Class":"dimension"</v>
+      </c>
+      <c r="G4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE(A5,"Predicate",A5,":",A5,B5,A5,",")</f>
+        <v>"Predicate":"long",</v>
+      </c>
+      <c r="F5" t="str">
+        <f>CONCATENATE(A5,"Class",A5,":",A5,C5,A5)</f>
+        <v>"Class":"dimension"</v>
+      </c>
+      <c r="G5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE(A6,"Predicate",A6,":",A6,B6,A6,",")</f>
+        <v>"Predicate":"mini",</v>
+      </c>
+      <c r="F6" t="str">
+        <f>CONCATENATE(A6,"Class",A6,":",A6,C6,A6)</f>
+        <v>"Class":"dimension"</v>
+      </c>
+      <c r="G6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" t="str">
+        <f>CONCATENATE(A7,"Predicate",A7,":",A7,B7,A7,",")</f>
+        <v>"Predicate":"narrow",</v>
+      </c>
+      <c r="F7" t="str">
+        <f>CONCATENATE(A7,"Class",A7,":",A7,C7,A7)</f>
+        <v>"Class":"dimension"</v>
+      </c>
+      <c r="G7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE(A8,"Predicate",A8,":",A8,B8,A8,",")</f>
+        <v>"Predicate":"open",</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE(A8,"Class",A8,":",A8,C8,A8)</f>
+        <v>"Class":"dimension"</v>
+      </c>
+      <c r="G8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE(A9,"Predicate",A9,":",A9,B9,A9,",")</f>
+        <v>"Predicate":"thick",</v>
+      </c>
+      <c r="F9" t="str">
+        <f>CONCATENATE(A9,"Class",A9,":",A9,C9,A9)</f>
+        <v>"Class":"dimension"</v>
+      </c>
+      <c r="G9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE(A10,"Predicate",A10,":",A10,B10,A10,",")</f>
+        <v>"Predicate":"thin",</v>
+      </c>
+      <c r="F10" t="str">
+        <f>CONCATENATE(A10,"Class",A10,":",A10,C10,A10)</f>
+        <v>"Class":"dimension"</v>
+      </c>
+      <c r="G10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE(A11,"Predicate",A11,":",A11,B11,A11,",")</f>
+        <v>"Predicate":"civilized",</v>
+      </c>
+      <c r="F11" t="str">
+        <f>CONCATENATE(A11,"Class",A11,":",A11,C11,A11)</f>
+        <v>"Class":"human"</v>
+      </c>
+      <c r="G11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" t="str">
+        <f>CONCATENATE(A12,"Predicate",A12,":",A12,B12,A12,",")</f>
+        <v>"Predicate":"creative",</v>
+      </c>
+      <c r="F12" t="str">
+        <f>CONCATENATE(A12,"Class",A12,":",A12,C12,A12)</f>
+        <v>"Class":"human"</v>
+      </c>
+      <c r="G12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE(A13,"Predicate",A13,":",A13,B13,A13,",")</f>
+        <v>"Predicate":"entrepreneurial",</v>
+      </c>
+      <c r="F13" t="str">
+        <f>CONCATENATE(A13,"Class",A13,":",A13,C13,A13)</f>
+        <v>"Class":"human"</v>
+      </c>
+      <c r="G13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE(A14,"Predicate",A14,":",A14,B14,A14,",")</f>
+        <v>"Predicate":"playful",</v>
+      </c>
+      <c r="F14" t="str">
+        <f>CONCATENATE(A14,"Class",A14,":",A14,C14,A14)</f>
+        <v>"Class":"human"</v>
+      </c>
+      <c r="G14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE(A15,"Predicate",A15,":",A15,B15,A15,",")</f>
+        <v>"Predicate":"professional",</v>
+      </c>
+      <c r="F15" t="str">
+        <f>CONCATENATE(A15,"Class",A15,":",A15,C15,A15)</f>
+        <v>"Class":"human"</v>
+      </c>
+      <c r="G15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" t="str">
+        <f>CONCATENATE(A16,"Predicate",A16,":",A16,B16,A16,",")</f>
+        <v>"Predicate":"sad",</v>
+      </c>
+      <c r="F16" t="str">
+        <f>CONCATENATE(A16,"Class",A16,":",A16,C16,A16)</f>
+        <v>"Class":"human"</v>
+      </c>
+      <c r="G16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" t="str">
+        <f>CONCATENATE(A17,"Predicate",A17,":",A17,B17,A17,",")</f>
+        <v>"Predicate":"selfish",</v>
+      </c>
+      <c r="F17" t="str">
+        <f>CONCATENATE(A17,"Class",A17,":",A17,C17,A17)</f>
+        <v>"Class":"human"</v>
+      </c>
+      <c r="G17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" t="str">
+        <f>CONCATENATE(A18,"Predicate",A18,":",A18,B18,A18,",")</f>
+        <v>"Predicate":"strict",</v>
+      </c>
+      <c r="F18" t="str">
+        <f>CONCATENATE(A18,"Class",A18,":",A18,C18,A18)</f>
+        <v>"Class":"human"</v>
+      </c>
+      <c r="G18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E19" t="str">
+        <f>CONCATENATE(A19,"Predicate",A19,":",A19,B19,A19,",")</f>
+        <v>"Predicate":"brazilian",</v>
+      </c>
+      <c r="F19" t="str">
+        <f>CONCATENATE(A19,"Class",A19,":",A19,C19,A19)</f>
+        <v>"Class":"nationality"</v>
+      </c>
+      <c r="G19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" t="str">
+        <f>CONCATENATE(A20,"Predicate",A20,":",A20,B20,A20,",")</f>
+        <v>"Predicate":"english",</v>
+      </c>
+      <c r="F20" t="str">
+        <f>CONCATENATE(A20,"Class",A20,":",A20,C20,A20)</f>
+        <v>"Class":"nationality"</v>
+      </c>
+      <c r="G20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" t="str">
+        <f>CONCATENATE(A21,"Predicate",A21,":",A21,B21,A21,",")</f>
+        <v>"Predicate":"european",</v>
+      </c>
+      <c r="F21" t="str">
+        <f>CONCATENATE(A21,"Class",A21,":",A21,C21,A21)</f>
+        <v>"Class":"nationality"</v>
+      </c>
+      <c r="G21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" t="str">
+        <f>CONCATENATE(A22,"Predicate",A22,":",A22,B22,A22,",")</f>
+        <v>"Predicate":"hispanic",</v>
+      </c>
+      <c r="F22" t="str">
+        <f>CONCATENATE(A22,"Class",A22,":",A22,C22,A22)</f>
+        <v>"Class":"nationality"</v>
+      </c>
+      <c r="G22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E23" t="str">
+        <f>CONCATENATE(A23,"Predicate",A23,":",A23,B23,A23,",")</f>
+        <v>"Predicate":"international",</v>
+      </c>
+      <c r="F23" t="str">
+        <f>CONCATENATE(A23,"Class",A23,":",A23,C23,A23)</f>
+        <v>"Class":"nationality"</v>
+      </c>
+      <c r="G23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" t="str">
+        <f>CONCATENATE(A24,"Predicate",A24,":",A24,B24,A24,",")</f>
+        <v>"Predicate":"japanese",</v>
+      </c>
+      <c r="F24" t="str">
+        <f>CONCATENATE(A24,"Class",A24,":",A24,C24,A24)</f>
+        <v>"Class":"nationality"</v>
+      </c>
+      <c r="G24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" t="str">
+        <f>CONCATENATE(A25,"Predicate",A25,":",A25,B25,A25,",")</f>
+        <v>"Predicate":"national",</v>
+      </c>
+      <c r="F25" t="str">
+        <f>CONCATENATE(A25,"Class",A25,":",A25,C25,A25)</f>
+        <v>"Class":"nationality"</v>
+      </c>
+      <c r="G25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" t="str">
+        <f>CONCATENATE(A26,"Predicate",A26,":",A26,B26,A26,",")</f>
+        <v>"Predicate":"vietnamese",</v>
+      </c>
+      <c r="F26" t="str">
+        <f>CONCATENATE(A26,"Class",A26,":",A26,C26,A26)</f>
+        <v>"Class":"nationality"</v>
+      </c>
+      <c r="G26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" t="str">
+        <f>CONCATENATE(A27,"Predicate",A27,":",A27,B27,A27,",")</f>
+        <v>"Predicate":"creamy",</v>
+      </c>
+      <c r="F27" t="str">
+        <f>CONCATENATE(A27,"Class",A27,":",A27,C27,A27)</f>
+        <v>"Class":"physical"</v>
+      </c>
+      <c r="G27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" t="str">
+        <f>CONCATENATE(A28,"Predicate",A28,":",A28,B28,A28,",")</f>
+        <v>"Predicate":"curly",</v>
+      </c>
+      <c r="F28" t="str">
+        <f>CONCATENATE(A28,"Class",A28,":",A28,C28,A28)</f>
+        <v>"Class":"physical"</v>
+      </c>
+      <c r="G28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" t="str">
+        <f>CONCATENATE(A29,"Predicate",A29,":",A29,B29,A29,",")</f>
+        <v>"Predicate":"frozen",</v>
+      </c>
+      <c r="F29" t="str">
+        <f>CONCATENATE(A29,"Class",A29,":",A29,C29,A29)</f>
+        <v>"Class":"physical"</v>
+      </c>
+      <c r="G29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" t="str">
+        <f>CONCATENATE(A30,"Predicate",A30,":",A30,B30,A30,",")</f>
+        <v>"Predicate":"lacy",</v>
+      </c>
+      <c r="F30" t="str">
+        <f>CONCATENATE(A30,"Class",A30,":",A30,C30,A30)</f>
+        <v>"Class":"physical"</v>
+      </c>
+      <c r="G30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" t="str">
+        <f>CONCATENATE(A31,"Predicate",A31,":",A31,B31,A31,",")</f>
+        <v>"Predicate":"smooth",</v>
+      </c>
+      <c r="F31" t="str">
+        <f>CONCATENATE(A31,"Class",A31,":",A31,C31,A31)</f>
+        <v>"Class":"physical"</v>
+      </c>
+      <c r="G31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" t="str">
+        <f>CONCATENATE(A32,"Predicate",A32,":",A32,B32,A32,",")</f>
+        <v>"Predicate":"solid",</v>
+      </c>
+      <c r="F32" t="str">
+        <f>CONCATENATE(A32,"Class",A32,":",A32,C32,A32)</f>
+        <v>"Class":"physical"</v>
+      </c>
+      <c r="G32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" t="str">
+        <f>CONCATENATE(A33,"Predicate",A33,":",A33,B33,A33,",")</f>
+        <v>"Predicate":"spicy",</v>
+      </c>
+      <c r="F33" t="str">
+        <f>CONCATENATE(A33,"Class",A33,":",A33,C33,A33)</f>
+        <v>"Class":"physical"</v>
+      </c>
+      <c r="G33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" t="str">
+        <f>CONCATENATE(A34,"Predicate",A34,":",A34,B34,A34,",")</f>
+        <v>"Predicate":"sweet",</v>
+      </c>
+      <c r="F34" t="str">
+        <f>CONCATENATE(A34,"Class",A34,":",A34,C34,A34)</f>
+        <v>"Class":"physical"</v>
+      </c>
+      <c r="G34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" t="str">
+        <f>CONCATENATE(A35,"Predicate",A35,":",A35,B35,A35,",")</f>
+        <v>"Predicate":"best",</v>
+      </c>
+      <c r="F35" t="str">
+        <f>CONCATENATE(A35,"Class",A35,":",A35,C35,A35)</f>
+        <v>"Class":"value"</v>
+      </c>
+      <c r="G35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" t="str">
+        <f>CONCATENATE(A36,"Predicate",A36,":",A36,B36,A36,",")</f>
+        <v>"Predicate":"exciting",</v>
+      </c>
+      <c r="F36" t="str">
+        <f>CONCATENATE(A36,"Class",A36,":",A36,C36,A36)</f>
+        <v>"Class":"value"</v>
+      </c>
+      <c r="G36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" t="str">
+        <f>CONCATENATE(A37,"Predicate",A37,":",A37,B37,A37,",")</f>
+        <v>"Predicate":"favorite",</v>
+      </c>
+      <c r="F37" t="str">
+        <f>CONCATENATE(A37,"Class",A37,":",A37,C37,A37)</f>
+        <v>"Class":"value"</v>
+      </c>
+      <c r="G37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>366</v>
+      </c>
+      <c r="B38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" t="str">
+        <f>CONCATENATE(A38,"Predicate",A38,":",A38,B38,A38,",")</f>
+        <v>"Predicate":"lavish",</v>
+      </c>
+      <c r="F38" t="str">
+        <f>CONCATENATE(A38,"Class",A38,":",A38,C38,A38)</f>
+        <v>"Class":"value"</v>
+      </c>
+      <c r="G38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" t="str">
+        <f>CONCATENATE(A39,"Predicate",A39,":",A39,B39,A39,",")</f>
+        <v>"Predicate":"plain",</v>
+      </c>
+      <c r="F39" t="str">
+        <f>CONCATENATE(A39,"Class",A39,":",A39,C39,A39)</f>
+        <v>"Class":"value"</v>
+      </c>
+      <c r="G39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" t="str">
+        <f>CONCATENATE(A40,"Predicate",A40,":",A40,B40,A40,",")</f>
+        <v>"Predicate":"pleasant",</v>
+      </c>
+      <c r="F40" t="str">
+        <f>CONCATENATE(A40,"Class",A40,":",A40,C40,A40)</f>
+        <v>"Class":"value"</v>
+      </c>
+      <c r="G40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" t="str">
+        <f>CONCATENATE(A41,"Predicate",A41,":",A41,B41,A41,",")</f>
+        <v>"Predicate":"prestigious",</v>
+      </c>
+      <c r="F41" t="str">
+        <f>CONCATENATE(A41,"Class",A41,":",A41,C41,A41)</f>
+        <v>"Class":"value"</v>
+      </c>
+      <c r="G41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" t="str">
+        <f>CONCATENATE(A42,"Predicate",A42,":",A42,B42,A42,",")</f>
+        <v>"Predicate":"strange",</v>
+      </c>
+      <c r="F42" t="str">
+        <f>CONCATENATE(A42,"Class",A42,":",A42,C42,A42)</f>
+        <v>"Class":"value"</v>
+      </c>
+      <c r="G42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" t="str">
+        <f>CONCATENATE(A43,"Predicate",A43,":",A43,B43,A43,",")</f>
+        <v>"Predicate":"designated",</v>
+      </c>
+      <c r="F43" t="str">
+        <f>CONCATENATE(A43,"Class",A43,":",A43,C43,A43)</f>
+        <v>"Class":"X"</v>
+      </c>
+      <c r="G43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" t="str">
+        <f>CONCATENATE(A44,"Predicate",A44,":",A44,B44,A44,",")</f>
+        <v>"Predicate":"different",</v>
+      </c>
+      <c r="F44" t="str">
+        <f>CONCATENATE(A44,"Class",A44,":",A44,C44,A44)</f>
+        <v>"Class":"X"</v>
+      </c>
+      <c r="G44" t="s">
+        <v>368</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" t="s">
+        <v>367</v>
+      </c>
+      <c r="E45" t="str">
+        <f>CONCATENATE(A45,"Predicate",A45,":",A45,B45,A45,",")</f>
+        <v>"Predicate":"individual",</v>
+      </c>
+      <c r="F45" t="str">
+        <f>CONCATENATE(A45,"Class",A45,":",A45,C45,A45)</f>
+        <v>"Class":"X"</v>
+      </c>
+      <c r="G45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" t="str">
+        <f>CONCATENATE(A46,"Predicate",A46,":",A46,B46,A46,",")</f>
+        <v>"Predicate":"last",</v>
+      </c>
+      <c r="F46" t="str">
+        <f>CONCATENATE(A46,"Class",A46,":",A46,C46,A46)</f>
+        <v>"Class":"X"</v>
+      </c>
+      <c r="G46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" t="str">
+        <f>CONCATENATE(A47,"Predicate",A47,":",A47,B47,A47,",")</f>
+        <v>"Predicate":"mixed",</v>
+      </c>
+      <c r="F47" t="str">
+        <f>CONCATENATE(A47,"Class",A47,":",A47,C47,A47)</f>
+        <v>"Class":"X"</v>
+      </c>
+      <c r="G47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" t="str">
+        <f>CONCATENATE(A48,"Predicate",A48,":",A48,B48,A48,",")</f>
+        <v>"Predicate":"potential",</v>
+      </c>
+      <c r="F48" t="str">
+        <f>CONCATENATE(A48,"Class",A48,":",A48,C48,A48)</f>
+        <v>"Class":"X"</v>
+      </c>
+      <c r="G48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" t="str">
+        <f>CONCATENATE(A49,"Predicate",A49,":",A49,B49,A49,",")</f>
+        <v>"Predicate":"token",</v>
+      </c>
+      <c r="F49" t="str">
+        <f>CONCATENATE(A49,"Class",A49,":",A49,C49,A49)</f>
+        <v>"Class":"X"</v>
+      </c>
+      <c r="G49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" t="str">
+        <f>CONCATENATE(A50,"Predicate",A50,":",A50,B50,A50,",")</f>
+        <v>"Predicate":"unique",</v>
+      </c>
+      <c r="F50" t="str">
+        <f>CONCATENATE(A50,"Class",A50,":",A50,C50,A50)</f>
+        <v>"Class":"X"</v>
+      </c>
+      <c r="G50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" t="s">
+        <v>367</v>
+      </c>
+      <c r="E51" t="str">
+        <f>CONCATENATE(A51,"Predicate",A51,":",A51,B51,A51,",")</f>
+        <v>"Predicate":"junior",</v>
+      </c>
+      <c r="F51" t="str">
+        <f>CONCATENATE(A51,"Class",A51,":",A51,C51,A51)</f>
+        <v>"Class":"age"</v>
+      </c>
+      <c r="G51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" t="str">
+        <f>CONCATENATE(A52,"Predicate",A52,":",A52,B52,A52,",")</f>
+        <v>"Predicate":"new",</v>
+      </c>
+      <c r="F52" t="str">
+        <f>CONCATENATE(A52,"Class",A52,":",A52,C52,A52)</f>
+        <v>"Class":"age"</v>
+      </c>
+      <c r="G52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" t="str">
+        <f>CONCATENATE(A53,"Predicate",A53,":",A53,B53,A53,",")</f>
+        <v>"Predicate":"old",</v>
+      </c>
+      <c r="F53" t="str">
+        <f>CONCATENATE(A53,"Class",A53,":",A53,C53,A53)</f>
+        <v>"Class":"age"</v>
+      </c>
+      <c r="G53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" t="s">
+        <v>367</v>
+      </c>
+      <c r="E54" t="str">
+        <f>CONCATENATE(A54,"Predicate",A54,":",A54,B54,A54,",")</f>
+        <v>"Predicate":"old-time",</v>
+      </c>
+      <c r="F54" t="str">
+        <f>CONCATENATE(A54,"Class",A54,":",A54,C54,A54)</f>
+        <v>"Class":"age"</v>
+      </c>
+      <c r="G54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" t="s">
+        <v>367</v>
+      </c>
+      <c r="E55" t="str">
+        <f>CONCATENATE(A55,"Predicate",A55,":",A55,B55,A55,",")</f>
+        <v>"Predicate":"senior",</v>
+      </c>
+      <c r="F55" t="str">
+        <f>CONCATENATE(A55,"Class",A55,":",A55,C55,A55)</f>
+        <v>"Class":"age"</v>
+      </c>
+      <c r="G55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>367</v>
+      </c>
+      <c r="E56" t="str">
+        <f>CONCATENATE(A56,"Predicate",A56,":",A56,B56,A56,",")</f>
+        <v>"Predicate":"young",</v>
+      </c>
+      <c r="F56" t="str">
+        <f>CONCATENATE(A56,"Class",A56,":",A56,C56,A56)</f>
+        <v>"Class":"age"</v>
+      </c>
+      <c r="G56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" t="s">
+        <v>367</v>
+      </c>
+      <c r="E57" t="str">
+        <f>CONCATENATE(A57,"Predicate",A57,":",A57,B57,A57,",")</f>
+        <v>"Predicate":"black",</v>
+      </c>
+      <c r="F57" t="str">
+        <f>CONCATENATE(A57,"Class",A57,":",A57,C57,A57)</f>
+        <v>"Class":"color"</v>
+      </c>
+      <c r="G57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
+        <v>367</v>
+      </c>
+      <c r="E58" t="str">
+        <f>CONCATENATE(A58,"Predicate",A58,":",A58,B58,A58,",")</f>
+        <v>"Predicate":"blonde",</v>
+      </c>
+      <c r="F58" t="str">
+        <f>CONCATENATE(A58,"Class",A58,":",A58,C58,A58)</f>
+        <v>"Class":"color"</v>
+      </c>
+      <c r="G58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>366</v>
+      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" t="s">
+        <v>367</v>
+      </c>
+      <c r="E59" t="str">
+        <f>CONCATENATE(A59,"Predicate",A59,":",A59,B59,A59,",")</f>
+        <v>"Predicate":"blue",</v>
+      </c>
+      <c r="F59" t="str">
+        <f>CONCATENATE(A59,"Class",A59,":",A59,C59,A59)</f>
+        <v>"Class":"color"</v>
+      </c>
+      <c r="G59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>366</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
+        <v>367</v>
+      </c>
+      <c r="E60" t="str">
+        <f>CONCATENATE(A60,"Predicate",A60,":",A60,B60,A60,",")</f>
+        <v>"Predicate":"green",</v>
+      </c>
+      <c r="F60" t="str">
+        <f>CONCATENATE(A60,"Class",A60,":",A60,C60,A60)</f>
+        <v>"Class":"color"</v>
+      </c>
+      <c r="G60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" t="s">
+        <v>367</v>
+      </c>
+      <c r="E61" t="str">
+        <f>CONCATENATE(A61,"Predicate",A61,":",A61,B61,A61,",")</f>
+        <v>"Predicate":"purple",</v>
+      </c>
+      <c r="F61" t="str">
+        <f>CONCATENATE(A61,"Class",A61,":",A61,C61,A61)</f>
+        <v>"Class":"color"</v>
+      </c>
+      <c r="G61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" t="s">
+        <v>367</v>
+      </c>
+      <c r="E62" t="str">
+        <f>CONCATENATE(A62,"Predicate",A62,":",A62,B62,A62,",")</f>
+        <v>"Predicate":"red",</v>
+      </c>
+      <c r="F62" t="str">
+        <f>CONCATENATE(A62,"Class",A62,":",A62,C62,A62)</f>
+        <v>"Class":"color"</v>
+      </c>
+      <c r="G62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" t="s">
+        <v>367</v>
+      </c>
+      <c r="E63" t="str">
+        <f>CONCATENATE(A63,"Predicate",A63,":",A63,B63,A63,",")</f>
+        <v>"Predicate":"white",</v>
+      </c>
+      <c r="F63" t="str">
+        <f>CONCATENATE(A63,"Class",A63,":",A63,C63,A63)</f>
+        <v>"Class":"color"</v>
+      </c>
+      <c r="G63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" t="s">
+        <v>367</v>
+      </c>
+      <c r="E64" t="str">
+        <f>CONCATENATE(A64,"Predicate",A64,":",A64,B64,A64,",")</f>
+        <v>"Predicate":"yellow",</v>
+      </c>
+      <c r="F64" t="str">
+        <f>CONCATENATE(A64,"Class",A64,":",A64,C64,A64)</f>
+        <v>"Class":"color"</v>
+      </c>
+      <c r="G64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D65" t="s">
+        <v>367</v>
+      </c>
+      <c r="E65" t="str">
+        <f>CONCATENATE(A65,"Predicate",A65,":",A65,B65,A65,",")</f>
+        <v>"Predicate":"closest",</v>
+      </c>
+      <c r="F65" t="str">
+        <f>CONCATENATE(A65,"Class",A65,":",A65,C65,A65)</f>
+        <v>"Class":"location"</v>
+      </c>
+      <c r="G65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" t="s">
+        <v>363</v>
+      </c>
+      <c r="D66" t="s">
+        <v>367</v>
+      </c>
+      <c r="E66" t="str">
+        <f>CONCATENATE(A66,"Predicate",A66,":",A66,B66,A66,",")</f>
+        <v>"Predicate":"internal",</v>
+      </c>
+      <c r="F66" t="str">
+        <f>CONCATENATE(A66,"Class",A66,":",A66,C66,A66)</f>
+        <v>"Class":"location"</v>
+      </c>
+      <c r="G66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>366</v>
+      </c>
+      <c r="B67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67" t="s">
+        <v>367</v>
+      </c>
+      <c r="E67" t="str">
+        <f>CONCATENATE(A67,"Predicate",A67,":",A67,B67,A67,",")</f>
+        <v>"Predicate":"overhead",</v>
+      </c>
+      <c r="F67" t="str">
+        <f>CONCATENATE(A67,"Class",A67,":",A67,C67,A67)</f>
+        <v>"Class":"location"</v>
+      </c>
+      <c r="G67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>366</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" t="str">
+        <f>CONCATENATE(A68,"Predicate",A68,":",A68,B68,A68,",")</f>
+        <v>"Predicate":"corduroy",</v>
+      </c>
+      <c r="F68" t="str">
+        <f>CONCATENATE(A68,"Class",A68,":",A68,C68,A68)</f>
+        <v>"Class":"material"</v>
+      </c>
+      <c r="G68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>367</v>
+      </c>
+      <c r="E69" t="str">
+        <f>CONCATENATE(A69,"Predicate",A69,":",A69,B69,A69,",")</f>
+        <v>"Predicate":"crocheted",</v>
+      </c>
+      <c r="F69" t="str">
+        <f>CONCATENATE(A69,"Class",A69,":",A69,C69,A69)</f>
+        <v>"Class":"material"</v>
+      </c>
+      <c r="G69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>367</v>
+      </c>
+      <c r="E70" t="str">
+        <f>CONCATENATE(A70,"Predicate",A70,":",A70,B70,A70,",")</f>
+        <v>"Predicate":"gold",</v>
+      </c>
+      <c r="F70" t="str">
+        <f>CONCATENATE(A70,"Class",A70,":",A70,C70,A70)</f>
+        <v>"Class":"material"</v>
+      </c>
+      <c r="G70" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>366</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>367</v>
+      </c>
+      <c r="E71" t="str">
+        <f>CONCATENATE(A71,"Predicate",A71,":",A71,B71,A71,",")</f>
+        <v>"Predicate":"wooden",</v>
+      </c>
+      <c r="F71" t="str">
+        <f>CONCATENATE(A71,"Class",A71,":",A71,C71,A71)</f>
+        <v>"Class":"material"</v>
+      </c>
+      <c r="G71" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>367</v>
+      </c>
+      <c r="E72" t="str">
+        <f>CONCATENATE(A72,"Predicate",A72,":",A72,B72,A72,",")</f>
+        <v>"Predicate":"circular",</v>
+      </c>
+      <c r="F72" t="str">
+        <f>CONCATENATE(A72,"Class",A72,":",A72,C72,A72)</f>
+        <v>"Class":"shape"</v>
+      </c>
+      <c r="G72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>366</v>
+      </c>
+      <c r="B73" t="s">
+        <v>537</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>367</v>
+      </c>
+      <c r="E73" t="str">
+        <f>CONCATENATE(A73,"Predicate",A73,":",A73,B73,A73,",")</f>
+        <v>"Predicate":"square",</v>
+      </c>
+      <c r="F73" t="str">
+        <f>CONCATENATE(A73,"Class",A73,":",A73,C73,A73)</f>
+        <v>"Class":"shape"</v>
+      </c>
+      <c r="G73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" t="str">
+        <f>CONCATENATE(A74,"Predicate",A74,":",A74,B74,A74,",")</f>
+        <v>"Predicate":"fast",</v>
+      </c>
+      <c r="F74" t="str">
+        <f>CONCATENATE(A74,"Class",A74,":",A74,C74,A74)</f>
+        <v>"Class":"speed"</v>
+      </c>
+      <c r="G74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" t="str">
+        <f>CONCATENATE(A75,"Predicate",A75,":",A75,B75,A75,",")</f>
+        <v>"Predicate":"slow",</v>
+      </c>
+      <c r="F75" t="str">
+        <f>CONCATENATE(A75,"Class",A75,":",A75,C75,A75)</f>
+        <v>"Class":"speed"</v>
+      </c>
+      <c r="G75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>366</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>367</v>
+      </c>
+      <c r="E76" t="str">
+        <f>CONCATENATE(A76,"Predicate",A76,":",A76,B76,A76,",")</f>
+        <v>"Predicate":"speedy",</v>
+      </c>
+      <c r="F76" t="str">
+        <f>CONCATENATE(A76,"Class",A76,":",A76,C76,A76)</f>
+        <v>"Class":"speed"</v>
+      </c>
+      <c r="G76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>366</v>
+      </c>
+      <c r="B77" t="s">
+        <v>335</v>
+      </c>
+      <c r="C77" t="s">
+        <v>362</v>
+      </c>
+      <c r="D77" t="s">
+        <v>367</v>
+      </c>
+      <c r="E77" t="str">
+        <f>CONCATENATE(A77,"Predicate",A77,":",A77,B77,A77,",")</f>
+        <v>"Predicate":"current",</v>
+      </c>
+      <c r="F77" t="str">
+        <f>CONCATENATE(A77,"Class",A77,":",A77,C77,A77)</f>
+        <v>"Class":"temporal"</v>
+      </c>
+      <c r="G77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" t="s">
+        <v>340</v>
+      </c>
+      <c r="C78" t="s">
+        <v>362</v>
+      </c>
+      <c r="D78" t="s">
+        <v>367</v>
+      </c>
+      <c r="E78" t="str">
+        <f>CONCATENATE(A78,"Predicate",A78,":",A78,B78,A78,",")</f>
+        <v>"Predicate":"daily",</v>
+      </c>
+      <c r="F78" t="str">
+        <f>CONCATENATE(A78,"Class",A78,":",A78,C78,A78)</f>
+        <v>"Class":"temporal"</v>
+      </c>
+      <c r="G78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>366</v>
+      </c>
+      <c r="B79" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" t="s">
+        <v>362</v>
+      </c>
+      <c r="D79" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79" t="str">
+        <f>CONCATENATE(A79,"Predicate",A79,":",A79,B79,A79,",")</f>
+        <v>"Predicate":"everyday",</v>
+      </c>
+      <c r="F79" t="str">
+        <f>CONCATENATE(A79,"Class",A79,":",A79,C79,A79)</f>
+        <v>"Class":"temporal"</v>
+      </c>
+      <c r="G79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>366</v>
+      </c>
+      <c r="B80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" t="s">
+        <v>362</v>
+      </c>
+      <c r="D80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E80" t="str">
+        <f>CONCATENATE(A80,"Predicate",A80,":",A80,B80,A80,",")</f>
+        <v>"Predicate":"historical",</v>
+      </c>
+      <c r="F80" t="str">
+        <f>CONCATENATE(A80,"Class",A80,":",A80,C80,A80)</f>
+        <v>"Class":"temporal"</v>
+      </c>
+      <c r="G80" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/corpus_results/data/swbd_adjectives.combined.xlsx
+++ b/corpus_results/data/swbd_adjectives.combined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="0" windowWidth="25020" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="14360" yWindow="0" windowWidth="39140" windowHeight="27840" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="swbd_adjectives.combined.csv" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="542">
   <si>
     <t>header</t>
   </si>
@@ -1636,6 +1636,18 @@
   </si>
   <si>
     <t>square</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>space</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10381,11 +10393,11 @@
         <v>367</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE(A3,"Predicate",A3,":",A3,B3,A3,",")</f>
+        <f t="shared" ref="E3:E34" si="0">CONCATENATE(A3,"Predicate",A3,":",A3,B3,A3,",")</f>
         <v>"Predicate":"old",</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE(A3,"Class",A3,":",A3,C3,A3)</f>
+        <f t="shared" ref="F3:F34" si="1">CONCATENATE(A3,"Class",A3,":",A3,C3,A3)</f>
         <v>"Class":"age"</v>
       </c>
       <c r="G3" t="s">
@@ -10410,11 +10422,11 @@
         <v>367</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE(A4,"Predicate",A4,":",A4,B4,A4,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"new",</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(A4,"Class",A4,":",A4,C4,A4)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G4" t="s">
@@ -10435,11 +10447,11 @@
         <v>367</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE(A5,"Predicate",A5,":",A5,B5,A5,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"junior",</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE(A5,"Class",A5,":",A5,C5,A5)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G5" t="s">
@@ -10460,11 +10472,11 @@
         <v>367</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE(A6,"Predicate",A6,":",A6,B6,A6,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"young",</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE(A6,"Class",A6,":",A6,C6,A6)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G6" t="s">
@@ -10485,11 +10497,11 @@
         <v>367</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE(A7,"Predicate",A7,":",A7,B7,A7,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"senior",</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE(A7,"Class",A7,":",A7,C7,A7)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G7" t="s">
@@ -10510,11 +10522,11 @@
         <v>367</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE(A8,"Predicate",A8,":",A8,B8,A8,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"old-time",</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE(A8,"Class",A8,":",A8,C8,A8)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G8" t="s">
@@ -10535,11 +10547,11 @@
         <v>367</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE(A9,"Predicate",A9,":",A9,B9,A9,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"blue",</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE(A9,"Class",A9,":",A9,C9,A9)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G9" t="s">
@@ -10564,11 +10576,11 @@
         <v>367</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE(A10,"Predicate",A10,":",A10,B10,A10,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"white",</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE(A10,"Class",A10,":",A10,C10,A10)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G10" t="s">
@@ -10589,11 +10601,11 @@
         <v>367</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE(A11,"Predicate",A11,":",A11,B11,A11,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"red",</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE(A11,"Class",A11,":",A11,C11,A11)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G11" t="s">
@@ -10614,11 +10626,11 @@
         <v>367</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE(A12,"Predicate",A12,":",A12,B12,A12,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"blonde",</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE(A12,"Class",A12,":",A12,C12,A12)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G12" t="s">
@@ -10639,11 +10651,11 @@
         <v>367</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE(A13,"Predicate",A13,":",A13,B13,A13,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"black",</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE(A13,"Class",A13,":",A13,C13,A13)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G13" t="s">
@@ -10664,11 +10676,11 @@
         <v>367</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE(A14,"Predicate",A14,":",A14,B14,A14,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"purple",</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE(A14,"Class",A14,":",A14,C14,A14)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G14" t="s">
@@ -10689,11 +10701,11 @@
         <v>367</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE(A15,"Predicate",A15,":",A15,B15,A15,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"green",</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE(A15,"Class",A15,":",A15,C15,A15)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G15" t="s">
@@ -10714,11 +10726,11 @@
         <v>367</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE(A16,"Predicate",A16,":",A16,B16,A16,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"yellow",</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE(A16,"Class",A16,":",A16,C16,A16)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G16" t="s">
@@ -10739,11 +10751,11 @@
         <v>367</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE(A17,"Predicate",A17,":",A17,B17,A17,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"full",</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE(A17,"Class",A17,":",A17,C17,A17)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G17" t="s">
@@ -10768,11 +10780,11 @@
         <v>367</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE(A18,"Predicate",A18,":",A18,B18,A18,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"lengthy",</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE(A18,"Class",A18,":",A18,C18,A18)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G18" t="s">
@@ -10793,11 +10805,11 @@
         <v>367</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE(A19,"Predicate",A19,":",A19,B19,A19,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"short",</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE(A19,"Class",A19,":",A19,C19,A19)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G19" t="s">
@@ -10818,11 +10830,11 @@
         <v>367</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE(A20,"Predicate",A20,":",A20,B20,A20,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"little",</v>
       </c>
       <c r="F20" t="str">
-        <f>CONCATENATE(A20,"Class",A20,":",A20,C20,A20)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G20" t="s">
@@ -10843,11 +10855,11 @@
         <v>367</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE(A21,"Predicate",A21,":",A21,B21,A21,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"big",</v>
       </c>
       <c r="F21" t="str">
-        <f>CONCATENATE(A21,"Class",A21,":",A21,C21,A21)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G21" t="s">
@@ -10868,11 +10880,11 @@
         <v>367</v>
       </c>
       <c r="E22" t="str">
-        <f>CONCATENATE(A22,"Predicate",A22,":",A22,B22,A22,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"long",</v>
       </c>
       <c r="F22" t="str">
-        <f>CONCATENATE(A22,"Class",A22,":",A22,C22,A22)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G22" t="s">
@@ -10893,11 +10905,11 @@
         <v>367</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE(A23,"Predicate",A23,":",A23,B23,A23,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"fat",</v>
       </c>
       <c r="F23" t="str">
-        <f>CONCATENATE(A23,"Class",A23,":",A23,C23,A23)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G23" t="s">
@@ -10918,11 +10930,11 @@
         <v>367</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE(A24,"Predicate",A24,":",A24,B24,A24,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"high",</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE(A24,"Class",A24,":",A24,C24,A24)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G24" t="s">
@@ -10943,11 +10955,11 @@
         <v>367</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE(A25,"Predicate",A25,":",A25,B25,A25,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"skinny",</v>
       </c>
       <c r="F25" t="str">
-        <f>CONCATENATE(A25,"Class",A25,":",A25,C25,A25)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G25" t="s">
@@ -10968,11 +10980,11 @@
         <v>367</v>
       </c>
       <c r="E26" t="str">
-        <f>CONCATENATE(A26,"Predicate",A26,":",A26,B26,A26,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"tall",</v>
       </c>
       <c r="F26" t="str">
-        <f>CONCATENATE(A26,"Class",A26,":",A26,C26,A26)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G26" t="s">
@@ -10993,11 +11005,11 @@
         <v>367</v>
       </c>
       <c r="E27" t="str">
-        <f>CONCATENATE(A27,"Predicate",A27,":",A27,B27,A27,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"small",</v>
       </c>
       <c r="F27" t="str">
-        <f>CONCATENATE(A27,"Class",A27,":",A27,C27,A27)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G27" t="s">
@@ -11018,11 +11030,11 @@
         <v>367</v>
       </c>
       <c r="E28" t="str">
-        <f>CONCATENATE(A28,"Predicate",A28,":",A28,B28,A28,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"large",</v>
       </c>
       <c r="F28" t="str">
-        <f>CONCATENATE(A28,"Class",A28,":",A28,C28,A28)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G28" t="s">
@@ -11043,11 +11055,11 @@
         <v>367</v>
       </c>
       <c r="E29" t="str">
-        <f>CONCATENATE(A29,"Predicate",A29,":",A29,B29,A29,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"tiny",</v>
       </c>
       <c r="F29" t="str">
-        <f>CONCATENATE(A29,"Class",A29,":",A29,C29,A29)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G29" t="s">
@@ -11068,11 +11080,11 @@
         <v>367</v>
       </c>
       <c r="E30" t="str">
-        <f>CONCATENATE(A30,"Predicate",A30,":",A30,B30,A30,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"wide",</v>
       </c>
       <c r="F30" t="str">
-        <f>CONCATENATE(A30,"Class",A30,":",A30,C30,A30)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G30" t="s">
@@ -11093,11 +11105,11 @@
         <v>367</v>
       </c>
       <c r="E31" t="str">
-        <f>CONCATENATE(A31,"Predicate",A31,":",A31,B31,A31,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"mini",</v>
       </c>
       <c r="F31" t="str">
-        <f>CONCATENATE(A31,"Class",A31,":",A31,C31,A31)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G31" t="s">
@@ -11118,11 +11130,11 @@
         <v>367</v>
       </c>
       <c r="E32" t="str">
-        <f>CONCATENATE(A32,"Predicate",A32,":",A32,B32,A32,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"flat",</v>
       </c>
       <c r="F32" t="str">
-        <f>CONCATENATE(A32,"Class",A32,":",A32,C32,A32)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G32" t="s">
@@ -11143,11 +11155,11 @@
         <v>367</v>
       </c>
       <c r="E33" t="str">
-        <f>CONCATENATE(A33,"Predicate",A33,":",A33,B33,A33,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"open",</v>
       </c>
       <c r="F33" t="str">
-        <f>CONCATENATE(A33,"Class",A33,":",A33,C33,A33)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G33" t="s">
@@ -11168,11 +11180,11 @@
         <v>367</v>
       </c>
       <c r="E34" t="str">
-        <f>CONCATENATE(A34,"Predicate",A34,":",A34,B34,A34,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"narrow",</v>
       </c>
       <c r="F34" t="str">
-        <f>CONCATENATE(A34,"Class",A34,":",A34,C34,A34)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G34" t="s">
@@ -11193,11 +11205,11 @@
         <v>367</v>
       </c>
       <c r="E35" t="str">
-        <f>CONCATENATE(A35,"Predicate",A35,":",A35,B35,A35,",")</f>
+        <f t="shared" ref="E35:E66" si="2">CONCATENATE(A35,"Predicate",A35,":",A35,B35,A35,",")</f>
         <v>"Predicate":"humongous",</v>
       </c>
       <c r="F35" t="str">
-        <f>CONCATENATE(A35,"Class",A35,":",A35,C35,A35)</f>
+        <f t="shared" ref="F35:F66" si="3">CONCATENATE(A35,"Class",A35,":",A35,C35,A35)</f>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G35" t="s">
@@ -11218,11 +11230,11 @@
         <v>367</v>
       </c>
       <c r="E36" t="str">
-        <f>CONCATENATE(A36,"Predicate",A36,":",A36,B36,A36,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"biggest",</v>
       </c>
       <c r="F36" t="str">
-        <f>CONCATENATE(A36,"Class",A36,":",A36,C36,A36)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G36" t="s">
@@ -11243,11 +11255,11 @@
         <v>367</v>
       </c>
       <c r="E37" t="str">
-        <f>CONCATENATE(A37,"Predicate",A37,":",A37,B37,A37,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"huge",</v>
       </c>
       <c r="F37" t="str">
-        <f>CONCATENATE(A37,"Class",A37,":",A37,C37,A37)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G37" t="s">
@@ -11268,11 +11280,11 @@
         <v>367</v>
       </c>
       <c r="E38" t="str">
-        <f>CONCATENATE(A38,"Predicate",A38,":",A38,B38,A38,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"thick",</v>
       </c>
       <c r="F38" t="str">
-        <f>CONCATENATE(A38,"Class",A38,":",A38,C38,A38)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G38" t="s">
@@ -11293,11 +11305,11 @@
         <v>367</v>
       </c>
       <c r="E39" t="str">
-        <f>CONCATENATE(A39,"Predicate",A39,":",A39,B39,A39,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"low",</v>
       </c>
       <c r="F39" t="str">
-        <f>CONCATENATE(A39,"Class",A39,":",A39,C39,A39)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G39" t="s">
@@ -11318,11 +11330,11 @@
         <v>367</v>
       </c>
       <c r="E40" t="str">
-        <f>CONCATENATE(A40,"Predicate",A40,":",A40,B40,A40,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"deep",</v>
       </c>
       <c r="F40" t="str">
-        <f>CONCATENATE(A40,"Class",A40,":",A40,C40,A40)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G40" t="s">
@@ -11343,11 +11355,11 @@
         <v>367</v>
       </c>
       <c r="E41" t="str">
-        <f>CONCATENATE(A41,"Predicate",A41,":",A41,B41,A41,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"tiniest",</v>
       </c>
       <c r="F41" t="str">
-        <f>CONCATENATE(A41,"Class",A41,":",A41,C41,A41)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G41" t="s">
@@ -11368,11 +11380,11 @@
         <v>367</v>
       </c>
       <c r="E42" t="str">
-        <f>CONCATENATE(A42,"Predicate",A42,":",A42,B42,A42,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"slight",</v>
       </c>
       <c r="F42" t="str">
-        <f>CONCATENATE(A42,"Class",A42,":",A42,C42,A42)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G42" t="s">
@@ -11393,11 +11405,11 @@
         <v>367</v>
       </c>
       <c r="E43" t="str">
-        <f>CONCATENATE(A43,"Predicate",A43,":",A43,B43,A43,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"thin",</v>
       </c>
       <c r="F43" t="str">
-        <f>CONCATENATE(A43,"Class",A43,":",A43,C43,A43)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G43" t="s">
@@ -11418,11 +11430,11 @@
         <v>367</v>
       </c>
       <c r="E44" t="str">
-        <f>CONCATENATE(A44,"Predicate",A44,":",A44,B44,A44,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"creative",</v>
       </c>
       <c r="F44" t="str">
-        <f>CONCATENATE(A44,"Class",A44,":",A44,C44,A44)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G44" t="s">
@@ -11447,11 +11459,11 @@
         <v>367</v>
       </c>
       <c r="E45" t="str">
-        <f>CONCATENATE(A45,"Predicate",A45,":",A45,B45,A45,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"elitist",</v>
       </c>
       <c r="F45" t="str">
-        <f>CONCATENATE(A45,"Class",A45,":",A45,C45,A45)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G45" t="s">
@@ -11472,11 +11484,11 @@
         <v>367</v>
       </c>
       <c r="E46" t="str">
-        <f>CONCATENATE(A46,"Predicate",A46,":",A46,B46,A46,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"strict",</v>
       </c>
       <c r="F46" t="str">
-        <f>CONCATENATE(A46,"Class",A46,":",A46,C46,A46)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G46" t="s">
@@ -11497,11 +11509,11 @@
         <v>367</v>
       </c>
       <c r="E47" t="str">
-        <f>CONCATENATE(A47,"Predicate",A47,":",A47,B47,A47,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"hopeless",</v>
       </c>
       <c r="F47" t="str">
-        <f>CONCATENATE(A47,"Class",A47,":",A47,C47,A47)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G47" t="s">
@@ -11522,11 +11534,11 @@
         <v>367</v>
       </c>
       <c r="E48" t="str">
-        <f>CONCATENATE(A48,"Predicate",A48,":",A48,B48,A48,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"crazy",</v>
       </c>
       <c r="F48" t="str">
-        <f>CONCATENATE(A48,"Class",A48,":",A48,C48,A48)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G48" t="s">
@@ -11547,11 +11559,11 @@
         <v>367</v>
       </c>
       <c r="E49" t="str">
-        <f>CONCATENATE(A49,"Predicate",A49,":",A49,B49,A49,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"social",</v>
       </c>
       <c r="F49" t="str">
-        <f>CONCATENATE(A49,"Class",A49,":",A49,C49,A49)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G49" t="s">
@@ -11572,11 +11584,11 @@
         <v>367</v>
       </c>
       <c r="E50" t="str">
-        <f>CONCATENATE(A50,"Predicate",A50,":",A50,B50,A50,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"experienced",</v>
       </c>
       <c r="F50" t="str">
-        <f>CONCATENATE(A50,"Class",A50,":",A50,C50,A50)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G50" t="s">
@@ -11597,11 +11609,11 @@
         <v>367</v>
       </c>
       <c r="E51" t="str">
-        <f>CONCATENATE(A51,"Predicate",A51,":",A51,B51,A51,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"selfish",</v>
       </c>
       <c r="F51" t="str">
-        <f>CONCATENATE(A51,"Class",A51,":",A51,C51,A51)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G51" t="s">
@@ -11622,11 +11634,11 @@
         <v>367</v>
       </c>
       <c r="E52" t="str">
-        <f>CONCATENATE(A52,"Predicate",A52,":",A52,B52,A52,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"happiest",</v>
       </c>
       <c r="F52" t="str">
-        <f>CONCATENATE(A52,"Class",A52,":",A52,C52,A52)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G52" t="s">
@@ -11647,11 +11659,11 @@
         <v>367</v>
       </c>
       <c r="E53" t="str">
-        <f>CONCATENATE(A53,"Predicate",A53,":",A53,B53,A53,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"professional",</v>
       </c>
       <c r="F53" t="str">
-        <f>CONCATENATE(A53,"Class",A53,":",A53,C53,A53)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G53" t="s">
@@ -11672,11 +11684,11 @@
         <v>367</v>
       </c>
       <c r="E54" t="str">
-        <f>CONCATENATE(A54,"Predicate",A54,":",A54,B54,A54,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"funny",</v>
       </c>
       <c r="F54" t="str">
-        <f>CONCATENATE(A54,"Class",A54,":",A54,C54,A54)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G54" t="s">
@@ -11697,11 +11709,11 @@
         <v>367</v>
       </c>
       <c r="E55" t="str">
-        <f>CONCATENATE(A55,"Predicate",A55,":",A55,B55,A55,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"intellectual",</v>
       </c>
       <c r="F55" t="str">
-        <f>CONCATENATE(A55,"Class",A55,":",A55,C55,A55)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G55" t="s">
@@ -11722,11 +11734,11 @@
         <v>367</v>
       </c>
       <c r="E56" t="str">
-        <f>CONCATENATE(A56,"Predicate",A56,":",A56,B56,A56,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"entrepreneurial",</v>
       </c>
       <c r="F56" t="str">
-        <f>CONCATENATE(A56,"Class",A56,":",A56,C56,A56)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G56" t="s">
@@ -11747,11 +11759,11 @@
         <v>367</v>
       </c>
       <c r="E57" t="str">
-        <f>CONCATENATE(A57,"Predicate",A57,":",A57,B57,A57,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"mad",</v>
       </c>
       <c r="F57" t="str">
-        <f>CONCATENATE(A57,"Class",A57,":",A57,C57,A57)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G57" t="s">
@@ -11772,11 +11784,11 @@
         <v>367</v>
       </c>
       <c r="E58" t="str">
-        <f>CONCATENATE(A58,"Predicate",A58,":",A58,B58,A58,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"civilized",</v>
       </c>
       <c r="F58" t="str">
-        <f>CONCATENATE(A58,"Class",A58,":",A58,C58,A58)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G58" t="s">
@@ -11797,11 +11809,11 @@
         <v>367</v>
       </c>
       <c r="E59" t="str">
-        <f>CONCATENATE(A59,"Predicate",A59,":",A59,B59,A59,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"sad",</v>
       </c>
       <c r="F59" t="str">
-        <f>CONCATENATE(A59,"Class",A59,":",A59,C59,A59)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G59" t="s">
@@ -11822,11 +11834,11 @@
         <v>367</v>
       </c>
       <c r="E60" t="str">
-        <f>CONCATENATE(A60,"Predicate",A60,":",A60,B60,A60,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"playful",</v>
       </c>
       <c r="F60" t="str">
-        <f>CONCATENATE(A60,"Class",A60,":",A60,C60,A60)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G60" t="s">
@@ -11847,11 +11859,11 @@
         <v>367</v>
       </c>
       <c r="E61" t="str">
-        <f>CONCATENATE(A61,"Predicate",A61,":",A61,B61,A61,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"cheerful",</v>
       </c>
       <c r="F61" t="str">
-        <f>CONCATENATE(A61,"Class",A61,":",A61,C61,A61)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G61" t="s">
@@ -11872,11 +11884,11 @@
         <v>367</v>
       </c>
       <c r="E62" t="str">
-        <f>CONCATENATE(A62,"Predicate",A62,":",A62,B62,A62,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"overhead",</v>
       </c>
       <c r="F62" t="str">
-        <f>CONCATENATE(A62,"Class",A62,":",A62,C62,A62)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"location"</v>
       </c>
       <c r="G62" t="s">
@@ -11901,11 +11913,11 @@
         <v>367</v>
       </c>
       <c r="E63" t="str">
-        <f>CONCATENATE(A63,"Predicate",A63,":",A63,B63,A63,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"internal",</v>
       </c>
       <c r="F63" t="str">
-        <f>CONCATENATE(A63,"Class",A63,":",A63,C63,A63)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"location"</v>
       </c>
       <c r="G63" t="s">
@@ -11926,11 +11938,11 @@
         <v>367</v>
       </c>
       <c r="E64" t="str">
-        <f>CONCATENATE(A64,"Predicate",A64,":",A64,B64,A64,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"closest",</v>
       </c>
       <c r="F64" t="str">
-        <f>CONCATENATE(A64,"Class",A64,":",A64,C64,A64)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"location"</v>
       </c>
       <c r="G64" t="s">
@@ -11951,11 +11963,11 @@
         <v>367</v>
       </c>
       <c r="E65" t="str">
-        <f>CONCATENATE(A65,"Predicate",A65,":",A65,B65,A65,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"corduroy",</v>
       </c>
       <c r="F65" t="str">
-        <f>CONCATENATE(A65,"Class",A65,":",A65,C65,A65)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"material"</v>
       </c>
       <c r="G65" t="s">
@@ -11980,11 +11992,11 @@
         <v>367</v>
       </c>
       <c r="E66" t="str">
-        <f>CONCATENATE(A66,"Predicate",A66,":",A66,B66,A66,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"wooden",</v>
       </c>
       <c r="F66" t="str">
-        <f>CONCATENATE(A66,"Class",A66,":",A66,C66,A66)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"material"</v>
       </c>
       <c r="G66" t="s">
@@ -12005,11 +12017,11 @@
         <v>367</v>
       </c>
       <c r="E67" t="str">
-        <f>CONCATENATE(A67,"Predicate",A67,":",A67,B67,A67,",")</f>
+        <f t="shared" ref="E67:E98" si="4">CONCATENATE(A67,"Predicate",A67,":",A67,B67,A67,",")</f>
         <v>"Predicate":"gold",</v>
       </c>
       <c r="F67" t="str">
-        <f>CONCATENATE(A67,"Class",A67,":",A67,C67,A67)</f>
+        <f t="shared" ref="F67:F98" si="5">CONCATENATE(A67,"Class",A67,":",A67,C67,A67)</f>
         <v>"Class":"material"</v>
       </c>
       <c r="G67" t="s">
@@ -12030,11 +12042,11 @@
         <v>367</v>
       </c>
       <c r="E68" t="str">
-        <f>CONCATENATE(A68,"Predicate",A68,":",A68,B68,A68,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"crocheted",</v>
       </c>
       <c r="F68" t="str">
-        <f>CONCATENATE(A68,"Class",A68,":",A68,C68,A68)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"material"</v>
       </c>
       <c r="G68" t="s">
@@ -12055,11 +12067,11 @@
         <v>367</v>
       </c>
       <c r="E69" t="str">
-        <f>CONCATENATE(A69,"Predicate",A69,":",A69,B69,A69,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"brazilian",</v>
       </c>
       <c r="F69" t="str">
-        <f>CONCATENATE(A69,"Class",A69,":",A69,C69,A69)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G69" t="s">
@@ -12084,11 +12096,11 @@
         <v>367</v>
       </c>
       <c r="E70" t="str">
-        <f>CONCATENATE(A70,"Predicate",A70,":",A70,B70,A70,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"foreign",</v>
       </c>
       <c r="F70" t="str">
-        <f>CONCATENATE(A70,"Class",A70,":",A70,C70,A70)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G70" t="s">
@@ -12109,11 +12121,11 @@
         <v>367</v>
       </c>
       <c r="E71" t="str">
-        <f>CONCATENATE(A71,"Predicate",A71,":",A71,B71,A71,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"texan",</v>
       </c>
       <c r="F71" t="str">
-        <f>CONCATENATE(A71,"Class",A71,":",A71,C71,A71)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G71" t="s">
@@ -12134,11 +12146,11 @@
         <v>367</v>
       </c>
       <c r="E72" t="str">
-        <f>CONCATENATE(A72,"Predicate",A72,":",A72,B72,A72,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"american",</v>
       </c>
       <c r="F72" t="str">
-        <f>CONCATENATE(A72,"Class",A72,":",A72,C72,A72)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G72" t="s">
@@ -12159,11 +12171,11 @@
         <v>367</v>
       </c>
       <c r="E73" t="str">
-        <f>CONCATENATE(A73,"Predicate",A73,":",A73,B73,A73,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"hispanic",</v>
       </c>
       <c r="F73" t="str">
-        <f>CONCATENATE(A73,"Class",A73,":",A73,C73,A73)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G73" t="s">
@@ -12184,11 +12196,11 @@
         <v>367</v>
       </c>
       <c r="E74" t="str">
-        <f>CONCATENATE(A74,"Predicate",A74,":",A74,B74,A74,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"argentine",</v>
       </c>
       <c r="F74" t="str">
-        <f>CONCATENATE(A74,"Class",A74,":",A74,C74,A74)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G74" t="s">
@@ -12209,11 +12221,11 @@
         <v>367</v>
       </c>
       <c r="E75" t="str">
-        <f>CONCATENATE(A75,"Predicate",A75,":",A75,B75,A75,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"chinese",</v>
       </c>
       <c r="F75" t="str">
-        <f>CONCATENATE(A75,"Class",A75,":",A75,C75,A75)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G75" t="s">
@@ -12234,11 +12246,11 @@
         <v>367</v>
       </c>
       <c r="E76" t="str">
-        <f>CONCATENATE(A76,"Predicate",A76,":",A76,B76,A76,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"victorian",</v>
       </c>
       <c r="F76" t="str">
-        <f>CONCATENATE(A76,"Class",A76,":",A76,C76,A76)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G76" t="s">
@@ -12259,11 +12271,11 @@
         <v>367</v>
       </c>
       <c r="E77" t="str">
-        <f>CONCATENATE(A77,"Predicate",A77,":",A77,B77,A77,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"english",</v>
       </c>
       <c r="F77" t="str">
-        <f>CONCATENATE(A77,"Class",A77,":",A77,C77,A77)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G77" t="s">
@@ -12284,11 +12296,11 @@
         <v>367</v>
       </c>
       <c r="E78" t="str">
-        <f>CONCATENATE(A78,"Predicate",A78,":",A78,B78,A78,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"french",</v>
       </c>
       <c r="F78" t="str">
-        <f>CONCATENATE(A78,"Class",A78,":",A78,C78,A78)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G78" t="s">
@@ -12309,11 +12321,11 @@
         <v>367</v>
       </c>
       <c r="E79" t="str">
-        <f>CONCATENATE(A79,"Predicate",A79,":",A79,B79,A79,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"mexican",</v>
       </c>
       <c r="F79" t="str">
-        <f>CONCATENATE(A79,"Class",A79,":",A79,C79,A79)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G79" t="s">
@@ -12334,11 +12346,11 @@
         <v>367</v>
       </c>
       <c r="E80" t="str">
-        <f>CONCATENATE(A80,"Predicate",A80,":",A80,B80,A80,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"italian",</v>
       </c>
       <c r="F80" t="str">
-        <f>CONCATENATE(A80,"Class",A80,":",A80,C80,A80)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G80" t="s">
@@ -12359,11 +12371,11 @@
         <v>367</v>
       </c>
       <c r="E81" t="str">
-        <f>CONCATENATE(A81,"Predicate",A81,":",A81,B81,A81,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"vietnamese",</v>
       </c>
       <c r="F81" t="str">
-        <f>CONCATENATE(A81,"Class",A81,":",A81,C81,A81)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G81" t="s">
@@ -12384,11 +12396,11 @@
         <v>367</v>
       </c>
       <c r="E82" t="str">
-        <f>CONCATENATE(A82,"Predicate",A82,":",A82,B82,A82,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"international",</v>
       </c>
       <c r="F82" t="str">
-        <f>CONCATENATE(A82,"Class",A82,":",A82,C82,A82)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G82" t="s">
@@ -12409,11 +12421,11 @@
         <v>367</v>
       </c>
       <c r="E83" t="str">
-        <f>CONCATENATE(A83,"Predicate",A83,":",A83,B83,A83,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"national",</v>
       </c>
       <c r="F83" t="str">
-        <f>CONCATENATE(A83,"Class",A83,":",A83,C83,A83)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G83" t="s">
@@ -12434,11 +12446,11 @@
         <v>367</v>
       </c>
       <c r="E84" t="str">
-        <f>CONCATENATE(A84,"Predicate",A84,":",A84,B84,A84,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"japanese",</v>
       </c>
       <c r="F84" t="str">
-        <f>CONCATENATE(A84,"Class",A84,":",A84,C84,A84)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G84" t="s">
@@ -12459,11 +12471,11 @@
         <v>367</v>
       </c>
       <c r="E85" t="str">
-        <f>CONCATENATE(A85,"Predicate",A85,":",A85,B85,A85,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"european",</v>
       </c>
       <c r="F85" t="str">
-        <f>CONCATENATE(A85,"Class",A85,":",A85,C85,A85)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G85" t="s">
@@ -12484,11 +12496,11 @@
         <v>367</v>
       </c>
       <c r="E86" t="str">
-        <f>CONCATENATE(A86,"Predicate",A86,":",A86,B86,A86,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"native",</v>
       </c>
       <c r="F86" t="str">
-        <f>CONCATENATE(A86,"Class",A86,":",A86,C86,A86)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G86" t="s">
@@ -12509,11 +12521,11 @@
         <v>367</v>
       </c>
       <c r="E87" t="str">
-        <f>CONCATENATE(A87,"Predicate",A87,":",A87,B87,A87,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"latin",</v>
       </c>
       <c r="F87" t="str">
-        <f>CONCATENATE(A87,"Class",A87,":",A87,C87,A87)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G87" t="s">
@@ -12534,11 +12546,11 @@
         <v>367</v>
       </c>
       <c r="E88" t="str">
-        <f>CONCATENATE(A88,"Predicate",A88,":",A88,B88,A88,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"hard",</v>
       </c>
       <c r="F88" t="str">
-        <f>CONCATENATE(A88,"Class",A88,":",A88,C88,A88)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G88" t="s">
@@ -12563,11 +12575,11 @@
         <v>367</v>
       </c>
       <c r="E89" t="str">
-        <f>CONCATENATE(A89,"Predicate",A89,":",A89,B89,A89,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"clean",</v>
       </c>
       <c r="F89" t="str">
-        <f>CONCATENATE(A89,"Class",A89,":",A89,C89,A89)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G89" t="s">
@@ -12588,11 +12600,11 @@
         <v>367</v>
       </c>
       <c r="E90" t="str">
-        <f>CONCATENATE(A90,"Predicate",A90,":",A90,B90,A90,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"sweet",</v>
       </c>
       <c r="F90" t="str">
-        <f>CONCATENATE(A90,"Class",A90,":",A90,C90,A90)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G90" t="s">
@@ -12613,11 +12625,11 @@
         <v>367</v>
       </c>
       <c r="E91" t="str">
-        <f>CONCATENATE(A91,"Predicate",A91,":",A91,B91,A91,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"creamy",</v>
       </c>
       <c r="F91" t="str">
-        <f>CONCATENATE(A91,"Class",A91,":",A91,C91,A91)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G91" t="s">
@@ -12638,11 +12650,11 @@
         <v>367</v>
       </c>
       <c r="E92" t="str">
-        <f>CONCATENATE(A92,"Predicate",A92,":",A92,B92,A92,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"knobby",</v>
       </c>
       <c r="F92" t="str">
-        <f>CONCATENATE(A92,"Class",A92,":",A92,C92,A92)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G92" t="s">
@@ -12663,11 +12675,11 @@
         <v>367</v>
       </c>
       <c r="E93" t="str">
-        <f>CONCATENATE(A93,"Predicate",A93,":",A93,B93,A93,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"salty",</v>
       </c>
       <c r="F93" t="str">
-        <f>CONCATENATE(A93,"Class",A93,":",A93,C93,A93)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G93" t="s">
@@ -12688,11 +12700,11 @@
         <v>367</v>
       </c>
       <c r="E94" t="str">
-        <f>CONCATENATE(A94,"Predicate",A94,":",A94,B94,A94,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"wet",</v>
       </c>
       <c r="F94" t="str">
-        <f>CONCATENATE(A94,"Class",A94,":",A94,C94,A94)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G94" t="s">
@@ -12713,11 +12725,11 @@
         <v>367</v>
       </c>
       <c r="E95" t="str">
-        <f>CONCATENATE(A95,"Predicate",A95,":",A95,B95,A95,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"spiky",</v>
       </c>
       <c r="F95" t="str">
-        <f>CONCATENATE(A95,"Class",A95,":",A95,C95,A95)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G95" t="s">
@@ -12738,11 +12750,11 @@
         <v>367</v>
       </c>
       <c r="E96" t="str">
-        <f>CONCATENATE(A96,"Predicate",A96,":",A96,B96,A96,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"shiny",</v>
       </c>
       <c r="F96" t="str">
-        <f>CONCATENATE(A96,"Class",A96,":",A96,C96,A96)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G96" t="s">
@@ -12763,11 +12775,11 @@
         <v>367</v>
       </c>
       <c r="E97" t="str">
-        <f>CONCATENATE(A97,"Predicate",A97,":",A97,B97,A97,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"raspy",</v>
       </c>
       <c r="F97" t="str">
-        <f>CONCATENATE(A97,"Class",A97,":",A97,C97,A97)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G97" t="s">
@@ -12788,11 +12800,11 @@
         <v>367</v>
       </c>
       <c r="E98" t="str">
-        <f>CONCATENATE(A98,"Predicate",A98,":",A98,B98,A98,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"sunny",</v>
       </c>
       <c r="F98" t="str">
-        <f>CONCATENATE(A98,"Class",A98,":",A98,C98,A98)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G98" t="s">
@@ -12813,11 +12825,11 @@
         <v>367</v>
       </c>
       <c r="E99" t="str">
-        <f>CONCATENATE(A99,"Predicate",A99,":",A99,B99,A99,",")</f>
+        <f t="shared" ref="E99:E130" si="6">CONCATENATE(A99,"Predicate",A99,":",A99,B99,A99,",")</f>
         <v>"Predicate":"smooth",</v>
       </c>
       <c r="F99" t="str">
-        <f>CONCATENATE(A99,"Class",A99,":",A99,C99,A99)</f>
+        <f t="shared" ref="F99:F130" si="7">CONCATENATE(A99,"Class",A99,":",A99,C99,A99)</f>
         <v>"Class":"physical"</v>
       </c>
       <c r="G99" t="s">
@@ -12838,11 +12850,11 @@
         <v>367</v>
       </c>
       <c r="E100" t="str">
-        <f>CONCATENATE(A100,"Predicate",A100,":",A100,B100,A100,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"sour",</v>
       </c>
       <c r="F100" t="str">
-        <f>CONCATENATE(A100,"Class",A100,":",A100,C100,A100)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G100" t="s">
@@ -12863,11 +12875,11 @@
         <v>367</v>
       </c>
       <c r="E101" t="str">
-        <f>CONCATENATE(A101,"Predicate",A101,":",A101,B101,A101,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"blunt",</v>
       </c>
       <c r="F101" t="str">
-        <f>CONCATENATE(A101,"Class",A101,":",A101,C101,A101)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G101" t="s">
@@ -12888,11 +12900,11 @@
         <v>367</v>
       </c>
       <c r="E102" t="str">
-        <f>CONCATENATE(A102,"Predicate",A102,":",A102,B102,A102,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"solid",</v>
       </c>
       <c r="F102" t="str">
-        <f>CONCATENATE(A102,"Class",A102,":",A102,C102,A102)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G102" t="s">
@@ -12913,11 +12925,11 @@
         <v>367</v>
       </c>
       <c r="E103" t="str">
-        <f>CONCATENATE(A103,"Predicate",A103,":",A103,B103,A103,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"spicy",</v>
       </c>
       <c r="F103" t="str">
-        <f>CONCATENATE(A103,"Class",A103,":",A103,C103,A103)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G103" t="s">
@@ -12938,11 +12950,11 @@
         <v>367</v>
       </c>
       <c r="E104" t="str">
-        <f>CONCATENATE(A104,"Predicate",A104,":",A104,B104,A104,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"frozen",</v>
       </c>
       <c r="F104" t="str">
-        <f>CONCATENATE(A104,"Class",A104,":",A104,C104,A104)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G104" t="s">
@@ -12963,11 +12975,11 @@
         <v>367</v>
       </c>
       <c r="E105" t="str">
-        <f>CONCATENATE(A105,"Predicate",A105,":",A105,B105,A105,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"lacy",</v>
       </c>
       <c r="F105" t="str">
-        <f>CONCATENATE(A105,"Class",A105,":",A105,C105,A105)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G105" t="s">
@@ -12988,11 +13000,11 @@
         <v>367</v>
       </c>
       <c r="E106" t="str">
-        <f>CONCATENATE(A106,"Predicate",A106,":",A106,B106,A106,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"dried",</v>
       </c>
       <c r="F106" t="str">
-        <f>CONCATENATE(A106,"Class",A106,":",A106,C106,A106)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G106" t="s">
@@ -13013,11 +13025,11 @@
         <v>367</v>
       </c>
       <c r="E107" t="str">
-        <f>CONCATENATE(A107,"Predicate",A107,":",A107,B107,A107,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"dirty",</v>
       </c>
       <c r="F107" t="str">
-        <f>CONCATENATE(A107,"Class",A107,":",A107,C107,A107)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G107" t="s">
@@ -13038,11 +13050,11 @@
         <v>367</v>
       </c>
       <c r="E108" t="str">
-        <f>CONCATENATE(A108,"Predicate",A108,":",A108,B108,A108,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"humid",</v>
       </c>
       <c r="F108" t="str">
-        <f>CONCATENATE(A108,"Class",A108,":",A108,C108,A108)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G108" t="s">
@@ -13063,11 +13075,11 @@
         <v>367</v>
       </c>
       <c r="E109" t="str">
-        <f>CONCATENATE(A109,"Predicate",A109,":",A109,B109,A109,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"curly",</v>
       </c>
       <c r="F109" t="str">
-        <f>CONCATENATE(A109,"Class",A109,":",A109,C109,A109)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G109" t="s">
@@ -13088,11 +13100,11 @@
         <v>367</v>
       </c>
       <c r="E110" t="str">
-        <f>CONCATENATE(A110,"Predicate",A110,":",A110,B110,A110,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"dusty",</v>
       </c>
       <c r="F110" t="str">
-        <f>CONCATENATE(A110,"Class",A110,":",A110,C110,A110)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G110" t="s">
@@ -13113,11 +13125,11 @@
         <v>367</v>
       </c>
       <c r="E111" t="str">
-        <f>CONCATENATE(A111,"Predicate",A111,":",A111,B111,A111,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"quiet",</v>
       </c>
       <c r="F111" t="str">
-        <f>CONCATENATE(A111,"Class",A111,":",A111,C111,A111)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G111" t="s">
@@ -13138,11 +13150,11 @@
         <v>367</v>
       </c>
       <c r="E112" t="str">
-        <f>CONCATENATE(A112,"Predicate",A112,":",A112,B112,A112,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"circular",</v>
       </c>
       <c r="F112" t="str">
-        <f>CONCATENATE(A112,"Class",A112,":",A112,C112,A112)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"shape"</v>
       </c>
       <c r="G112" t="s">
@@ -13163,11 +13175,11 @@
         <v>367</v>
       </c>
       <c r="E113" t="str">
-        <f>CONCATENATE(A113,"Predicate",A113,":",A113,B113,A113,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"fast",</v>
       </c>
       <c r="F113" t="str">
-        <f>CONCATENATE(A113,"Class",A113,":",A113,C113,A113)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"speed"</v>
       </c>
       <c r="G113" t="s">
@@ -13188,11 +13200,11 @@
         <v>367</v>
       </c>
       <c r="E114" t="str">
-        <f>CONCATENATE(A114,"Predicate",A114,":",A114,B114,A114,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"speedy",</v>
       </c>
       <c r="F114" t="str">
-        <f>CONCATENATE(A114,"Class",A114,":",A114,C114,A114)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"speed"</v>
       </c>
       <c r="G114" t="s">
@@ -13213,11 +13225,11 @@
         <v>367</v>
       </c>
       <c r="E115" t="str">
-        <f>CONCATENATE(A115,"Predicate",A115,":",A115,B115,A115,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"slow",</v>
       </c>
       <c r="F115" t="str">
-        <f>CONCATENATE(A115,"Class",A115,":",A115,C115,A115)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"speed"</v>
       </c>
       <c r="G115" t="s">
@@ -13238,11 +13250,11 @@
         <v>367</v>
       </c>
       <c r="E116" t="str">
-        <f>CONCATENATE(A116,"Predicate",A116,":",A116,B116,A116,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"everyday",</v>
       </c>
       <c r="F116" t="str">
-        <f>CONCATENATE(A116,"Class",A116,":",A116,C116,A116)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"temporal"</v>
       </c>
       <c r="G116" t="s">
@@ -13263,11 +13275,11 @@
         <v>367</v>
       </c>
       <c r="E117" t="str">
-        <f>CONCATENATE(A117,"Predicate",A117,":",A117,B117,A117,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"historical",</v>
       </c>
       <c r="F117" t="str">
-        <f>CONCATENATE(A117,"Class",A117,":",A117,C117,A117)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"temporal"</v>
       </c>
       <c r="G117" t="s">
@@ -13288,11 +13300,11 @@
         <v>367</v>
       </c>
       <c r="E118" t="str">
-        <f>CONCATENATE(A118,"Predicate",A118,":",A118,B118,A118,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"current",</v>
       </c>
       <c r="F118" t="str">
-        <f>CONCATENATE(A118,"Class",A118,":",A118,C118,A118)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"temporal"</v>
       </c>
       <c r="G118" t="s">
@@ -13313,11 +13325,11 @@
         <v>367</v>
       </c>
       <c r="E119" t="str">
-        <f>CONCATENATE(A119,"Predicate",A119,":",A119,B119,A119,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"daily",</v>
       </c>
       <c r="F119" t="str">
-        <f>CONCATENATE(A119,"Class",A119,":",A119,C119,A119)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"temporal"</v>
       </c>
       <c r="G119" t="s">
@@ -13338,11 +13350,11 @@
         <v>367</v>
       </c>
       <c r="E120" t="str">
-        <f>CONCATENATE(A120,"Predicate",A120,":",A120,B120,A120,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"favorite",</v>
       </c>
       <c r="F120" t="str">
-        <f>CONCATENATE(A120,"Class",A120,":",A120,C120,A120)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G120" t="s">
@@ -13363,11 +13375,11 @@
         <v>367</v>
       </c>
       <c r="E121" t="str">
-        <f>CONCATENATE(A121,"Predicate",A121,":",A121,B121,A121,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"good",</v>
       </c>
       <c r="F121" t="str">
-        <f>CONCATENATE(A121,"Class",A121,":",A121,C121,A121)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G121" t="s">
@@ -13388,11 +13400,11 @@
         <v>367</v>
       </c>
       <c r="E122" t="str">
-        <f>CONCATENATE(A122,"Predicate",A122,":",A122,B122,A122,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"fun",</v>
       </c>
       <c r="F122" t="str">
-        <f>CONCATENATE(A122,"Class",A122,":",A122,C122,A122)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G122" t="s">
@@ -13413,11 +13425,11 @@
         <v>367</v>
       </c>
       <c r="E123" t="str">
-        <f>CONCATENATE(A123,"Predicate",A123,":",A123,B123,A123,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"prime",</v>
       </c>
       <c r="F123" t="str">
-        <f>CONCATENATE(A123,"Class",A123,":",A123,C123,A123)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G123" t="s">
@@ -13438,11 +13450,11 @@
         <v>367</v>
       </c>
       <c r="E124" t="str">
-        <f>CONCATENATE(A124,"Predicate",A124,":",A124,B124,A124,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"inappropriate",</v>
       </c>
       <c r="F124" t="str">
-        <f>CONCATENATE(A124,"Class",A124,":",A124,C124,A124)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G124" t="s">
@@ -13463,11 +13475,11 @@
         <v>367</v>
       </c>
       <c r="E125" t="str">
-        <f>CONCATENATE(A125,"Predicate",A125,":",A125,B125,A125,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"popular",</v>
       </c>
       <c r="F125" t="str">
-        <f>CONCATENATE(A125,"Class",A125,":",A125,C125,A125)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G125" t="s">
@@ -13488,11 +13500,11 @@
         <v>367</v>
       </c>
       <c r="E126" t="str">
-        <f>CONCATENATE(A126,"Predicate",A126,":",A126,B126,A126,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"prestigious",</v>
       </c>
       <c r="F126" t="str">
-        <f>CONCATENATE(A126,"Class",A126,":",A126,C126,A126)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G126" t="s">
@@ -13513,11 +13525,11 @@
         <v>367</v>
       </c>
       <c r="E127" t="str">
-        <f>CONCATENATE(A127,"Predicate",A127,":",A127,B127,A127,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"lavish",</v>
       </c>
       <c r="F127" t="str">
-        <f>CONCATENATE(A127,"Class",A127,":",A127,C127,A127)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G127" t="s">
@@ -13538,11 +13550,11 @@
         <v>367</v>
       </c>
       <c r="E128" t="str">
-        <f>CONCATENATE(A128,"Predicate",A128,":",A128,B128,A128,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"ugly",</v>
       </c>
       <c r="F128" t="str">
-        <f>CONCATENATE(A128,"Class",A128,":",A128,C128,A128)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G128" t="s">
@@ -13563,11 +13575,11 @@
         <v>367</v>
       </c>
       <c r="E129" t="str">
-        <f>CONCATENATE(A129,"Predicate",A129,":",A129,B129,A129,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"ideal",</v>
       </c>
       <c r="F129" t="str">
-        <f>CONCATENATE(A129,"Class",A129,":",A129,C129,A129)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G129" t="s">
@@ -13588,11 +13600,11 @@
         <v>367</v>
       </c>
       <c r="E130" t="str">
-        <f>CONCATENATE(A130,"Predicate",A130,":",A130,B130,A130,",")</f>
+        <f t="shared" si="6"/>
         <v>"Predicate":"detailed",</v>
       </c>
       <c r="F130" t="str">
-        <f>CONCATENATE(A130,"Class",A130,":",A130,C130,A130)</f>
+        <f t="shared" si="7"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G130" t="s">
@@ -13613,11 +13625,11 @@
         <v>367</v>
       </c>
       <c r="E131" t="str">
-        <f>CONCATENATE(A131,"Predicate",A131,":",A131,B131,A131,",")</f>
+        <f t="shared" ref="E131:E162" si="8">CONCATENATE(A131,"Predicate",A131,":",A131,B131,A131,",")</f>
         <v>"Predicate":"bad",</v>
       </c>
       <c r="F131" t="str">
-        <f>CONCATENATE(A131,"Class",A131,":",A131,C131,A131)</f>
+        <f t="shared" ref="F131:F162" si="9">CONCATENATE(A131,"Class",A131,":",A131,C131,A131)</f>
         <v>"Class":"value"</v>
       </c>
       <c r="G131" t="s">
@@ -13638,11 +13650,11 @@
         <v>367</v>
       </c>
       <c r="E132" t="str">
-        <f>CONCATENATE(A132,"Predicate",A132,":",A132,B132,A132,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"simple",</v>
       </c>
       <c r="F132" t="str">
-        <f>CONCATENATE(A132,"Class",A132,":",A132,C132,A132)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G132" t="s">
@@ -13663,11 +13675,11 @@
         <v>367</v>
       </c>
       <c r="E133" t="str">
-        <f>CONCATENATE(A133,"Predicate",A133,":",A133,B133,A133,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"negative",</v>
       </c>
       <c r="F133" t="str">
-        <f>CONCATENATE(A133,"Class",A133,":",A133,C133,A133)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G133" t="s">
@@ -13688,11 +13700,11 @@
         <v>367</v>
       </c>
       <c r="E134" t="str">
-        <f>CONCATENATE(A134,"Predicate",A134,":",A134,B134,A134,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"great",</v>
       </c>
       <c r="F134" t="str">
-        <f>CONCATENATE(A134,"Class",A134,":",A134,C134,A134)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G134" t="s">
@@ -13713,11 +13725,11 @@
         <v>367</v>
       </c>
       <c r="E135" t="str">
-        <f>CONCATENATE(A135,"Predicate",A135,":",A135,B135,A135,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"practical",</v>
       </c>
       <c r="F135" t="str">
-        <f>CONCATENATE(A135,"Class",A135,":",A135,C135,A135)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G135" t="s">
@@ -13738,11 +13750,11 @@
         <v>367</v>
       </c>
       <c r="E136" t="str">
-        <f>CONCATENATE(A136,"Predicate",A136,":",A136,B136,A136,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"special",</v>
       </c>
       <c r="F136" t="str">
-        <f>CONCATENATE(A136,"Class",A136,":",A136,C136,A136)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G136" t="s">
@@ -13763,11 +13775,11 @@
         <v>367</v>
       </c>
       <c r="E137" t="str">
-        <f>CONCATENATE(A137,"Predicate",A137,":",A137,B137,A137,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"normal",</v>
       </c>
       <c r="F137" t="str">
-        <f>CONCATENATE(A137,"Class",A137,":",A137,C137,A137)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G137" t="s">
@@ -13788,11 +13800,11 @@
         <v>367</v>
       </c>
       <c r="E138" t="str">
-        <f>CONCATENATE(A138,"Predicate",A138,":",A138,B138,A138,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"elaborate",</v>
       </c>
       <c r="F138" t="str">
-        <f>CONCATENATE(A138,"Class",A138,":",A138,C138,A138)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G138" t="s">
@@ -13813,11 +13825,11 @@
         <v>367</v>
       </c>
       <c r="E139" t="str">
-        <f>CONCATENATE(A139,"Predicate",A139,":",A139,B139,A139,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"fancy",</v>
       </c>
       <c r="F139" t="str">
-        <f>CONCATENATE(A139,"Class",A139,":",A139,C139,A139)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G139" t="s">
@@ -13838,11 +13850,11 @@
         <v>367</v>
       </c>
       <c r="E140" t="str">
-        <f>CONCATENATE(A140,"Predicate",A140,":",A140,B140,A140,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"genuine",</v>
       </c>
       <c r="F140" t="str">
-        <f>CONCATENATE(A140,"Class",A140,":",A140,C140,A140)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G140" t="s">
@@ -13863,11 +13875,11 @@
         <v>367</v>
       </c>
       <c r="E141" t="str">
-        <f>CONCATENATE(A141,"Predicate",A141,":",A141,B141,A141,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"exciting",</v>
       </c>
       <c r="F141" t="str">
-        <f>CONCATENATE(A141,"Class",A141,":",A141,C141,A141)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G141" t="s">
@@ -13888,11 +13900,11 @@
         <v>367</v>
       </c>
       <c r="E142" t="str">
-        <f>CONCATENATE(A142,"Predicate",A142,":",A142,B142,A142,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"important",</v>
       </c>
       <c r="F142" t="str">
-        <f>CONCATENATE(A142,"Class",A142,":",A142,C142,A142)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G142" t="s">
@@ -13913,11 +13925,11 @@
         <v>367</v>
       </c>
       <c r="E143" t="str">
-        <f>CONCATENATE(A143,"Predicate",A143,":",A143,B143,A143,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"pleasant",</v>
       </c>
       <c r="F143" t="str">
-        <f>CONCATENATE(A143,"Class",A143,":",A143,C143,A143)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G143" t="s">
@@ -13938,11 +13950,11 @@
         <v>367</v>
       </c>
       <c r="E144" t="str">
-        <f>CONCATENATE(A144,"Predicate",A144,":",A144,B144,A144,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"positive",</v>
       </c>
       <c r="F144" t="str">
-        <f>CONCATENATE(A144,"Class",A144,":",A144,C144,A144)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G144" t="s">
@@ -13963,11 +13975,11 @@
         <v>367</v>
       </c>
       <c r="E145" t="str">
-        <f>CONCATENATE(A145,"Predicate",A145,":",A145,B145,A145,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"safe",</v>
       </c>
       <c r="F145" t="str">
-        <f>CONCATENATE(A145,"Class",A145,":",A145,C145,A145)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G145" t="s">
@@ -13988,11 +14000,11 @@
         <v>367</v>
       </c>
       <c r="E146" t="str">
-        <f>CONCATENATE(A146,"Predicate",A146,":",A146,B146,A146,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"excellent",</v>
       </c>
       <c r="F146" t="str">
-        <f>CONCATENATE(A146,"Class",A146,":",A146,C146,A146)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G146" t="s">
@@ -14013,11 +14025,11 @@
         <v>367</v>
       </c>
       <c r="E147" t="str">
-        <f>CONCATENATE(A147,"Predicate",A147,":",A147,B147,A147,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"wonderful",</v>
       </c>
       <c r="F147" t="str">
-        <f>CONCATENATE(A147,"Class",A147,":",A147,C147,A147)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G147" t="s">
@@ -14038,11 +14050,11 @@
         <v>367</v>
       </c>
       <c r="E148" t="str">
-        <f>CONCATENATE(A148,"Predicate",A148,":",A148,B148,A148,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"reasonable",</v>
       </c>
       <c r="F148" t="str">
-        <f>CONCATENATE(A148,"Class",A148,":",A148,C148,A148)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G148" t="s">
@@ -14063,11 +14075,11 @@
         <v>367</v>
       </c>
       <c r="E149" t="str">
-        <f>CONCATENATE(A149,"Predicate",A149,":",A149,B149,A149,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"quaint",</v>
       </c>
       <c r="F149" t="str">
-        <f>CONCATENATE(A149,"Class",A149,":",A149,C149,A149)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G149" t="s">
@@ -14088,11 +14100,11 @@
         <v>367</v>
       </c>
       <c r="E150" t="str">
-        <f>CONCATENATE(A150,"Predicate",A150,":",A150,B150,A150,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"fantastic",</v>
       </c>
       <c r="F150" t="str">
-        <f>CONCATENATE(A150,"Class",A150,":",A150,C150,A150)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G150" t="s">
@@ -14113,11 +14125,11 @@
         <v>367</v>
       </c>
       <c r="E151" t="str">
-        <f>CONCATENATE(A151,"Predicate",A151,":",A151,B151,A151,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"easy",</v>
       </c>
       <c r="F151" t="str">
-        <f>CONCATENATE(A151,"Class",A151,":",A151,C151,A151)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G151" t="s">
@@ -14138,11 +14150,11 @@
         <v>367</v>
       </c>
       <c r="E152" t="str">
-        <f>CONCATENATE(A152,"Predicate",A152,":",A152,B152,A152,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"incredible",</v>
       </c>
       <c r="F152" t="str">
-        <f>CONCATENATE(A152,"Class",A152,":",A152,C152,A152)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G152" t="s">
@@ -14163,11 +14175,11 @@
         <v>367</v>
       </c>
       <c r="E153" t="str">
-        <f>CONCATENATE(A153,"Predicate",A153,":",A153,B153,A153,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"cute",</v>
       </c>
       <c r="F153" t="str">
-        <f>CONCATENATE(A153,"Class",A153,":",A153,C153,A153)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G153" t="s">
@@ -14188,11 +14200,11 @@
         <v>367</v>
       </c>
       <c r="E154" t="str">
-        <f>CONCATENATE(A154,"Predicate",A154,":",A154,B154,A154,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"effortless",</v>
       </c>
       <c r="F154" t="str">
-        <f>CONCATENATE(A154,"Class",A154,":",A154,C154,A154)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G154" t="s">
@@ -14213,11 +14225,11 @@
         <v>367</v>
       </c>
       <c r="E155" t="str">
-        <f>CONCATENATE(A155,"Predicate",A155,":",A155,B155,A155,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"convenient",</v>
       </c>
       <c r="F155" t="str">
-        <f>CONCATENATE(A155,"Class",A155,":",A155,C155,A155)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G155" t="s">
@@ -14238,11 +14250,11 @@
         <v>367</v>
       </c>
       <c r="E156" t="str">
-        <f>CONCATENATE(A156,"Predicate",A156,":",A156,B156,A156,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"strange",</v>
       </c>
       <c r="F156" t="str">
-        <f>CONCATENATE(A156,"Class",A156,":",A156,C156,A156)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G156" t="s">
@@ -14263,11 +14275,11 @@
         <v>367</v>
       </c>
       <c r="E157" t="str">
-        <f>CONCATENATE(A157,"Predicate",A157,":",A157,B157,A157,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"lovely",</v>
       </c>
       <c r="F157" t="str">
-        <f>CONCATENATE(A157,"Class",A157,":",A157,C157,A157)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G157" t="s">
@@ -14288,11 +14300,11 @@
         <v>367</v>
       </c>
       <c r="E158" t="str">
-        <f>CONCATENATE(A158,"Predicate",A158,":",A158,B158,A158,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"sophisticated",</v>
       </c>
       <c r="F158" t="str">
-        <f>CONCATENATE(A158,"Class",A158,":",A158,C158,A158)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G158" t="s">
@@ -14313,11 +14325,11 @@
         <v>367</v>
       </c>
       <c r="E159" t="str">
-        <f>CONCATENATE(A159,"Predicate",A159,":",A159,B159,A159,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"silly",</v>
       </c>
       <c r="F159" t="str">
-        <f>CONCATENATE(A159,"Class",A159,":",A159,C159,A159)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G159" t="s">
@@ -14338,11 +14350,11 @@
         <v>367</v>
       </c>
       <c r="E160" t="str">
-        <f>CONCATENATE(A160,"Predicate",A160,":",A160,B160,A160,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"beautiful",</v>
       </c>
       <c r="F160" t="str">
-        <f>CONCATENATE(A160,"Class",A160,":",A160,C160,A160)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G160" t="s">
@@ -14363,11 +14375,11 @@
         <v>367</v>
       </c>
       <c r="E161" t="str">
-        <f>CONCATENATE(A161,"Predicate",A161,":",A161,B161,A161,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"acceptable",</v>
       </c>
       <c r="F161" t="str">
-        <f>CONCATENATE(A161,"Class",A161,":",A161,C161,A161)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G161" t="s">
@@ -14388,11 +14400,11 @@
         <v>367</v>
       </c>
       <c r="E162" t="str">
-        <f>CONCATENATE(A162,"Predicate",A162,":",A162,B162,A162,",")</f>
+        <f t="shared" si="8"/>
         <v>"Predicate":"best",</v>
       </c>
       <c r="F162" t="str">
-        <f>CONCATENATE(A162,"Class",A162,":",A162,C162,A162)</f>
+        <f t="shared" si="9"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G162" t="s">
@@ -14413,11 +14425,11 @@
         <v>367</v>
       </c>
       <c r="E163" t="str">
-        <f>CONCATENATE(A163,"Predicate",A163,":",A163,B163,A163,",")</f>
+        <f t="shared" ref="E163:E198" si="10">CONCATENATE(A163,"Predicate",A163,":",A163,B163,A163,",")</f>
         <v>"Predicate":"plain",</v>
       </c>
       <c r="F163" t="str">
-        <f>CONCATENATE(A163,"Class",A163,":",A163,C163,A163)</f>
+        <f t="shared" ref="F163:F198" si="11">CONCATENATE(A163,"Class",A163,":",A163,C163,A163)</f>
         <v>"Class":"value"</v>
       </c>
       <c r="G163" t="s">
@@ -14438,11 +14450,11 @@
         <v>367</v>
       </c>
       <c r="E164" t="str">
-        <f>CONCATENATE(A164,"Predicate",A164,":",A164,B164,A164,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"gorgeous",</v>
       </c>
       <c r="F164" t="str">
-        <f>CONCATENATE(A164,"Class",A164,":",A164,C164,A164)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G164" t="s">
@@ -14463,11 +14475,11 @@
         <v>367</v>
       </c>
       <c r="E165" t="str">
-        <f>CONCATENATE(A165,"Predicate",A165,":",A165,B165,A165,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"gross",</v>
       </c>
       <c r="F165" t="str">
-        <f>CONCATENATE(A165,"Class",A165,":",A165,C165,A165)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G165" t="s">
@@ -14488,11 +14500,11 @@
         <v>367</v>
       </c>
       <c r="E166" t="str">
-        <f>CONCATENATE(A166,"Predicate",A166,":",A166,B166,A166,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"ludicrous",</v>
       </c>
       <c r="F166" t="str">
-        <f>CONCATENATE(A166,"Class",A166,":",A166,C166,A166)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G166" t="s">
@@ -14513,11 +14525,11 @@
         <v>367</v>
       </c>
       <c r="E167" t="str">
-        <f>CONCATENATE(A167,"Predicate",A167,":",A167,B167,A167,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"interesting",</v>
       </c>
       <c r="F167" t="str">
-        <f>CONCATENATE(A167,"Class",A167,":",A167,C167,A167)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G167" t="s">
@@ -14538,11 +14550,11 @@
         <v>367</v>
       </c>
       <c r="E168" t="str">
-        <f>CONCATENATE(A168,"Predicate",A168,":",A168,B168,A168,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"useful",</v>
       </c>
       <c r="F168" t="str">
-        <f>CONCATENATE(A168,"Class",A168,":",A168,C168,A168)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G168" t="s">
@@ -14563,11 +14575,11 @@
         <v>367</v>
       </c>
       <c r="E169" t="str">
-        <f>CONCATENATE(A169,"Predicate",A169,":",A169,B169,A169,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"specific",</v>
       </c>
       <c r="F169" t="str">
-        <f>CONCATENATE(A169,"Class",A169,":",A169,C169,A169)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G169" t="s">
@@ -14588,11 +14600,11 @@
         <v>367</v>
       </c>
       <c r="E170" t="str">
-        <f>CONCATENATE(A170,"Predicate",A170,":",A170,B170,A170,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"spare",</v>
       </c>
       <c r="F170" t="str">
-        <f>CONCATENATE(A170,"Class",A170,":",A170,C170,A170)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G170" t="s">
@@ -14613,11 +14625,11 @@
         <v>367</v>
       </c>
       <c r="E171" t="str">
-        <f>CONCATENATE(A171,"Predicate",A171,":",A171,B171,A171,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"same",</v>
       </c>
       <c r="F171" t="str">
-        <f>CONCATENATE(A171,"Class",A171,":",A171,C171,A171)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G171" t="s">
@@ -14638,11 +14650,11 @@
         <v>367</v>
       </c>
       <c r="E172" t="str">
-        <f>CONCATENATE(A172,"Predicate",A172,":",A172,B172,A172,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"different",</v>
       </c>
       <c r="F172" t="str">
-        <f>CONCATENATE(A172,"Class",A172,":",A172,C172,A172)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G172" t="s">
@@ -14663,11 +14675,11 @@
         <v>367</v>
       </c>
       <c r="E173" t="str">
-        <f>CONCATENATE(A173,"Predicate",A173,":",A173,B173,A173,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"simplified",</v>
       </c>
       <c r="F173" t="str">
-        <f>CONCATENATE(A173,"Class",A173,":",A173,C173,A173)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G173" t="s">
@@ -14688,11 +14700,11 @@
         <v>367</v>
       </c>
       <c r="E174" t="str">
-        <f>CONCATENATE(A174,"Predicate",A174,":",A174,B174,A174,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"mixed",</v>
       </c>
       <c r="F174" t="str">
-        <f>CONCATENATE(A174,"Class",A174,":",A174,C174,A174)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G174" t="s">
@@ -14713,11 +14725,11 @@
         <v>367</v>
       </c>
       <c r="E175" t="str">
-        <f>CONCATENATE(A175,"Predicate",A175,":",A175,B175,A175,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"individual",</v>
       </c>
       <c r="F175" t="str">
-        <f>CONCATENATE(A175,"Class",A175,":",A175,C175,A175)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G175" t="s">
@@ -14738,11 +14750,11 @@
         <v>367</v>
       </c>
       <c r="E176" t="str">
-        <f>CONCATENATE(A176,"Predicate",A176,":",A176,B176,A176,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"designated",</v>
       </c>
       <c r="F176" t="str">
-        <f>CONCATENATE(A176,"Class",A176,":",A176,C176,A176)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G176" t="s">
@@ -14763,11 +14775,11 @@
         <v>367</v>
       </c>
       <c r="E177" t="str">
-        <f>CONCATENATE(A177,"Predicate",A177,":",A177,B177,A177,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"additional",</v>
       </c>
       <c r="F177" t="str">
-        <f>CONCATENATE(A177,"Class",A177,":",A177,C177,A177)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G177" t="s">
@@ -14788,11 +14800,11 @@
         <v>367</v>
       </c>
       <c r="E178" t="str">
-        <f>CONCATENATE(A178,"Predicate",A178,":",A178,B178,A178,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"middle",</v>
       </c>
       <c r="F178" t="str">
-        <f>CONCATENATE(A178,"Class",A178,":",A178,C178,A178)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G178" t="s">
@@ -14813,11 +14825,11 @@
         <v>367</v>
       </c>
       <c r="E179" t="str">
-        <f>CONCATENATE(A179,"Predicate",A179,":",A179,B179,A179,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"immediate",</v>
       </c>
       <c r="F179" t="str">
-        <f>CONCATENATE(A179,"Class",A179,":",A179,C179,A179)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G179" t="s">
@@ -14838,11 +14850,11 @@
         <v>367</v>
       </c>
       <c r="E180" t="str">
-        <f>CONCATENATE(A180,"Predicate",A180,":",A180,B180,A180,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"whole",</v>
       </c>
       <c r="F180" t="str">
-        <f>CONCATENATE(A180,"Class",A180,":",A180,C180,A180)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G180" t="s">
@@ -14863,11 +14875,11 @@
         <v>367</v>
       </c>
       <c r="E181" t="str">
-        <f>CONCATENATE(A181,"Predicate",A181,":",A181,B181,A181,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"unique",</v>
       </c>
       <c r="F181" t="str">
-        <f>CONCATENATE(A181,"Class",A181,":",A181,C181,A181)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G181" t="s">
@@ -14888,11 +14900,11 @@
         <v>367</v>
       </c>
       <c r="E182" t="str">
-        <f>CONCATENATE(A182,"Predicate",A182,":",A182,B182,A182,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"front",</v>
       </c>
       <c r="F182" t="str">
-        <f>CONCATENATE(A182,"Class",A182,":",A182,C182,A182)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G182" t="s">
@@ -14913,11 +14925,11 @@
         <v>367</v>
       </c>
       <c r="E183" t="str">
-        <f>CONCATENATE(A183,"Predicate",A183,":",A183,B183,A183,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"potential",</v>
       </c>
       <c r="F183" t="str">
-        <f>CONCATENATE(A183,"Class",A183,":",A183,C183,A183)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G183" t="s">
@@ -14938,11 +14950,11 @@
         <v>367</v>
       </c>
       <c r="E184" t="str">
-        <f>CONCATENATE(A184,"Predicate",A184,":",A184,B184,A184,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"obvious",</v>
       </c>
       <c r="F184" t="str">
-        <f>CONCATENATE(A184,"Class",A184,":",A184,C184,A184)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G184" t="s">
@@ -14963,11 +14975,11 @@
         <v>367</v>
       </c>
       <c r="E185" t="str">
-        <f>CONCATENATE(A185,"Predicate",A185,":",A185,B185,A185,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"last",</v>
       </c>
       <c r="F185" t="str">
-        <f>CONCATENATE(A185,"Class",A185,":",A185,C185,A185)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G185" t="s">
@@ -14988,11 +15000,11 @@
         <v>367</v>
       </c>
       <c r="E186" t="str">
-        <f>CONCATENATE(A186,"Predicate",A186,":",A186,B186,A186,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"oddball",</v>
       </c>
       <c r="F186" t="str">
-        <f>CONCATENATE(A186,"Class",A186,":",A186,C186,A186)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G186" t="s">
@@ -15013,11 +15025,11 @@
         <v>367</v>
       </c>
       <c r="E187" t="str">
-        <f>CONCATENATE(A187,"Predicate",A187,":",A187,B187,A187,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"random",</v>
       </c>
       <c r="F187" t="str">
-        <f>CONCATENATE(A187,"Class",A187,":",A187,C187,A187)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G187" t="s">
@@ -15038,11 +15050,11 @@
         <v>367</v>
       </c>
       <c r="E188" t="str">
-        <f>CONCATENATE(A188,"Predicate",A188,":",A188,B188,A188,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"similar",</v>
       </c>
       <c r="F188" t="str">
-        <f>CONCATENATE(A188,"Class",A188,":",A188,C188,A188)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G188" t="s">
@@ -15063,11 +15075,11 @@
         <v>367</v>
       </c>
       <c r="E189" t="str">
-        <f>CONCATENATE(A189,"Predicate",A189,":",A189,B189,A189,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"original",</v>
       </c>
       <c r="F189" t="str">
-        <f>CONCATENATE(A189,"Class",A189,":",A189,C189,A189)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G189" t="s">
@@ -15088,11 +15100,11 @@
         <v>367</v>
       </c>
       <c r="E190" t="str">
-        <f>CONCATENATE(A190,"Predicate",A190,":",A190,B190,A190,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"standardized",</v>
       </c>
       <c r="F190" t="str">
-        <f>CONCATENATE(A190,"Class",A190,":",A190,C190,A190)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G190" t="s">
@@ -15113,11 +15125,11 @@
         <v>367</v>
       </c>
       <c r="E191" t="str">
-        <f>CONCATENATE(A191,"Predicate",A191,":",A191,B191,A191,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"actual",</v>
       </c>
       <c r="F191" t="str">
-        <f>CONCATENATE(A191,"Class",A191,":",A191,C191,A191)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G191" t="s">
@@ -15138,11 +15150,11 @@
         <v>367</v>
       </c>
       <c r="E192" t="str">
-        <f>CONCATENATE(A192,"Predicate",A192,":",A192,B192,A192,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"previous",</v>
       </c>
       <c r="F192" t="str">
-        <f>CONCATENATE(A192,"Class",A192,":",A192,C192,A192)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G192" t="s">
@@ -15163,11 +15175,11 @@
         <v>367</v>
       </c>
       <c r="E193" t="str">
-        <f>CONCATENATE(A193,"Predicate",A193,":",A193,B193,A193,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"present",</v>
       </c>
       <c r="F193" t="str">
-        <f>CONCATENATE(A193,"Class",A193,":",A193,C193,A193)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G193" t="s">
@@ -15188,11 +15200,11 @@
         <v>367</v>
       </c>
       <c r="E194" t="str">
-        <f>CONCATENATE(A194,"Predicate",A194,":",A194,B194,A194,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"second",</v>
       </c>
       <c r="F194" t="str">
-        <f>CONCATENATE(A194,"Class",A194,":",A194,C194,A194)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G194" t="s">
@@ -15213,11 +15225,11 @@
         <v>367</v>
       </c>
       <c r="E195" t="str">
-        <f>CONCATENATE(A195,"Predicate",A195,":",A195,B195,A195,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"prevailing",</v>
       </c>
       <c r="F195" t="str">
-        <f>CONCATENATE(A195,"Class",A195,":",A195,C195,A195)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G195" t="s">
@@ -15238,11 +15250,11 @@
         <v>367</v>
       </c>
       <c r="E196" t="str">
-        <f>CONCATENATE(A196,"Predicate",A196,":",A196,B196,A196,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"extra",</v>
       </c>
       <c r="F196" t="str">
-        <f>CONCATENATE(A196,"Class",A196,":",A196,C196,A196)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G196" t="s">
@@ -15263,11 +15275,11 @@
         <v>367</v>
       </c>
       <c r="E197" t="str">
-        <f>CONCATENATE(A197,"Predicate",A197,":",A197,B197,A197,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"token",</v>
       </c>
       <c r="F197" t="str">
-        <f>CONCATENATE(A197,"Class",A197,":",A197,C197,A197)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G197" t="s">
@@ -15288,11 +15300,11 @@
         <v>367</v>
       </c>
       <c r="E198" t="str">
-        <f>CONCATENATE(A198,"Predicate",A198,":",A198,B198,A198,",")</f>
+        <f t="shared" si="10"/>
         <v>"Predicate":"complete",</v>
       </c>
       <c r="F198" t="str">
-        <f>CONCATENATE(A198,"Class",A198,":",A198,C198,A198)</f>
+        <f t="shared" si="11"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G198" t="s">
@@ -15314,12 +15326,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="1.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
@@ -15341,7 +15355,7 @@
         <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D2" t="s">
         <v>367</v>
@@ -15352,7 +15366,7 @@
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(A2,"NounClass",A2,":",A2,C2,A2)</f>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G2" t="s">
         <v>368</v>
@@ -15366,7 +15380,7 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D3" t="s">
         <v>367</v>
@@ -15377,7 +15391,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="1">CONCATENATE(A3,"NounClass",A3,":",A3,C3,A3)</f>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G3" t="s">
         <v>368</v>
@@ -15391,7 +15405,7 @@
         <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D4" t="s">
         <v>367</v>
@@ -15402,7 +15416,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G4" t="s">
         <v>368</v>
@@ -15416,7 +15430,7 @@
         <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D5" t="s">
         <v>367</v>
@@ -15427,7 +15441,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G5" t="s">
         <v>368</v>
@@ -15441,7 +15455,7 @@
         <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D6" t="s">
         <v>367</v>
@@ -15452,7 +15466,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G6" t="s">
         <v>368</v>
@@ -15466,7 +15480,7 @@
         <v>375</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>367</v>
@@ -15477,7 +15491,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G7" t="s">
         <v>368</v>
@@ -15491,7 +15505,7 @@
         <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D8" t="s">
         <v>367</v>
@@ -15502,7 +15516,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G8" t="s">
         <v>368</v>
@@ -15516,7 +15530,7 @@
         <v>377</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D9" t="s">
         <v>367</v>
@@ -15527,7 +15541,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G9" t="s">
         <v>368</v>
@@ -15541,7 +15555,7 @@
         <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D10" t="s">
         <v>367</v>
@@ -15552,7 +15566,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G10" t="s">
         <v>368</v>
@@ -15566,7 +15580,7 @@
         <v>379</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D11" t="s">
         <v>367</v>
@@ -15577,7 +15591,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G11" t="s">
         <v>368</v>
@@ -15591,7 +15605,7 @@
         <v>380</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D12" t="s">
         <v>367</v>
@@ -15602,7 +15616,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G12" t="s">
         <v>368</v>
@@ -15616,7 +15630,7 @@
         <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D13" t="s">
         <v>367</v>
@@ -15627,7 +15641,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G13" t="s">
         <v>368</v>
@@ -15641,7 +15655,7 @@
         <v>382</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D14" t="s">
         <v>367</v>
@@ -15652,7 +15666,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G14" t="s">
         <v>368</v>
@@ -15666,7 +15680,7 @@
         <v>383</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D15" t="s">
         <v>367</v>
@@ -15677,7 +15691,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G15" t="s">
         <v>368</v>
@@ -15691,7 +15705,7 @@
         <v>384</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D16" t="s">
         <v>367</v>
@@ -15702,7 +15716,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G16" t="s">
         <v>368</v>
@@ -15716,7 +15730,7 @@
         <v>385</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D17" t="s">
         <v>367</v>
@@ -15727,7 +15741,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G17" t="s">
         <v>368</v>
@@ -15741,7 +15755,7 @@
         <v>386</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D18" t="s">
         <v>367</v>
@@ -15752,7 +15766,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G18" t="s">
         <v>368</v>
@@ -15766,7 +15780,7 @@
         <v>387</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D19" t="s">
         <v>367</v>
@@ -15777,7 +15791,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G19" t="s">
         <v>368</v>
@@ -15791,7 +15805,7 @@
         <v>388</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D20" t="s">
         <v>367</v>
@@ -15802,7 +15816,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G20" t="s">
         <v>368</v>
@@ -15816,7 +15830,7 @@
         <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D21" t="s">
         <v>367</v>
@@ -15827,7 +15841,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G21" t="s">
         <v>368</v>
@@ -15841,7 +15855,7 @@
         <v>390</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D22" t="s">
         <v>367</v>
@@ -15852,7 +15866,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G22" t="s">
         <v>368</v>
@@ -15866,7 +15880,7 @@
         <v>391</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D23" t="s">
         <v>367</v>
@@ -15877,7 +15891,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G23" t="s">
         <v>368</v>
@@ -15891,7 +15905,7 @@
         <v>392</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D24" t="s">
         <v>367</v>
@@ -15902,7 +15916,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G24" t="s">
         <v>368</v>
@@ -15916,7 +15930,7 @@
         <v>393</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D25" t="s">
         <v>367</v>
@@ -15927,7 +15941,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G25" t="s">
         <v>368</v>
@@ -15941,7 +15955,7 @@
         <v>394</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D26" t="s">
         <v>367</v>
@@ -15952,7 +15966,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G26" t="s">
         <v>368</v>
@@ -15966,7 +15980,7 @@
         <v>395</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D27" t="s">
         <v>367</v>
@@ -15977,7 +15991,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G27" t="s">
         <v>368</v>
@@ -15991,7 +16005,7 @@
         <v>396</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D28" t="s">
         <v>367</v>
@@ -16002,7 +16016,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G28" t="s">
         <v>368</v>
@@ -16016,7 +16030,7 @@
         <v>397</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D29" t="s">
         <v>367</v>
@@ -16027,7 +16041,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G29" t="s">
         <v>368</v>
@@ -16041,7 +16055,7 @@
         <v>398</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D30" t="s">
         <v>367</v>
@@ -16052,7 +16066,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G30" t="s">
         <v>368</v>
@@ -16066,7 +16080,7 @@
         <v>399</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D31" t="s">
         <v>367</v>
@@ -16077,7 +16091,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G31" t="s">
         <v>368</v>
@@ -16091,7 +16105,7 @@
         <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D32" t="s">
         <v>367</v>
@@ -16102,7 +16116,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G32" t="s">
         <v>368</v>
@@ -16116,7 +16130,7 @@
         <v>400</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D33" t="s">
         <v>367</v>
@@ -16127,7 +16141,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G33" t="s">
         <v>368</v>
@@ -16141,7 +16155,7 @@
         <v>401</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D34" t="s">
         <v>367</v>
@@ -16152,7 +16166,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G34" t="s">
         <v>368</v>
@@ -16166,7 +16180,7 @@
         <v>402</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D35" t="s">
         <v>367</v>
@@ -16177,7 +16191,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G35" t="s">
         <v>368</v>
@@ -16191,7 +16205,7 @@
         <v>403</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D36" t="s">
         <v>367</v>
@@ -16202,7 +16216,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G36" t="s">
         <v>368</v>
@@ -16216,7 +16230,7 @@
         <v>404</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D37" t="s">
         <v>367</v>
@@ -16227,7 +16241,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G37" t="s">
         <v>368</v>
@@ -16241,7 +16255,7 @@
         <v>405</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D38" t="s">
         <v>367</v>
@@ -16252,7 +16266,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G38" t="s">
         <v>368</v>
@@ -16266,7 +16280,7 @@
         <v>406</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D39" t="s">
         <v>367</v>
@@ -16277,7 +16291,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G39" t="s">
         <v>368</v>
@@ -16291,7 +16305,7 @@
         <v>407</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D40" t="s">
         <v>367</v>
@@ -16302,7 +16316,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G40" t="s">
         <v>368</v>
@@ -16316,7 +16330,7 @@
         <v>408</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D41" t="s">
         <v>367</v>
@@ -16327,7 +16341,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G41" t="s">
         <v>368</v>
@@ -16341,7 +16355,7 @@
         <v>409</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D42" t="s">
         <v>367</v>
@@ -16352,7 +16366,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G42" t="s">
         <v>368</v>
@@ -16366,7 +16380,7 @@
         <v>410</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D43" t="s">
         <v>367</v>
@@ -16377,7 +16391,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G43" t="s">
         <v>368</v>
@@ -16391,7 +16405,7 @@
         <v>411</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D44" t="s">
         <v>367</v>
@@ -16402,7 +16416,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G44" t="s">
         <v>368</v>
@@ -16416,7 +16430,7 @@
         <v>412</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D45" t="s">
         <v>367</v>
@@ -16427,7 +16441,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G45" t="s">
         <v>368</v>
@@ -16441,7 +16455,7 @@
         <v>413</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D46" t="s">
         <v>367</v>
@@ -16452,7 +16466,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G46" t="s">
         <v>368</v>
@@ -16466,7 +16480,7 @@
         <v>414</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D47" t="s">
         <v>367</v>
@@ -16477,7 +16491,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G47" t="s">
         <v>368</v>
@@ -16491,7 +16505,7 @@
         <v>415</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D48" t="s">
         <v>367</v>
@@ -16502,7 +16516,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G48" t="s">
         <v>368</v>
@@ -16516,7 +16530,7 @@
         <v>416</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D49" t="s">
         <v>367</v>
@@ -16527,7 +16541,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G49" t="s">
         <v>368</v>
@@ -16541,7 +16555,7 @@
         <v>417</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D50" t="s">
         <v>367</v>
@@ -16552,7 +16566,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G50" t="s">
         <v>368</v>
@@ -16566,7 +16580,7 @@
         <v>418</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D51" t="s">
         <v>367</v>
@@ -16577,7 +16591,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G51" t="s">
         <v>368</v>
@@ -16591,7 +16605,7 @@
         <v>419</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D52" t="s">
         <v>367</v>
@@ -16602,7 +16616,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G52" t="s">
         <v>368</v>
@@ -16616,7 +16630,7 @@
         <v>420</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D53" t="s">
         <v>367</v>
@@ -16627,7 +16641,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G53" t="s">
         <v>368</v>
@@ -16641,7 +16655,7 @@
         <v>421</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D54" t="s">
         <v>367</v>
@@ -16652,7 +16666,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G54" t="s">
         <v>368</v>
@@ -16666,7 +16680,7 @@
         <v>422</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
         <v>367</v>
@@ -16677,7 +16691,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G55" t="s">
         <v>368</v>
@@ -16691,7 +16705,7 @@
         <v>423</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D56" t="s">
         <v>367</v>
@@ -16702,7 +16716,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G56" t="s">
         <v>368</v>
@@ -16716,7 +16730,7 @@
         <v>424</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D57" t="s">
         <v>367</v>
@@ -16727,7 +16741,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G57" t="s">
         <v>368</v>
@@ -16741,7 +16755,7 @@
         <v>425</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D58" t="s">
         <v>367</v>
@@ -16752,7 +16766,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G58" t="s">
         <v>368</v>
@@ -16766,7 +16780,7 @@
         <v>426</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D59" t="s">
         <v>367</v>
@@ -16777,7 +16791,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G59" t="s">
         <v>368</v>
@@ -16791,7 +16805,7 @@
         <v>427</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D60" t="s">
         <v>367</v>
@@ -16802,7 +16816,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G60" t="s">
         <v>368</v>
@@ -16816,7 +16830,7 @@
         <v>428</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D61" t="s">
         <v>367</v>
@@ -16827,7 +16841,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G61" t="s">
         <v>368</v>
@@ -16841,7 +16855,7 @@
         <v>429</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>367</v>
@@ -16852,7 +16866,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G62" t="s">
         <v>368</v>
@@ -16866,7 +16880,7 @@
         <v>430</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D63" t="s">
         <v>367</v>
@@ -16877,7 +16891,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G63" t="s">
         <v>368</v>
@@ -16891,7 +16905,7 @@
         <v>431</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
         <v>367</v>
@@ -16902,7 +16916,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G64" t="s">
         <v>368</v>
@@ -16916,7 +16930,7 @@
         <v>432</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D65" t="s">
         <v>367</v>
@@ -16927,7 +16941,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G65" t="s">
         <v>368</v>
@@ -16941,7 +16955,7 @@
         <v>433</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D66" t="s">
         <v>367</v>
@@ -16952,7 +16966,7 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="1"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G66" t="s">
         <v>368</v>
@@ -16966,7 +16980,7 @@
         <v>434</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D67" t="s">
         <v>367</v>
@@ -16977,7 +16991,7 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="3">CONCATENATE(A67,"NounClass",A67,":",A67,C67,A67)</f>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G67" t="s">
         <v>368</v>
@@ -16991,7 +17005,7 @@
         <v>435</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D68" t="s">
         <v>367</v>
@@ -17002,7 +17016,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G68" t="s">
         <v>368</v>
@@ -17016,7 +17030,7 @@
         <v>436</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D69" t="s">
         <v>367</v>
@@ -17027,7 +17041,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G69" t="s">
         <v>368</v>
@@ -17041,7 +17055,7 @@
         <v>437</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
         <v>367</v>
@@ -17052,7 +17066,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G70" t="s">
         <v>368</v>
@@ -17066,7 +17080,7 @@
         <v>438</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D71" t="s">
         <v>367</v>
@@ -17077,7 +17091,7 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G71" t="s">
         <v>368</v>
@@ -17091,7 +17105,7 @@
         <v>439</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D72" t="s">
         <v>367</v>
@@ -17102,7 +17116,7 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G72" t="s">
         <v>368</v>
@@ -17116,7 +17130,7 @@
         <v>440</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D73" t="s">
         <v>367</v>
@@ -17127,7 +17141,7 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G73" t="s">
         <v>368</v>
@@ -17141,7 +17155,7 @@
         <v>441</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D74" t="s">
         <v>367</v>
@@ -17152,7 +17166,7 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G74" t="s">
         <v>368</v>
@@ -17166,7 +17180,7 @@
         <v>442</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D75" t="s">
         <v>367</v>
@@ -17177,7 +17191,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G75" t="s">
         <v>368</v>
@@ -17191,7 +17205,7 @@
         <v>443</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D76" t="s">
         <v>367</v>
@@ -17202,7 +17216,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G76" t="s">
         <v>368</v>
@@ -17216,7 +17230,7 @@
         <v>444</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D77" t="s">
         <v>367</v>
@@ -17227,7 +17241,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G77" t="s">
         <v>368</v>
@@ -17241,7 +17255,7 @@
         <v>445</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D78" t="s">
         <v>367</v>
@@ -17252,7 +17266,7 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G78" t="s">
         <v>368</v>
@@ -17266,7 +17280,7 @@
         <v>446</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
         <v>367</v>
@@ -17277,7 +17291,7 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G79" t="s">
         <v>368</v>
@@ -17291,7 +17305,7 @@
         <v>447</v>
       </c>
       <c r="C80" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D80" t="s">
         <v>367</v>
@@ -17302,7 +17316,7 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G80" t="s">
         <v>368</v>
@@ -17316,7 +17330,7 @@
         <v>448</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D81" t="s">
         <v>367</v>
@@ -17327,7 +17341,7 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G81" t="s">
         <v>368</v>
@@ -17341,7 +17355,7 @@
         <v>449</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D82" t="s">
         <v>367</v>
@@ -17352,7 +17366,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G82" t="s">
         <v>368</v>
@@ -17366,7 +17380,7 @@
         <v>450</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D83" t="s">
         <v>367</v>
@@ -17377,7 +17391,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G83" t="s">
         <v>368</v>
@@ -17391,7 +17405,7 @@
         <v>451</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
         <v>367</v>
@@ -17402,7 +17416,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G84" t="s">
         <v>368</v>
@@ -17416,7 +17430,7 @@
         <v>452</v>
       </c>
       <c r="C85" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D85" t="s">
         <v>367</v>
@@ -17427,7 +17441,7 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G85" t="s">
         <v>368</v>
@@ -17441,7 +17455,7 @@
         <v>453</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
         <v>367</v>
@@ -17452,7 +17466,7 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G86" t="s">
         <v>368</v>
@@ -17466,7 +17480,7 @@
         <v>454</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
         <v>367</v>
@@ -17477,7 +17491,7 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G87" t="s">
         <v>368</v>
@@ -17491,7 +17505,7 @@
         <v>455</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
         <v>367</v>
@@ -17502,7 +17516,7 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G88" t="s">
         <v>368</v>
@@ -17516,7 +17530,7 @@
         <v>456</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
         <v>367</v>
@@ -17527,7 +17541,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G89" t="s">
         <v>368</v>
@@ -17541,7 +17555,7 @@
         <v>457</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D90" t="s">
         <v>367</v>
@@ -17552,7 +17566,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G90" t="s">
         <v>368</v>
@@ -17566,7 +17580,7 @@
         <v>458</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D91" t="s">
         <v>367</v>
@@ -17577,7 +17591,7 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G91" t="s">
         <v>368</v>
@@ -17591,7 +17605,7 @@
         <v>459</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D92" t="s">
         <v>367</v>
@@ -17602,7 +17616,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G92" t="s">
         <v>368</v>
@@ -17616,7 +17630,7 @@
         <v>460</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D93" t="s">
         <v>367</v>
@@ -17627,7 +17641,7 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G93" t="s">
         <v>368</v>
@@ -17641,7 +17655,7 @@
         <v>461</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D94" t="s">
         <v>367</v>
@@ -17652,7 +17666,7 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G94" t="s">
         <v>368</v>
@@ -17666,7 +17680,7 @@
         <v>462</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D95" t="s">
         <v>367</v>
@@ -17677,7 +17691,7 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G95" t="s">
         <v>368</v>
@@ -17691,7 +17705,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D96" t="s">
         <v>367</v>
@@ -17702,7 +17716,7 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G96" t="s">
         <v>368</v>
@@ -17716,7 +17730,7 @@
         <v>463</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D97" t="s">
         <v>367</v>
@@ -17727,7 +17741,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G97" t="s">
         <v>368</v>
@@ -17741,7 +17755,7 @@
         <v>464</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
         <v>367</v>
@@ -17752,7 +17766,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G98" t="s">
         <v>368</v>
@@ -17766,7 +17780,7 @@
         <v>465</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D99" t="s">
         <v>367</v>
@@ -17777,7 +17791,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G99" t="s">
         <v>368</v>
@@ -17791,7 +17805,7 @@
         <v>466</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D100" t="s">
         <v>367</v>
@@ -17802,7 +17816,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G100" t="s">
         <v>368</v>
@@ -17816,7 +17830,7 @@
         <v>467</v>
       </c>
       <c r="C101" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D101" t="s">
         <v>367</v>
@@ -17827,7 +17841,7 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G101" t="s">
         <v>368</v>
@@ -17841,7 +17855,7 @@
         <v>468</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D102" t="s">
         <v>367</v>
@@ -17852,7 +17866,7 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G102" t="s">
         <v>368</v>
@@ -17866,7 +17880,7 @@
         <v>469</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D103" t="s">
         <v>367</v>
@@ -17877,7 +17891,7 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G103" t="s">
         <v>368</v>
@@ -17891,7 +17905,7 @@
         <v>470</v>
       </c>
       <c r="C104" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D104" t="s">
         <v>367</v>
@@ -17902,7 +17916,7 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G104" t="s">
         <v>368</v>
@@ -17916,7 +17930,7 @@
         <v>471</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D105" t="s">
         <v>367</v>
@@ -17927,7 +17941,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G105" t="s">
         <v>368</v>
@@ -17941,7 +17955,7 @@
         <v>472</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D106" t="s">
         <v>367</v>
@@ -17952,7 +17966,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G106" t="s">
         <v>368</v>
@@ -17966,7 +17980,7 @@
         <v>473</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D107" t="s">
         <v>367</v>
@@ -17977,7 +17991,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G107" t="s">
         <v>368</v>
@@ -17991,7 +18005,7 @@
         <v>474</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D108" t="s">
         <v>367</v>
@@ -18002,7 +18016,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G108" t="s">
         <v>368</v>
@@ -18016,7 +18030,7 @@
         <v>475</v>
       </c>
       <c r="C109" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D109" t="s">
         <v>367</v>
@@ -18027,7 +18041,7 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G109" t="s">
         <v>368</v>
@@ -18041,7 +18055,7 @@
         <v>476</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D110" t="s">
         <v>367</v>
@@ -18052,7 +18066,7 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G110" t="s">
         <v>368</v>
@@ -18066,7 +18080,7 @@
         <v>477</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D111" t="s">
         <v>367</v>
@@ -18077,7 +18091,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G111" t="s">
         <v>368</v>
@@ -18091,7 +18105,7 @@
         <v>478</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D112" t="s">
         <v>367</v>
@@ -18102,7 +18116,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G112" t="s">
         <v>368</v>
@@ -18116,7 +18130,7 @@
         <v>479</v>
       </c>
       <c r="C113" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D113" t="s">
         <v>367</v>
@@ -18127,7 +18141,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G113" t="s">
         <v>368</v>
@@ -18141,7 +18155,7 @@
         <v>480</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D114" t="s">
         <v>367</v>
@@ -18152,7 +18166,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G114" t="s">
         <v>368</v>
@@ -18166,7 +18180,7 @@
         <v>481</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
         <v>367</v>
@@ -18177,7 +18191,7 @@
       </c>
       <c r="F115" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G115" t="s">
         <v>368</v>
@@ -18191,7 +18205,7 @@
         <v>482</v>
       </c>
       <c r="C116" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D116" t="s">
         <v>367</v>
@@ -18202,7 +18216,7 @@
       </c>
       <c r="F116" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G116" t="s">
         <v>368</v>
@@ -18216,7 +18230,7 @@
         <v>483</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
         <v>367</v>
@@ -18227,7 +18241,7 @@
       </c>
       <c r="F117" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G117" t="s">
         <v>368</v>
@@ -18241,7 +18255,7 @@
         <v>484</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D118" t="s">
         <v>367</v>
@@ -18252,7 +18266,7 @@
       </c>
       <c r="F118" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G118" t="s">
         <v>368</v>
@@ -18266,7 +18280,7 @@
         <v>485</v>
       </c>
       <c r="C119" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D119" t="s">
         <v>367</v>
@@ -18277,7 +18291,7 @@
       </c>
       <c r="F119" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G119" t="s">
         <v>368</v>
@@ -18291,7 +18305,7 @@
         <v>486</v>
       </c>
       <c r="C120" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D120" t="s">
         <v>367</v>
@@ -18302,7 +18316,7 @@
       </c>
       <c r="F120" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G120" t="s">
         <v>368</v>
@@ -18316,7 +18330,7 @@
         <v>487</v>
       </c>
       <c r="C121" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D121" t="s">
         <v>367</v>
@@ -18327,7 +18341,7 @@
       </c>
       <c r="F121" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G121" t="s">
         <v>368</v>
@@ -18341,7 +18355,7 @@
         <v>488</v>
       </c>
       <c r="C122" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D122" t="s">
         <v>367</v>
@@ -18352,7 +18366,7 @@
       </c>
       <c r="F122" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G122" t="s">
         <v>368</v>
@@ -18366,7 +18380,7 @@
         <v>489</v>
       </c>
       <c r="C123" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D123" t="s">
         <v>367</v>
@@ -18377,7 +18391,7 @@
       </c>
       <c r="F123" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G123" t="s">
         <v>368</v>
@@ -18391,7 +18405,7 @@
         <v>490</v>
       </c>
       <c r="C124" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D124" t="s">
         <v>367</v>
@@ -18402,7 +18416,7 @@
       </c>
       <c r="F124" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G124" t="s">
         <v>368</v>
@@ -18416,7 +18430,7 @@
         <v>491</v>
       </c>
       <c r="C125" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D125" t="s">
         <v>367</v>
@@ -18427,7 +18441,7 @@
       </c>
       <c r="F125" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G125" t="s">
         <v>368</v>
@@ -18441,7 +18455,7 @@
         <v>492</v>
       </c>
       <c r="C126" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D126" t="s">
         <v>367</v>
@@ -18452,7 +18466,7 @@
       </c>
       <c r="F126" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G126" t="s">
         <v>368</v>
@@ -18466,7 +18480,7 @@
         <v>493</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D127" t="s">
         <v>367</v>
@@ -18477,7 +18491,7 @@
       </c>
       <c r="F127" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G127" t="s">
         <v>368</v>
@@ -18491,7 +18505,7 @@
         <v>494</v>
       </c>
       <c r="C128" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D128" t="s">
         <v>367</v>
@@ -18502,7 +18516,7 @@
       </c>
       <c r="F128" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G128" t="s">
         <v>368</v>
@@ -18516,7 +18530,7 @@
         <v>495</v>
       </c>
       <c r="C129" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D129" t="s">
         <v>367</v>
@@ -18527,7 +18541,7 @@
       </c>
       <c r="F129" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G129" t="s">
         <v>368</v>
@@ -18541,7 +18555,7 @@
         <v>496</v>
       </c>
       <c r="C130" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D130" t="s">
         <v>367</v>
@@ -18552,7 +18566,7 @@
       </c>
       <c r="F130" t="str">
         <f t="shared" si="3"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G130" t="s">
         <v>368</v>
@@ -18566,7 +18580,7 @@
         <v>497</v>
       </c>
       <c r="C131" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D131" t="s">
         <v>367</v>
@@ -18577,7 +18591,7 @@
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F167" si="5">CONCATENATE(A131,"NounClass",A131,":",A131,C131,A131)</f>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G131" t="s">
         <v>368</v>
@@ -18591,7 +18605,7 @@
         <v>498</v>
       </c>
       <c r="C132" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D132" t="s">
         <v>367</v>
@@ -18602,7 +18616,7 @@
       </c>
       <c r="F132" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G132" t="s">
         <v>368</v>
@@ -18616,7 +18630,7 @@
         <v>499</v>
       </c>
       <c r="C133" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D133" t="s">
         <v>367</v>
@@ -18627,7 +18641,7 @@
       </c>
       <c r="F133" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G133" t="s">
         <v>368</v>
@@ -18641,7 +18655,7 @@
         <v>500</v>
       </c>
       <c r="C134" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D134" t="s">
         <v>367</v>
@@ -18652,7 +18666,7 @@
       </c>
       <c r="F134" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G134" t="s">
         <v>368</v>
@@ -18666,7 +18680,7 @@
         <v>501</v>
       </c>
       <c r="C135" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D135" t="s">
         <v>367</v>
@@ -18677,7 +18691,7 @@
       </c>
       <c r="F135" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G135" t="s">
         <v>368</v>
@@ -18691,7 +18705,7 @@
         <v>502</v>
       </c>
       <c r="C136" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D136" t="s">
         <v>367</v>
@@ -18702,7 +18716,7 @@
       </c>
       <c r="F136" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G136" t="s">
         <v>368</v>
@@ -18716,7 +18730,7 @@
         <v>503</v>
       </c>
       <c r="C137" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D137" t="s">
         <v>367</v>
@@ -18727,7 +18741,7 @@
       </c>
       <c r="F137" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G137" t="s">
         <v>368</v>
@@ -18741,7 +18755,7 @@
         <v>504</v>
       </c>
       <c r="C138" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D138" t="s">
         <v>367</v>
@@ -18752,7 +18766,7 @@
       </c>
       <c r="F138" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G138" t="s">
         <v>368</v>
@@ -18766,7 +18780,7 @@
         <v>505</v>
       </c>
       <c r="C139" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D139" t="s">
         <v>367</v>
@@ -18777,7 +18791,7 @@
       </c>
       <c r="F139" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G139" t="s">
         <v>368</v>
@@ -18791,7 +18805,7 @@
         <v>506</v>
       </c>
       <c r="C140" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D140" t="s">
         <v>367</v>
@@ -18802,7 +18816,7 @@
       </c>
       <c r="F140" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G140" t="s">
         <v>368</v>
@@ -18816,7 +18830,7 @@
         <v>507</v>
       </c>
       <c r="C141" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D141" t="s">
         <v>367</v>
@@ -18827,7 +18841,7 @@
       </c>
       <c r="F141" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G141" t="s">
         <v>368</v>
@@ -18841,7 +18855,7 @@
         <v>508</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D142" t="s">
         <v>367</v>
@@ -18852,7 +18866,7 @@
       </c>
       <c r="F142" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G142" t="s">
         <v>368</v>
@@ -18866,7 +18880,7 @@
         <v>509</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D143" t="s">
         <v>367</v>
@@ -18877,7 +18891,7 @@
       </c>
       <c r="F143" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G143" t="s">
         <v>368</v>
@@ -18891,7 +18905,7 @@
         <v>510</v>
       </c>
       <c r="C144" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D144" t="s">
         <v>367</v>
@@ -18902,7 +18916,7 @@
       </c>
       <c r="F144" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G144" t="s">
         <v>368</v>
@@ -18916,7 +18930,7 @@
         <v>511</v>
       </c>
       <c r="C145" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D145" t="s">
         <v>367</v>
@@ -18927,7 +18941,7 @@
       </c>
       <c r="F145" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G145" t="s">
         <v>368</v>
@@ -18941,7 +18955,7 @@
         <v>512</v>
       </c>
       <c r="C146" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D146" t="s">
         <v>367</v>
@@ -18952,7 +18966,7 @@
       </c>
       <c r="F146" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G146" t="s">
         <v>368</v>
@@ -18966,7 +18980,7 @@
         <v>513</v>
       </c>
       <c r="C147" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D147" t="s">
         <v>367</v>
@@ -18977,7 +18991,7 @@
       </c>
       <c r="F147" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G147" t="s">
         <v>368</v>
@@ -18991,7 +19005,7 @@
         <v>514</v>
       </c>
       <c r="C148" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D148" t="s">
         <v>367</v>
@@ -19002,7 +19016,7 @@
       </c>
       <c r="F148" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G148" t="s">
         <v>368</v>
@@ -19016,7 +19030,7 @@
         <v>515</v>
       </c>
       <c r="C149" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D149" t="s">
         <v>367</v>
@@ -19027,7 +19041,7 @@
       </c>
       <c r="F149" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G149" t="s">
         <v>368</v>
@@ -19041,7 +19055,7 @@
         <v>516</v>
       </c>
       <c r="C150" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D150" t="s">
         <v>367</v>
@@ -19052,7 +19066,7 @@
       </c>
       <c r="F150" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G150" t="s">
         <v>368</v>
@@ -19066,7 +19080,7 @@
         <v>517</v>
       </c>
       <c r="C151" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D151" t="s">
         <v>367</v>
@@ -19077,7 +19091,7 @@
       </c>
       <c r="F151" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G151" t="s">
         <v>368</v>
@@ -19091,7 +19105,7 @@
         <v>518</v>
       </c>
       <c r="C152" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D152" t="s">
         <v>367</v>
@@ -19102,7 +19116,7 @@
       </c>
       <c r="F152" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G152" t="s">
         <v>368</v>
@@ -19116,7 +19130,7 @@
         <v>519</v>
       </c>
       <c r="C153" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D153" t="s">
         <v>367</v>
@@ -19127,7 +19141,7 @@
       </c>
       <c r="F153" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G153" t="s">
         <v>368</v>
@@ -19141,7 +19155,7 @@
         <v>520</v>
       </c>
       <c r="C154" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D154" t="s">
         <v>367</v>
@@ -19152,7 +19166,7 @@
       </c>
       <c r="F154" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G154" t="s">
         <v>368</v>
@@ -19166,7 +19180,7 @@
         <v>521</v>
       </c>
       <c r="C155" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D155" t="s">
         <v>367</v>
@@ -19177,7 +19191,7 @@
       </c>
       <c r="F155" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G155" t="s">
         <v>368</v>
@@ -19191,7 +19205,7 @@
         <v>522</v>
       </c>
       <c r="C156" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D156" t="s">
         <v>367</v>
@@ -19202,7 +19216,7 @@
       </c>
       <c r="F156" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G156" t="s">
         <v>368</v>
@@ -19216,7 +19230,7 @@
         <v>523</v>
       </c>
       <c r="C157" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D157" t="s">
         <v>367</v>
@@ -19227,7 +19241,7 @@
       </c>
       <c r="F157" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G157" t="s">
         <v>368</v>
@@ -19241,7 +19255,7 @@
         <v>524</v>
       </c>
       <c r="C158" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D158" t="s">
         <v>367</v>
@@ -19252,7 +19266,7 @@
       </c>
       <c r="F158" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G158" t="s">
         <v>368</v>
@@ -19266,7 +19280,7 @@
         <v>525</v>
       </c>
       <c r="C159" t="s">
-        <v>187</v>
+        <v>539</v>
       </c>
       <c r="D159" t="s">
         <v>367</v>
@@ -19277,7 +19291,7 @@
       </c>
       <c r="F159" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"concrete"</v>
       </c>
       <c r="G159" t="s">
         <v>368</v>
@@ -19291,7 +19305,7 @@
         <v>526</v>
       </c>
       <c r="C160" t="s">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="D160" t="s">
         <v>367</v>
@@ -19302,7 +19316,7 @@
       </c>
       <c r="F160" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"mass"</v>
       </c>
       <c r="G160" t="s">
         <v>368</v>
@@ -19316,7 +19330,7 @@
         <v>100</v>
       </c>
       <c r="C161" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="D161" t="s">
         <v>367</v>
@@ -19327,7 +19341,7 @@
       </c>
       <c r="F161" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"space"</v>
       </c>
       <c r="G161" t="s">
         <v>368</v>
@@ -19341,7 +19355,7 @@
         <v>527</v>
       </c>
       <c r="C162" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D162" t="s">
         <v>367</v>
@@ -19352,7 +19366,7 @@
       </c>
       <c r="F162" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G162" t="s">
         <v>368</v>
@@ -19366,7 +19380,7 @@
         <v>528</v>
       </c>
       <c r="C163" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D163" t="s">
         <v>367</v>
@@ -19377,7 +19391,7 @@
       </c>
       <c r="F163" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G163" t="s">
         <v>368</v>
@@ -19391,7 +19405,7 @@
         <v>529</v>
       </c>
       <c r="C164" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D164" t="s">
         <v>367</v>
@@ -19402,7 +19416,7 @@
       </c>
       <c r="F164" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"human"</v>
       </c>
       <c r="G164" t="s">
         <v>368</v>
@@ -19416,7 +19430,7 @@
         <v>530</v>
       </c>
       <c r="C165" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D165" t="s">
         <v>367</v>
@@ -19427,7 +19441,7 @@
       </c>
       <c r="F165" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G165" t="s">
         <v>368</v>
@@ -19441,7 +19455,7 @@
         <v>531</v>
       </c>
       <c r="C166" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D166" t="s">
         <v>367</v>
@@ -19452,7 +19466,7 @@
       </c>
       <c r="F166" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G166" t="s">
         <v>368</v>
@@ -19466,7 +19480,7 @@
         <v>532</v>
       </c>
       <c r="C167" t="s">
-        <v>187</v>
+        <v>538</v>
       </c>
       <c r="D167" t="s">
         <v>367</v>
@@ -19477,7 +19491,7 @@
       </c>
       <c r="F167" t="str">
         <f t="shared" si="5"/>
-        <v>"NounClass":"X"</v>
+        <v>"NounClass":"abstract"</v>
       </c>
       <c r="G167" t="s">
         <v>369</v>
@@ -19529,11 +19543,11 @@
         <v>367</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE(A3,"Predicate",A3,":",A3,B3,A3,",")</f>
+        <f t="shared" ref="E3:E34" si="0">CONCATENATE(A3,"Predicate",A3,":",A3,B3,A3,",")</f>
         <v>"Predicate":"biggest",</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE(A3,"Class",A3,":",A3,C3,A3)</f>
+        <f t="shared" ref="F3:F34" si="1">CONCATENATE(A3,"Class",A3,":",A3,C3,A3)</f>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G3" t="s">
@@ -19554,11 +19568,11 @@
         <v>367</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE(A4,"Predicate",A4,":",A4,B4,A4,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"large",</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(A4,"Class",A4,":",A4,C4,A4)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G4" t="s">
@@ -19579,11 +19593,11 @@
         <v>367</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE(A5,"Predicate",A5,":",A5,B5,A5,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"long",</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE(A5,"Class",A5,":",A5,C5,A5)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G5" t="s">
@@ -19604,11 +19618,11 @@
         <v>367</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE(A6,"Predicate",A6,":",A6,B6,A6,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"mini",</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE(A6,"Class",A6,":",A6,C6,A6)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G6" t="s">
@@ -19629,11 +19643,11 @@
         <v>367</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE(A7,"Predicate",A7,":",A7,B7,A7,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"narrow",</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE(A7,"Class",A7,":",A7,C7,A7)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G7" t="s">
@@ -19654,11 +19668,11 @@
         <v>367</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE(A8,"Predicate",A8,":",A8,B8,A8,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"open",</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE(A8,"Class",A8,":",A8,C8,A8)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G8" t="s">
@@ -19679,11 +19693,11 @@
         <v>367</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE(A9,"Predicate",A9,":",A9,B9,A9,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"thick",</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE(A9,"Class",A9,":",A9,C9,A9)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G9" t="s">
@@ -19704,11 +19718,11 @@
         <v>367</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE(A10,"Predicate",A10,":",A10,B10,A10,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"thin",</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE(A10,"Class",A10,":",A10,C10,A10)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"dimension"</v>
       </c>
       <c r="G10" t="s">
@@ -19729,11 +19743,11 @@
         <v>367</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE(A11,"Predicate",A11,":",A11,B11,A11,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"civilized",</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE(A11,"Class",A11,":",A11,C11,A11)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G11" t="s">
@@ -19754,11 +19768,11 @@
         <v>367</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE(A12,"Predicate",A12,":",A12,B12,A12,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"creative",</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE(A12,"Class",A12,":",A12,C12,A12)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G12" t="s">
@@ -19779,11 +19793,11 @@
         <v>367</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE(A13,"Predicate",A13,":",A13,B13,A13,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"entrepreneurial",</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE(A13,"Class",A13,":",A13,C13,A13)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G13" t="s">
@@ -19804,11 +19818,11 @@
         <v>367</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE(A14,"Predicate",A14,":",A14,B14,A14,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"playful",</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE(A14,"Class",A14,":",A14,C14,A14)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G14" t="s">
@@ -19829,11 +19843,11 @@
         <v>367</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE(A15,"Predicate",A15,":",A15,B15,A15,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"professional",</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE(A15,"Class",A15,":",A15,C15,A15)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G15" t="s">
@@ -19854,11 +19868,11 @@
         <v>367</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE(A16,"Predicate",A16,":",A16,B16,A16,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"sad",</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE(A16,"Class",A16,":",A16,C16,A16)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G16" t="s">
@@ -19879,11 +19893,11 @@
         <v>367</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE(A17,"Predicate",A17,":",A17,B17,A17,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"selfish",</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE(A17,"Class",A17,":",A17,C17,A17)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G17" t="s">
@@ -19904,11 +19918,11 @@
         <v>367</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE(A18,"Predicate",A18,":",A18,B18,A18,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"strict",</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE(A18,"Class",A18,":",A18,C18,A18)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"human"</v>
       </c>
       <c r="G18" t="s">
@@ -19929,11 +19943,11 @@
         <v>367</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE(A19,"Predicate",A19,":",A19,B19,A19,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"brazilian",</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE(A19,"Class",A19,":",A19,C19,A19)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G19" t="s">
@@ -19954,11 +19968,11 @@
         <v>367</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE(A20,"Predicate",A20,":",A20,B20,A20,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"english",</v>
       </c>
       <c r="F20" t="str">
-        <f>CONCATENATE(A20,"Class",A20,":",A20,C20,A20)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G20" t="s">
@@ -19979,11 +19993,11 @@
         <v>367</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE(A21,"Predicate",A21,":",A21,B21,A21,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"european",</v>
       </c>
       <c r="F21" t="str">
-        <f>CONCATENATE(A21,"Class",A21,":",A21,C21,A21)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G21" t="s">
@@ -20004,11 +20018,11 @@
         <v>367</v>
       </c>
       <c r="E22" t="str">
-        <f>CONCATENATE(A22,"Predicate",A22,":",A22,B22,A22,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"hispanic",</v>
       </c>
       <c r="F22" t="str">
-        <f>CONCATENATE(A22,"Class",A22,":",A22,C22,A22)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G22" t="s">
@@ -20029,11 +20043,11 @@
         <v>367</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE(A23,"Predicate",A23,":",A23,B23,A23,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"international",</v>
       </c>
       <c r="F23" t="str">
-        <f>CONCATENATE(A23,"Class",A23,":",A23,C23,A23)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G23" t="s">
@@ -20054,11 +20068,11 @@
         <v>367</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE(A24,"Predicate",A24,":",A24,B24,A24,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"japanese",</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE(A24,"Class",A24,":",A24,C24,A24)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G24" t="s">
@@ -20079,11 +20093,11 @@
         <v>367</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE(A25,"Predicate",A25,":",A25,B25,A25,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"national",</v>
       </c>
       <c r="F25" t="str">
-        <f>CONCATENATE(A25,"Class",A25,":",A25,C25,A25)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G25" t="s">
@@ -20104,11 +20118,11 @@
         <v>367</v>
       </c>
       <c r="E26" t="str">
-        <f>CONCATENATE(A26,"Predicate",A26,":",A26,B26,A26,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"vietnamese",</v>
       </c>
       <c r="F26" t="str">
-        <f>CONCATENATE(A26,"Class",A26,":",A26,C26,A26)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"nationality"</v>
       </c>
       <c r="G26" t="s">
@@ -20129,11 +20143,11 @@
         <v>367</v>
       </c>
       <c r="E27" t="str">
-        <f>CONCATENATE(A27,"Predicate",A27,":",A27,B27,A27,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"creamy",</v>
       </c>
       <c r="F27" t="str">
-        <f>CONCATENATE(A27,"Class",A27,":",A27,C27,A27)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G27" t="s">
@@ -20154,11 +20168,11 @@
         <v>367</v>
       </c>
       <c r="E28" t="str">
-        <f>CONCATENATE(A28,"Predicate",A28,":",A28,B28,A28,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"curly",</v>
       </c>
       <c r="F28" t="str">
-        <f>CONCATENATE(A28,"Class",A28,":",A28,C28,A28)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G28" t="s">
@@ -20179,11 +20193,11 @@
         <v>367</v>
       </c>
       <c r="E29" t="str">
-        <f>CONCATENATE(A29,"Predicate",A29,":",A29,B29,A29,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"frozen",</v>
       </c>
       <c r="F29" t="str">
-        <f>CONCATENATE(A29,"Class",A29,":",A29,C29,A29)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G29" t="s">
@@ -20204,11 +20218,11 @@
         <v>367</v>
       </c>
       <c r="E30" t="str">
-        <f>CONCATENATE(A30,"Predicate",A30,":",A30,B30,A30,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"lacy",</v>
       </c>
       <c r="F30" t="str">
-        <f>CONCATENATE(A30,"Class",A30,":",A30,C30,A30)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G30" t="s">
@@ -20229,11 +20243,11 @@
         <v>367</v>
       </c>
       <c r="E31" t="str">
-        <f>CONCATENATE(A31,"Predicate",A31,":",A31,B31,A31,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"smooth",</v>
       </c>
       <c r="F31" t="str">
-        <f>CONCATENATE(A31,"Class",A31,":",A31,C31,A31)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G31" t="s">
@@ -20254,11 +20268,11 @@
         <v>367</v>
       </c>
       <c r="E32" t="str">
-        <f>CONCATENATE(A32,"Predicate",A32,":",A32,B32,A32,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"solid",</v>
       </c>
       <c r="F32" t="str">
-        <f>CONCATENATE(A32,"Class",A32,":",A32,C32,A32)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G32" t="s">
@@ -20279,11 +20293,11 @@
         <v>367</v>
       </c>
       <c r="E33" t="str">
-        <f>CONCATENATE(A33,"Predicate",A33,":",A33,B33,A33,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"spicy",</v>
       </c>
       <c r="F33" t="str">
-        <f>CONCATENATE(A33,"Class",A33,":",A33,C33,A33)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G33" t="s">
@@ -20304,11 +20318,11 @@
         <v>367</v>
       </c>
       <c r="E34" t="str">
-        <f>CONCATENATE(A34,"Predicate",A34,":",A34,B34,A34,",")</f>
+        <f t="shared" si="0"/>
         <v>"Predicate":"sweet",</v>
       </c>
       <c r="F34" t="str">
-        <f>CONCATENATE(A34,"Class",A34,":",A34,C34,A34)</f>
+        <f t="shared" si="1"/>
         <v>"Class":"physical"</v>
       </c>
       <c r="G34" t="s">
@@ -20329,11 +20343,11 @@
         <v>367</v>
       </c>
       <c r="E35" t="str">
-        <f>CONCATENATE(A35,"Predicate",A35,":",A35,B35,A35,",")</f>
+        <f t="shared" ref="E35:E66" si="2">CONCATENATE(A35,"Predicate",A35,":",A35,B35,A35,",")</f>
         <v>"Predicate":"best",</v>
       </c>
       <c r="F35" t="str">
-        <f>CONCATENATE(A35,"Class",A35,":",A35,C35,A35)</f>
+        <f t="shared" ref="F35:F66" si="3">CONCATENATE(A35,"Class",A35,":",A35,C35,A35)</f>
         <v>"Class":"value"</v>
       </c>
       <c r="G35" t="s">
@@ -20354,11 +20368,11 @@
         <v>367</v>
       </c>
       <c r="E36" t="str">
-        <f>CONCATENATE(A36,"Predicate",A36,":",A36,B36,A36,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"exciting",</v>
       </c>
       <c r="F36" t="str">
-        <f>CONCATENATE(A36,"Class",A36,":",A36,C36,A36)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G36" t="s">
@@ -20379,11 +20393,11 @@
         <v>367</v>
       </c>
       <c r="E37" t="str">
-        <f>CONCATENATE(A37,"Predicate",A37,":",A37,B37,A37,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"favorite",</v>
       </c>
       <c r="F37" t="str">
-        <f>CONCATENATE(A37,"Class",A37,":",A37,C37,A37)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G37" t="s">
@@ -20404,11 +20418,11 @@
         <v>367</v>
       </c>
       <c r="E38" t="str">
-        <f>CONCATENATE(A38,"Predicate",A38,":",A38,B38,A38,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"lavish",</v>
       </c>
       <c r="F38" t="str">
-        <f>CONCATENATE(A38,"Class",A38,":",A38,C38,A38)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G38" t="s">
@@ -20429,11 +20443,11 @@
         <v>367</v>
       </c>
       <c r="E39" t="str">
-        <f>CONCATENATE(A39,"Predicate",A39,":",A39,B39,A39,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"plain",</v>
       </c>
       <c r="F39" t="str">
-        <f>CONCATENATE(A39,"Class",A39,":",A39,C39,A39)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G39" t="s">
@@ -20454,11 +20468,11 @@
         <v>367</v>
       </c>
       <c r="E40" t="str">
-        <f>CONCATENATE(A40,"Predicate",A40,":",A40,B40,A40,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"pleasant",</v>
       </c>
       <c r="F40" t="str">
-        <f>CONCATENATE(A40,"Class",A40,":",A40,C40,A40)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G40" t="s">
@@ -20479,11 +20493,11 @@
         <v>367</v>
       </c>
       <c r="E41" t="str">
-        <f>CONCATENATE(A41,"Predicate",A41,":",A41,B41,A41,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"prestigious",</v>
       </c>
       <c r="F41" t="str">
-        <f>CONCATENATE(A41,"Class",A41,":",A41,C41,A41)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G41" t="s">
@@ -20504,11 +20518,11 @@
         <v>367</v>
       </c>
       <c r="E42" t="str">
-        <f>CONCATENATE(A42,"Predicate",A42,":",A42,B42,A42,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"strange",</v>
       </c>
       <c r="F42" t="str">
-        <f>CONCATENATE(A42,"Class",A42,":",A42,C42,A42)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"value"</v>
       </c>
       <c r="G42" t="s">
@@ -20529,11 +20543,11 @@
         <v>367</v>
       </c>
       <c r="E43" t="str">
-        <f>CONCATENATE(A43,"Predicate",A43,":",A43,B43,A43,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"designated",</v>
       </c>
       <c r="F43" t="str">
-        <f>CONCATENATE(A43,"Class",A43,":",A43,C43,A43)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G43" t="s">
@@ -20554,11 +20568,11 @@
         <v>367</v>
       </c>
       <c r="E44" t="str">
-        <f>CONCATENATE(A44,"Predicate",A44,":",A44,B44,A44,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"different",</v>
       </c>
       <c r="F44" t="str">
-        <f>CONCATENATE(A44,"Class",A44,":",A44,C44,A44)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G44" t="s">
@@ -20580,11 +20594,11 @@
         <v>367</v>
       </c>
       <c r="E45" t="str">
-        <f>CONCATENATE(A45,"Predicate",A45,":",A45,B45,A45,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"individual",</v>
       </c>
       <c r="F45" t="str">
-        <f>CONCATENATE(A45,"Class",A45,":",A45,C45,A45)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G45" t="s">
@@ -20605,11 +20619,11 @@
         <v>367</v>
       </c>
       <c r="E46" t="str">
-        <f>CONCATENATE(A46,"Predicate",A46,":",A46,B46,A46,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"last",</v>
       </c>
       <c r="F46" t="str">
-        <f>CONCATENATE(A46,"Class",A46,":",A46,C46,A46)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G46" t="s">
@@ -20630,11 +20644,11 @@
         <v>367</v>
       </c>
       <c r="E47" t="str">
-        <f>CONCATENATE(A47,"Predicate",A47,":",A47,B47,A47,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"mixed",</v>
       </c>
       <c r="F47" t="str">
-        <f>CONCATENATE(A47,"Class",A47,":",A47,C47,A47)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G47" t="s">
@@ -20655,11 +20669,11 @@
         <v>367</v>
       </c>
       <c r="E48" t="str">
-        <f>CONCATENATE(A48,"Predicate",A48,":",A48,B48,A48,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"potential",</v>
       </c>
       <c r="F48" t="str">
-        <f>CONCATENATE(A48,"Class",A48,":",A48,C48,A48)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G48" t="s">
@@ -20680,11 +20694,11 @@
         <v>367</v>
       </c>
       <c r="E49" t="str">
-        <f>CONCATENATE(A49,"Predicate",A49,":",A49,B49,A49,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"token",</v>
       </c>
       <c r="F49" t="str">
-        <f>CONCATENATE(A49,"Class",A49,":",A49,C49,A49)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G49" t="s">
@@ -20705,11 +20719,11 @@
         <v>367</v>
       </c>
       <c r="E50" t="str">
-        <f>CONCATENATE(A50,"Predicate",A50,":",A50,B50,A50,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"unique",</v>
       </c>
       <c r="F50" t="str">
-        <f>CONCATENATE(A50,"Class",A50,":",A50,C50,A50)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"X"</v>
       </c>
       <c r="G50" t="s">
@@ -20730,11 +20744,11 @@
         <v>367</v>
       </c>
       <c r="E51" t="str">
-        <f>CONCATENATE(A51,"Predicate",A51,":",A51,B51,A51,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"junior",</v>
       </c>
       <c r="F51" t="str">
-        <f>CONCATENATE(A51,"Class",A51,":",A51,C51,A51)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G51" t="s">
@@ -20755,11 +20769,11 @@
         <v>367</v>
       </c>
       <c r="E52" t="str">
-        <f>CONCATENATE(A52,"Predicate",A52,":",A52,B52,A52,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"new",</v>
       </c>
       <c r="F52" t="str">
-        <f>CONCATENATE(A52,"Class",A52,":",A52,C52,A52)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G52" t="s">
@@ -20780,11 +20794,11 @@
         <v>367</v>
       </c>
       <c r="E53" t="str">
-        <f>CONCATENATE(A53,"Predicate",A53,":",A53,B53,A53,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"old",</v>
       </c>
       <c r="F53" t="str">
-        <f>CONCATENATE(A53,"Class",A53,":",A53,C53,A53)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G53" t="s">
@@ -20805,11 +20819,11 @@
         <v>367</v>
       </c>
       <c r="E54" t="str">
-        <f>CONCATENATE(A54,"Predicate",A54,":",A54,B54,A54,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"old-time",</v>
       </c>
       <c r="F54" t="str">
-        <f>CONCATENATE(A54,"Class",A54,":",A54,C54,A54)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G54" t="s">
@@ -20830,11 +20844,11 @@
         <v>367</v>
       </c>
       <c r="E55" t="str">
-        <f>CONCATENATE(A55,"Predicate",A55,":",A55,B55,A55,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"senior",</v>
       </c>
       <c r="F55" t="str">
-        <f>CONCATENATE(A55,"Class",A55,":",A55,C55,A55)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G55" t="s">
@@ -20855,11 +20869,11 @@
         <v>367</v>
       </c>
       <c r="E56" t="str">
-        <f>CONCATENATE(A56,"Predicate",A56,":",A56,B56,A56,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"young",</v>
       </c>
       <c r="F56" t="str">
-        <f>CONCATENATE(A56,"Class",A56,":",A56,C56,A56)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"age"</v>
       </c>
       <c r="G56" t="s">
@@ -20880,11 +20894,11 @@
         <v>367</v>
       </c>
       <c r="E57" t="str">
-        <f>CONCATENATE(A57,"Predicate",A57,":",A57,B57,A57,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"black",</v>
       </c>
       <c r="F57" t="str">
-        <f>CONCATENATE(A57,"Class",A57,":",A57,C57,A57)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G57" t="s">
@@ -20905,11 +20919,11 @@
         <v>367</v>
       </c>
       <c r="E58" t="str">
-        <f>CONCATENATE(A58,"Predicate",A58,":",A58,B58,A58,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"blonde",</v>
       </c>
       <c r="F58" t="str">
-        <f>CONCATENATE(A58,"Class",A58,":",A58,C58,A58)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G58" t="s">
@@ -20930,11 +20944,11 @@
         <v>367</v>
       </c>
       <c r="E59" t="str">
-        <f>CONCATENATE(A59,"Predicate",A59,":",A59,B59,A59,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"blue",</v>
       </c>
       <c r="F59" t="str">
-        <f>CONCATENATE(A59,"Class",A59,":",A59,C59,A59)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G59" t="s">
@@ -20955,11 +20969,11 @@
         <v>367</v>
       </c>
       <c r="E60" t="str">
-        <f>CONCATENATE(A60,"Predicate",A60,":",A60,B60,A60,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"green",</v>
       </c>
       <c r="F60" t="str">
-        <f>CONCATENATE(A60,"Class",A60,":",A60,C60,A60)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G60" t="s">
@@ -20980,11 +20994,11 @@
         <v>367</v>
       </c>
       <c r="E61" t="str">
-        <f>CONCATENATE(A61,"Predicate",A61,":",A61,B61,A61,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"purple",</v>
       </c>
       <c r="F61" t="str">
-        <f>CONCATENATE(A61,"Class",A61,":",A61,C61,A61)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G61" t="s">
@@ -21005,11 +21019,11 @@
         <v>367</v>
       </c>
       <c r="E62" t="str">
-        <f>CONCATENATE(A62,"Predicate",A62,":",A62,B62,A62,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"red",</v>
       </c>
       <c r="F62" t="str">
-        <f>CONCATENATE(A62,"Class",A62,":",A62,C62,A62)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G62" t="s">
@@ -21030,11 +21044,11 @@
         <v>367</v>
       </c>
       <c r="E63" t="str">
-        <f>CONCATENATE(A63,"Predicate",A63,":",A63,B63,A63,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"white",</v>
       </c>
       <c r="F63" t="str">
-        <f>CONCATENATE(A63,"Class",A63,":",A63,C63,A63)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G63" t="s">
@@ -21055,11 +21069,11 @@
         <v>367</v>
       </c>
       <c r="E64" t="str">
-        <f>CONCATENATE(A64,"Predicate",A64,":",A64,B64,A64,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"yellow",</v>
       </c>
       <c r="F64" t="str">
-        <f>CONCATENATE(A64,"Class",A64,":",A64,C64,A64)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"color"</v>
       </c>
       <c r="G64" t="s">
@@ -21080,11 +21094,11 @@
         <v>367</v>
       </c>
       <c r="E65" t="str">
-        <f>CONCATENATE(A65,"Predicate",A65,":",A65,B65,A65,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"closest",</v>
       </c>
       <c r="F65" t="str">
-        <f>CONCATENATE(A65,"Class",A65,":",A65,C65,A65)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"location"</v>
       </c>
       <c r="G65" t="s">
@@ -21105,11 +21119,11 @@
         <v>367</v>
       </c>
       <c r="E66" t="str">
-        <f>CONCATENATE(A66,"Predicate",A66,":",A66,B66,A66,",")</f>
+        <f t="shared" si="2"/>
         <v>"Predicate":"internal",</v>
       </c>
       <c r="F66" t="str">
-        <f>CONCATENATE(A66,"Class",A66,":",A66,C66,A66)</f>
+        <f t="shared" si="3"/>
         <v>"Class":"location"</v>
       </c>
       <c r="G66" t="s">
@@ -21130,11 +21144,11 @@
         <v>367</v>
       </c>
       <c r="E67" t="str">
-        <f>CONCATENATE(A67,"Predicate",A67,":",A67,B67,A67,",")</f>
+        <f t="shared" ref="E67:E80" si="4">CONCATENATE(A67,"Predicate",A67,":",A67,B67,A67,",")</f>
         <v>"Predicate":"overhead",</v>
       </c>
       <c r="F67" t="str">
-        <f>CONCATENATE(A67,"Class",A67,":",A67,C67,A67)</f>
+        <f t="shared" ref="F67:F80" si="5">CONCATENATE(A67,"Class",A67,":",A67,C67,A67)</f>
         <v>"Class":"location"</v>
       </c>
       <c r="G67" t="s">
@@ -21155,11 +21169,11 @@
         <v>367</v>
       </c>
       <c r="E68" t="str">
-        <f>CONCATENATE(A68,"Predicate",A68,":",A68,B68,A68,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"corduroy",</v>
       </c>
       <c r="F68" t="str">
-        <f>CONCATENATE(A68,"Class",A68,":",A68,C68,A68)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"material"</v>
       </c>
       <c r="G68" t="s">
@@ -21180,11 +21194,11 @@
         <v>367</v>
       </c>
       <c r="E69" t="str">
-        <f>CONCATENATE(A69,"Predicate",A69,":",A69,B69,A69,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"crocheted",</v>
       </c>
       <c r="F69" t="str">
-        <f>CONCATENATE(A69,"Class",A69,":",A69,C69,A69)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"material"</v>
       </c>
       <c r="G69" t="s">
@@ -21205,11 +21219,11 @@
         <v>367</v>
       </c>
       <c r="E70" t="str">
-        <f>CONCATENATE(A70,"Predicate",A70,":",A70,B70,A70,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"gold",</v>
       </c>
       <c r="F70" t="str">
-        <f>CONCATENATE(A70,"Class",A70,":",A70,C70,A70)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"material"</v>
       </c>
       <c r="G70" t="s">
@@ -21230,11 +21244,11 @@
         <v>367</v>
       </c>
       <c r="E71" t="str">
-        <f>CONCATENATE(A71,"Predicate",A71,":",A71,B71,A71,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"wooden",</v>
       </c>
       <c r="F71" t="str">
-        <f>CONCATENATE(A71,"Class",A71,":",A71,C71,A71)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"material"</v>
       </c>
       <c r="G71" t="s">
@@ -21255,11 +21269,11 @@
         <v>367</v>
       </c>
       <c r="E72" t="str">
-        <f>CONCATENATE(A72,"Predicate",A72,":",A72,B72,A72,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"circular",</v>
       </c>
       <c r="F72" t="str">
-        <f>CONCATENATE(A72,"Class",A72,":",A72,C72,A72)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"shape"</v>
       </c>
       <c r="G72" t="s">
@@ -21280,11 +21294,11 @@
         <v>367</v>
       </c>
       <c r="E73" t="str">
-        <f>CONCATENATE(A73,"Predicate",A73,":",A73,B73,A73,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"square",</v>
       </c>
       <c r="F73" t="str">
-        <f>CONCATENATE(A73,"Class",A73,":",A73,C73,A73)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"shape"</v>
       </c>
       <c r="G73" t="s">
@@ -21305,11 +21319,11 @@
         <v>367</v>
       </c>
       <c r="E74" t="str">
-        <f>CONCATENATE(A74,"Predicate",A74,":",A74,B74,A74,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"fast",</v>
       </c>
       <c r="F74" t="str">
-        <f>CONCATENATE(A74,"Class",A74,":",A74,C74,A74)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"speed"</v>
       </c>
       <c r="G74" t="s">
@@ -21330,11 +21344,11 @@
         <v>367</v>
       </c>
       <c r="E75" t="str">
-        <f>CONCATENATE(A75,"Predicate",A75,":",A75,B75,A75,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"slow",</v>
       </c>
       <c r="F75" t="str">
-        <f>CONCATENATE(A75,"Class",A75,":",A75,C75,A75)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"speed"</v>
       </c>
       <c r="G75" t="s">
@@ -21355,11 +21369,11 @@
         <v>367</v>
       </c>
       <c r="E76" t="str">
-        <f>CONCATENATE(A76,"Predicate",A76,":",A76,B76,A76,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"speedy",</v>
       </c>
       <c r="F76" t="str">
-        <f>CONCATENATE(A76,"Class",A76,":",A76,C76,A76)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"speed"</v>
       </c>
       <c r="G76" t="s">
@@ -21380,11 +21394,11 @@
         <v>367</v>
       </c>
       <c r="E77" t="str">
-        <f>CONCATENATE(A77,"Predicate",A77,":",A77,B77,A77,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"current",</v>
       </c>
       <c r="F77" t="str">
-        <f>CONCATENATE(A77,"Class",A77,":",A77,C77,A77)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"temporal"</v>
       </c>
       <c r="G77" t="s">
@@ -21405,11 +21419,11 @@
         <v>367</v>
       </c>
       <c r="E78" t="str">
-        <f>CONCATENATE(A78,"Predicate",A78,":",A78,B78,A78,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"daily",</v>
       </c>
       <c r="F78" t="str">
-        <f>CONCATENATE(A78,"Class",A78,":",A78,C78,A78)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"temporal"</v>
       </c>
       <c r="G78" t="s">
@@ -21430,11 +21444,11 @@
         <v>367</v>
       </c>
       <c r="E79" t="str">
-        <f>CONCATENATE(A79,"Predicate",A79,":",A79,B79,A79,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"everyday",</v>
       </c>
       <c r="F79" t="str">
-        <f>CONCATENATE(A79,"Class",A79,":",A79,C79,A79)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"temporal"</v>
       </c>
       <c r="G79" t="s">
@@ -21455,11 +21469,11 @@
         <v>367</v>
       </c>
       <c r="E80" t="str">
-        <f>CONCATENATE(A80,"Predicate",A80,":",A80,B80,A80,",")</f>
+        <f t="shared" si="4"/>
         <v>"Predicate":"historical",</v>
       </c>
       <c r="F80" t="str">
-        <f>CONCATENATE(A80,"Class",A80,":",A80,C80,A80)</f>
+        <f t="shared" si="5"/>
         <v>"Class":"temporal"</v>
       </c>
       <c r="G80" t="s">

--- a/corpus_results/data/swbd_adjectives.combined.xlsx
+++ b/corpus_results/data/swbd_adjectives.combined.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="0" windowWidth="39140" windowHeight="27840" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="39140" windowHeight="27840" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="swbd_adjectives.combined.csv" sheetId="1" r:id="rId1"/>
     <sheet name="adjectives.js" sheetId="2" r:id="rId2"/>
     <sheet name="nouns.js" sheetId="3" r:id="rId3"/>
     <sheet name="sampled-adjectives.js" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="544">
   <si>
     <t>header</t>
   </si>
@@ -1648,6 +1649,12 @@
   </si>
   <si>
     <t>space</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1710,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1732,7 +1749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1744,6 +1761,11 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1755,6 +1777,11 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10370,7 +10397,7 @@
   <dimension ref="A3:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15326,7 +15353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
@@ -19512,7 +19539,7 @@
   <dimension ref="A2:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G80" sqref="D3:G80"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21489,4 +21516,1016 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="B1:M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>542</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>542</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>542</v>
+      </c>
+      <c r="J3" t="s">
+        <v>537</v>
+      </c>
+      <c r="K3" t="s">
+        <v>542</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>542</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>542</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>542</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" t="s">
+        <v>542</v>
+      </c>
+      <c r="H5" t="s">
+        <v>363</v>
+      </c>
+      <c r="I5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>542</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>542</v>
+      </c>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I6" t="s">
+        <v>542</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>542</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I7" t="s">
+        <v>542</v>
+      </c>
+      <c r="J7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="s">
+        <v>542</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>542</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>542</v>
+      </c>
+      <c r="J8" t="s">
+        <v>340</v>
+      </c>
+      <c r="K8" t="s">
+        <v>542</v>
+      </c>
+      <c r="L8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>542</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>542</v>
+      </c>
+      <c r="H9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J9" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" t="s">
+        <v>542</v>
+      </c>
+      <c r="L9" t="s">
+        <v>362</v>
+      </c>
+      <c r="M9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>542</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J10" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L10" t="s">
+        <v>362</v>
+      </c>
+      <c r="M10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>542</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>542</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>542</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>542</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>542</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>542</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s">
+        <v>542</v>
+      </c>
+      <c r="J12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K12" t="s">
+        <v>542</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>542</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>542</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>542</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>542</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>542</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>542</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>542</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>542</v>
+      </c>
+      <c r="J14" t="s">
+        <v>281</v>
+      </c>
+      <c r="K14" t="s">
+        <v>542</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>542</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>542</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>542</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>542</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>542</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>542</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>542</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>542</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>542</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>542</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>542</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>542</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>542</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>542</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>542</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>542</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>542</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>542</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>542</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
+        <v>542</v>
+      </c>
+      <c r="J19" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" t="s">
+        <v>542</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>542</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" t="s">
+        <v>542</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>542</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
+        <v>542</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>542</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>542</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>542</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>542</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>542</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>542</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>542</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>542</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>542</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>542</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>542</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>542</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>542</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>542</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>542</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>542</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>542</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>542</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>542</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>542</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>542</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>542</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>542</v>
+      </c>
+      <c r="J25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" t="s">
+        <v>542</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>542</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>542</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>542</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" t="s">
+        <v>542</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>542</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B1:D198">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>